--- a/prices.xlsx
+++ b/prices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
   <si>
     <t>Product</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Weight</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
     <t>Coconut Palm</t>
   </si>
   <si>
-    <t>Red Lentils</t>
-  </si>
-  <si>
     <t>Rice</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>Per Ea</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Drink</t>
   </si>
   <si>
@@ -226,6 +217,120 @@
   </si>
   <si>
     <t>Oka</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>Brunswick</t>
+  </si>
+  <si>
+    <t>Herring, Kippered</t>
+  </si>
+  <si>
+    <t>Sardines, Mustard</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Haddock</t>
+  </si>
+  <si>
+    <t>Costco</t>
+  </si>
+  <si>
+    <t>数</t>
+  </si>
+  <si>
+    <t>重</t>
+  </si>
+  <si>
+    <t>Turtle, Black</t>
+  </si>
+  <si>
+    <t>Cheddar, Smoked, Red</t>
+  </si>
+  <si>
+    <t>Parsnip</t>
+  </si>
+  <si>
+    <t>Gouda</t>
+  </si>
+  <si>
+    <t>Beemsters</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Pork, Ground, Lean</t>
+  </si>
+  <si>
+    <t>Beef, Ground, Extra Lean</t>
+  </si>
+  <si>
+    <t>Pork, Boneless Rib End Chops</t>
+  </si>
+  <si>
+    <t>Soy, Black, Organic</t>
+  </si>
+  <si>
+    <t>WJ</t>
+  </si>
+  <si>
+    <t>Grain</t>
+  </si>
+  <si>
+    <t>Millet</t>
+  </si>
+  <si>
+    <t>Riso</t>
+  </si>
+  <si>
+    <t>Soy, Organic</t>
+  </si>
+  <si>
+    <t>Chia Seeds</t>
+  </si>
+  <si>
+    <t>Buckwheat, Toasted</t>
+  </si>
+  <si>
+    <t>Quinoa, Organic</t>
+  </si>
+  <si>
+    <t>Food Basics</t>
+  </si>
+  <si>
+    <t>Pork, Boneless Half Pork Loin</t>
+  </si>
+  <si>
+    <t>Lentils, Red</t>
+  </si>
+  <si>
+    <t>Life Smart</t>
+  </si>
+  <si>
+    <t>Napa (Chinese)</t>
+  </si>
+  <si>
+    <t>Turkey, Ground, Extra Lean</t>
+  </si>
+  <si>
+    <t>Carrot</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>St. Aubin</t>
+  </si>
+  <si>
+    <t>Beaf, Ground, Angus, Lean</t>
+  </si>
+  <si>
+    <t>Champfleury</t>
   </si>
 </sst>
 </file>
@@ -234,12 +339,20 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0&quot;g&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00&quot;¢&quot;"/>
-    <numFmt numFmtId="171" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="0&quot;g&quot;"/>
+    <numFmt numFmtId="166" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="[&gt;0]&quot;$&quot;0.00?;;;*-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -267,18 +380,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[&gt;0]&quot;$&quot;0.00?;;;*-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[&gt;0]&quot;$&quot;0.00?;;;*-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0&quot;g&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="mmmm\ yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -286,6 +423,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J57" totalsRowShown="0">
+  <autoFilter ref="A1:J57"/>
+  <sortState ref="A2:J57">
+    <sortCondition ref="A2:A37"/>
+    <sortCondition ref="B2:B37"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Category"/>
+    <tableColumn id="2" name="Product"/>
+    <tableColumn id="3" name="Brand"/>
+    <tableColumn id="4" name="Location"/>
+    <tableColumn id="5" name="Date" dataDxfId="5"/>
+    <tableColumn id="6" name="Price" dataDxfId="4"/>
+    <tableColumn id="7" name="数" dataDxfId="3"/>
+    <tableColumn id="8" name="重" dataDxfId="2"/>
+    <tableColumn id="9" name="Per 100g" dataDxfId="1">
+      <calculatedColumnFormula>IF(H2, 100*F2/H2, "")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Per Ea" dataDxfId="0">
+      <calculatedColumnFormula>IF(G2, F2/G2, "")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,54 +739,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.140625" style="5"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="7" max="7" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
+      <c r="G1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -630,886 +797,1610 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="4">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3">
         <v>42278</v>
       </c>
       <c r="F2" s="1">
-        <v>2.69</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2">
-        <v>200</v>
-      </c>
-      <c r="I2" s="3">
-        <f>IF(H2, 100*100*F2/H2, "--")</f>
-        <v>134.5</v>
-      </c>
-      <c r="J2" s="3" t="str">
-        <f>IF(G2, 100*F2/G2, "--")</f>
-        <v>--</v>
+        <v>1800</v>
+      </c>
+      <c r="I2" s="5">
+        <f>IF(H2, 100*F2/H2, "")</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="J2" s="5" t="str">
+        <f>IF(G2, F2/G2, "")</f>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4">
-        <v>42278</v>
+        <v>94</v>
+      </c>
+      <c r="E3" s="3">
+        <v>42309</v>
       </c>
       <c r="F3" s="1">
-        <v>5</v>
+        <v>1.99</v>
       </c>
       <c r="H3" s="2">
-        <v>1800</v>
-      </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:I37" si="0">IF(H3, 100*100*F3/H3, "--")</f>
-        <v>27.777777777777779</v>
-      </c>
-      <c r="J3" s="3" t="str">
-        <f t="shared" ref="J3:J37" si="1">IF(G3, 100*F3/G3, "--")</f>
-        <v>--</v>
+        <v>900</v>
+      </c>
+      <c r="I3" s="5">
+        <f>IF(H3, 100*F3/H3, "")</f>
+        <v>0.22111111111111112</v>
+      </c>
+      <c r="J3" s="5" t="str">
+        <f>IF(G3, F3/G3, "")</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4">
-        <v>42278</v>
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <v>42309</v>
       </c>
       <c r="F4" s="1">
         <v>4.99</v>
       </c>
       <c r="H4" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" si="0"/>
-        <v>24.95</v>
-      </c>
-      <c r="J4" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>500</v>
+      </c>
+      <c r="I4" s="5">
+        <f>IF(H4, 100*F4/H4, "")</f>
+        <v>0.998</v>
+      </c>
+      <c r="J4" s="5" t="str">
+        <f>IF(G4, F4/G4, "")</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4">
-        <v>42278</v>
+        <v>48</v>
+      </c>
+      <c r="E5" s="3">
+        <v>42309</v>
       </c>
       <c r="F5" s="1">
-        <v>8.99</v>
+        <v>3.27</v>
       </c>
       <c r="H5" s="2">
-        <v>1860</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="0"/>
-        <v>48.333333333333336</v>
-      </c>
-      <c r="J5" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>1235</v>
+      </c>
+      <c r="I5" s="5">
+        <f>IF(H5, 100*F5/H5, "")</f>
+        <v>0.26477732793522268</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f>IF(G5, F5/G5, "")</f>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
         <v>42278</v>
       </c>
       <c r="F6" s="1">
-        <v>7.99</v>
+        <v>2.5</v>
       </c>
       <c r="H6" s="2">
-        <v>454</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="0"/>
-        <v>175.99118942731278</v>
-      </c>
-      <c r="J6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>900</v>
+      </c>
+      <c r="I6" s="5">
+        <f>IF(H6, 100*F6/H6, "")</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f>IF(G6, F6/G6, "")</f>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
         <v>42278</v>
       </c>
       <c r="F7" s="1">
-        <v>8.99</v>
+        <v>5</v>
       </c>
       <c r="H7" s="2">
-        <v>454</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" si="0"/>
-        <v>198.01762114537445</v>
-      </c>
-      <c r="J7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>1800</v>
+      </c>
+      <c r="I7" s="5">
+        <f>IF(H7, 100*F7/H7, "")</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f>IF(G7, F7/G7, "")</f>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3">
         <v>42278</v>
       </c>
       <c r="F8" s="1">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="H8" s="2">
-        <v>8300</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="0"/>
-        <v>20.469879518072286</v>
-      </c>
-      <c r="J8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>1.28</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f>IF(H8, 100*F8/H8, "")</f>
+        <v/>
+      </c>
+      <c r="J8" s="5">
+        <f>IF(G8, F8/G8, "")</f>
+        <v>1.28</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="4">
-        <v>42278</v>
+        <v>12</v>
+      </c>
+      <c r="E9" s="3">
+        <v>42309</v>
       </c>
       <c r="F9" s="1">
-        <v>2.99</v>
-      </c>
-      <c r="G9" s="5">
-        <v>6</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="1"/>
-        <v>49.833333333333336</v>
+        <v>3.35</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1925</v>
+      </c>
+      <c r="I9" s="5">
+        <f>IF(H9, 100*F9/H9, "")</f>
+        <v>0.17402597402597403</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f>IF(G9, F9/G9, "")</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="4">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3">
         <v>42278</v>
       </c>
       <c r="F10" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>11.25</v>
-      </c>
-      <c r="J10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>6</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f>IF(H10, 100*F10/H10, "")</f>
+        <v/>
+      </c>
+      <c r="J10" s="5">
+        <f>IF(G10, F10/G10, "")</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="4">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3">
         <v>42278</v>
       </c>
       <c r="F11" s="1">
-        <v>4.99</v>
-      </c>
-      <c r="H11" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>16.633333333333333</v>
-      </c>
-      <c r="J11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>1.39</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f>IF(H11, 100*F11/H11, "")</f>
+        <v/>
+      </c>
+      <c r="J11" s="5">
+        <f>IF(G11, F11/G11, "")</f>
+        <v>1.39</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="4">
-        <v>42278</v>
+        <v>12</v>
+      </c>
+      <c r="E12" s="3">
+        <v>42309</v>
       </c>
       <c r="F12" s="1">
-        <v>5</v>
+        <v>1.05</v>
       </c>
       <c r="H12" s="2">
-        <v>1800</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="0"/>
-        <v>27.777777777777779</v>
-      </c>
-      <c r="J12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>370</v>
+      </c>
+      <c r="I12" s="5">
+        <f>IF(H12, 100*F12/H12, "")</f>
+        <v>0.28378378378378377</v>
+      </c>
+      <c r="J12" s="5" t="str">
+        <f>IF(G12, F12/G12, "")</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="4">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3">
         <v>42278</v>
       </c>
       <c r="F13" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="G13" s="5">
-        <v>3</v>
-      </c>
-      <c r="I13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f>IF(H13, 100*F13/H13, "")</f>
+        <v/>
+      </c>
+      <c r="J13" s="5">
+        <f>IF(G13, F13/G13, "")</f>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="4">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3">
         <v>42278</v>
       </c>
       <c r="F14" s="1">
-        <v>2.5</v>
+        <v>8.99</v>
       </c>
       <c r="H14" s="2">
-        <v>1360</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="0"/>
-        <v>18.382352941176471</v>
-      </c>
-      <c r="J14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>454</v>
+      </c>
+      <c r="I14" s="5">
+        <f>IF(H14, 100*F14/H14, "")</f>
+        <v>1.9801762114537445</v>
+      </c>
+      <c r="J14" s="5" t="str">
+        <f>IF(G14, F14/G14, "")</f>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="4">
-        <v>42278</v>
+        <v>12</v>
+      </c>
+      <c r="E15" s="3">
+        <v>42309</v>
       </c>
       <c r="F15" s="1">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="1"/>
-        <v>249.00000000000003</v>
+        <v>7.9</v>
+      </c>
+      <c r="H15" s="2">
+        <v>180</v>
+      </c>
+      <c r="I15" s="5">
+        <f>IF(H15, 100*F15/H15, "")</f>
+        <v>4.3888888888888893</v>
+      </c>
+      <c r="J15" s="5" t="str">
+        <f>IF(G15, F15/G15, "")</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="4">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3">
         <v>42278</v>
       </c>
       <c r="F16" s="1">
-        <v>0.89</v>
+        <v>3.99</v>
       </c>
       <c r="H16" s="2">
-        <v>135</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="0"/>
-        <v>65.925925925925924</v>
-      </c>
-      <c r="J16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>100</v>
+      </c>
+      <c r="I16" s="5">
+        <f>IF(H16, 100*F16/H16, "")</f>
+        <v>3.99</v>
+      </c>
+      <c r="J16" s="5" t="str">
+        <f>IF(G16, F16/G16, "")</f>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="4">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3">
         <v>42278</v>
       </c>
       <c r="F17" s="1">
-        <v>8.49</v>
+        <v>2.99</v>
       </c>
       <c r="H17" s="2">
-        <v>454</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>187.00440528634363</v>
-      </c>
-      <c r="J17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>100</v>
+      </c>
+      <c r="I17" s="5">
+        <f>IF(H17, 100*F17/H17, "")</f>
+        <v>2.99</v>
+      </c>
+      <c r="J17" s="5" t="str">
+        <f>IF(G17, F17/G17, "")</f>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="4">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3">
         <v>42278</v>
       </c>
       <c r="F18" s="1">
-        <v>0.92</v>
+        <v>7.99</v>
       </c>
       <c r="H18" s="2">
-        <v>45</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="0"/>
-        <v>204.44444444444446</v>
-      </c>
-      <c r="J18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>454</v>
+      </c>
+      <c r="I18" s="5">
+        <f>IF(H18, 100*F18/H18, "")</f>
+        <v>1.7599118942731278</v>
+      </c>
+      <c r="J18" s="5" t="str">
+        <f>IF(G18, F18/G18, "")</f>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="4">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3">
         <v>42278</v>
       </c>
       <c r="F19" s="1">
-        <v>4.25</v>
+        <v>8.49</v>
       </c>
       <c r="H19" s="2">
-        <v>495</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="0"/>
-        <v>85.858585858585855</v>
-      </c>
-      <c r="J19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>454</v>
+      </c>
+      <c r="I19" s="5">
+        <f>IF(H19, 100*F19/H19, "")</f>
+        <v>1.8700440528634361</v>
+      </c>
+      <c r="J19" s="5" t="str">
+        <f>IF(G19, F19/G19, "")</f>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="4">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3">
         <v>42278</v>
       </c>
       <c r="F20" s="1">
-        <v>2.2599999999999998</v>
+        <v>4.29</v>
       </c>
       <c r="H20" s="2">
-        <v>4000</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="0"/>
-        <v>5.6499999999999995</v>
-      </c>
-      <c r="J20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>100</v>
+      </c>
+      <c r="I20" s="5">
+        <f>IF(H20, 100*F20/H20, "")</f>
+        <v>4.29</v>
+      </c>
+      <c r="J20" s="5" t="str">
+        <f>IF(G20, F20/G20, "")</f>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="4">
-        <v>42278</v>
+        <v>12</v>
+      </c>
+      <c r="E21" s="3">
+        <v>42309</v>
       </c>
       <c r="F21" s="1">
-        <v>4</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="H21" s="2">
-        <v>9072</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="0"/>
-        <v>4.4091710758377429</v>
-      </c>
-      <c r="J21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>200</v>
+      </c>
+      <c r="I21" s="5">
+        <f>IF(H21, 100*F21/H21, "")</f>
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="J21" s="5" t="str">
+        <f>IF(G21, F21/G21, "")</f>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="4">
+        <v>31</v>
+      </c>
+      <c r="E22" s="3">
         <v>42278</v>
       </c>
       <c r="F22" s="1">
-        <v>2.99</v>
-      </c>
-      <c r="G22" s="5">
-        <v>6</v>
-      </c>
-      <c r="I22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J22" s="3">
-        <f t="shared" si="1"/>
-        <v>49.833333333333336</v>
+        <v>2.25</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I22" s="5">
+        <f>IF(H22, 100*F22/H22, "")</f>
+        <v>0.1125</v>
+      </c>
+      <c r="J22" s="5" t="str">
+        <f>IF(G22, F22/G22, "")</f>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="4">
+        <v>12</v>
+      </c>
+      <c r="E23" s="3">
         <v>42278</v>
       </c>
       <c r="F23" s="1">
-        <v>1.28</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J23" s="3">
-        <f t="shared" si="1"/>
-        <v>128</v>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4000</v>
+      </c>
+      <c r="I23" s="5">
+        <f>IF(H23, 100*F23/H23, "")</f>
+        <v>5.6499999999999995E-2</v>
+      </c>
+      <c r="J23" s="5" t="str">
+        <f>IF(G23, F23/G23, "")</f>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="4">
+        <v>26</v>
+      </c>
+      <c r="E24" s="3">
         <v>42278</v>
       </c>
       <c r="F24" s="1">
-        <v>3.29</v>
-      </c>
-      <c r="I24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>2.99</v>
+      </c>
+      <c r="G24" s="4">
+        <v>6</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f>IF(H24, 100*F24/H24, "")</f>
+        <v/>
+      </c>
+      <c r="J24" s="5">
+        <f>IF(G24, F24/G24, "")</f>
+        <v>0.49833333333333335</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="4">
+        <v>21</v>
+      </c>
+      <c r="E25" s="3">
         <v>42278</v>
       </c>
       <c r="F25" s="1">
-        <v>2.79</v>
-      </c>
-      <c r="I25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J25" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>2.99</v>
+      </c>
+      <c r="G25" s="4">
+        <v>6</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f>IF(H25, 100*F25/H25, "")</f>
+        <v/>
+      </c>
+      <c r="J25" s="5">
+        <f>IF(G25, F25/G25, "")</f>
+        <v>0.49833333333333335</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="4">
+        <v>73</v>
+      </c>
+      <c r="E26" s="3">
         <v>42278</v>
       </c>
       <c r="F26" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J26" s="3">
-        <f t="shared" si="1"/>
-        <v>288</v>
+        <v>12.99</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="5">
+        <f>IF(H26, 100*F26/H26, "")</f>
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="J26" s="5" t="str">
+        <f>IF(G26, F26/G26, "")</f>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="4">
+        <v>48</v>
+      </c>
+      <c r="E27" s="3">
         <v>42278</v>
       </c>
       <c r="F27" s="1">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="I27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>4.25</v>
+      </c>
+      <c r="H27" s="2">
+        <v>495</v>
+      </c>
+      <c r="I27" s="5">
+        <f>IF(H27, 100*F27/H27, "")</f>
+        <v>0.85858585858585856</v>
+      </c>
+      <c r="J27" s="5" t="str">
+        <f>IF(G27, F27/G27, "")</f>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
       </c>
       <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G28" s="4">
+        <v>3</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f>IF(H28, 100*F28/H28, "")</f>
+        <v/>
+      </c>
+      <c r="J28" s="5">
+        <f>IF(G28, F28/G28, "")</f>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="H29" s="2">
+        <v>135</v>
+      </c>
+      <c r="I29" s="5">
+        <f>IF(H29, 100*F29/H29, "")</f>
+        <v>0.65925925925925921</v>
+      </c>
+      <c r="J29" s="5" t="str">
+        <f>IF(G29, F29/G29, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="H30" s="2">
+        <v>200</v>
+      </c>
+      <c r="I30" s="5">
+        <f>IF(H30, 100*F30/H30, "")</f>
+        <v>0.77</v>
+      </c>
+      <c r="J30" s="5" t="str">
+        <f>IF(G30, F30/G30, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="H31" s="2">
+        <v>900</v>
+      </c>
+      <c r="I31" s="5">
+        <f>IF(H31, 100*F31/H31, "")</f>
+        <v>0.44333333333333336</v>
+      </c>
+      <c r="J31" s="5" t="str">
+        <f>IF(G31, F31/G31, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H32" s="2">
+        <v>115</v>
+      </c>
+      <c r="I32" s="5">
+        <f>IF(H32, 100*F32/H32, "")</f>
+        <v>2.1304347826086958</v>
+      </c>
+      <c r="J32" s="5" t="str">
+        <f>IF(G32, F32/G32, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="H33" s="2">
+        <v>400</v>
+      </c>
+      <c r="I33" s="5">
+        <f>IF(H33, 100*F33/H33, "")</f>
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="J33" s="5" t="str">
+        <f>IF(G33, F33/G33, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2.73</v>
+      </c>
+      <c r="H34" s="2">
+        <v>185</v>
+      </c>
+      <c r="I34" s="5">
+        <f>IF(H34, 100*F34/H34, "")</f>
+        <v>1.4756756756756757</v>
+      </c>
+      <c r="J34" s="5" t="str">
+        <f>IF(G34, F34/G34, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F35" s="1">
+        <v>22.02</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="5">
+        <f>IF(H35, 100*F35/H35, "")</f>
+        <v>2.202</v>
+      </c>
+      <c r="J35" s="5" t="str">
+        <f>IF(G35, F35/G35, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F36" s="1">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I36" s="5">
+        <f>IF(H36, 100*F36/H36, "")</f>
+        <v>0.97899999999999987</v>
+      </c>
+      <c r="J36" s="5" t="str">
+        <f>IF(G36, F36/G36, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3.24</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I37" s="5">
+        <f>IF(H37, 100*F37/H37, "")</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="J37" s="5" t="str">
+        <f>IF(G37, F37/G37, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F38" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I38" s="5">
+        <f>IF(H38, 100*F38/H38, "")</f>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="J38" s="5" t="str">
+        <f>IF(G38, F38/G38, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H39" s="2">
+        <v>100</v>
+      </c>
+      <c r="I39" s="5">
+        <f>IF(H39, 100*F39/H39, "")</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J39" s="5" t="str">
+        <f>IF(G39, F39/G39, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F40" s="1">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I40" s="5">
+        <f>IF(H40, 100*F40/H40, "")</f>
+        <v>1.7649999999999997</v>
+      </c>
+      <c r="J40" s="5" t="str">
+        <f>IF(G40, F40/G40, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="H41" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I41" s="5">
+        <f>IF(H41, 100*F41/H41, "")</f>
+        <v>0.16633333333333333</v>
+      </c>
+      <c r="J41" s="5" t="str">
+        <f>IF(G41, F41/G41, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F42" s="1">
+        <v>4.97</v>
+      </c>
+      <c r="H42" s="2">
+        <v>4000</v>
+      </c>
+      <c r="I42" s="5">
+        <f>IF(H42, 100*F42/H42, "")</f>
+        <v>0.12425</v>
+      </c>
+      <c r="J42" s="5" t="str">
+        <f>IF(G42, F42/G42, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="G43" s="4">
+        <v>2</v>
+      </c>
+      <c r="I43" s="5" t="str">
+        <f>IF(H43, 100*F43/H43, "")</f>
+        <v/>
+      </c>
+      <c r="J43" s="5">
+        <f>IF(G43, F43/G43, "")</f>
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1360</v>
+      </c>
+      <c r="I44" s="5">
+        <f>IF(H44, 100*F44/H44, "")</f>
+        <v>0.18382352941176472</v>
+      </c>
+      <c r="J44" s="5" t="str">
+        <f>IF(G44, F44/G44, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I45" s="5">
+        <f>IF(H45, 100*F45/H45, "")</f>
+        <v>0.43899999999999995</v>
+      </c>
+      <c r="J45" s="5" t="str">
+        <f>IF(G45, F45/G45, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5" t="str">
+        <f>IF(H46, 100*F46/H46, "")</f>
+        <v/>
+      </c>
+      <c r="J46" s="5">
+        <f>IF(G46, F46/G46, "")</f>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4</v>
+      </c>
+      <c r="H47" s="2">
+        <v>9072</v>
+      </c>
+      <c r="I47" s="5">
+        <f>IF(H47, 100*F47/H47, "")</f>
+        <v>4.4091710758377423E-2</v>
+      </c>
+      <c r="J47" s="5" t="str">
+        <f>IF(G47, F47/G47, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F48" s="1">
+        <v>8.99</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1860</v>
+      </c>
+      <c r="I48" s="5">
+        <f>IF(H48, 100*F48/H48, "")</f>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="J48" s="5" t="str">
+        <f>IF(G48, F48/G48, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F49" s="1">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="H49" s="2">
+        <v>8300</v>
+      </c>
+      <c r="I49" s="5">
+        <f>IF(H49, 100*F49/H49, "")</f>
+        <v>0.20469879518072287</v>
+      </c>
+      <c r="J49" s="5" t="str">
+        <f>IF(G49, F49/G49, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="4">
-        <v>42278</v>
-      </c>
-      <c r="F28" s="1">
-        <v>7.07</v>
-      </c>
-      <c r="I28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J28" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J29" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J30" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J31" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J32" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
-      </c>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J33" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J34" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
-      </c>
-    </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J35" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
-      </c>
-    </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J36" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
-      </c>
-    </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="J37" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="H50" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I50" s="5">
+        <f>IF(H50, 100*F50/H50, "")</f>
+        <v>0.2495</v>
+      </c>
+      <c r="J50" s="5" t="str">
+        <f>IF(G50, F50/G50, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="H51" s="2">
+        <v>296</v>
+      </c>
+      <c r="I51" s="5">
+        <f>IF(H51, 100*F51/H51, "")</f>
+        <v>0.94256756756756754</v>
+      </c>
+      <c r="J51" s="5" t="str">
+        <f>IF(G51, F51/G51, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="H52" s="2">
+        <v>227</v>
+      </c>
+      <c r="I52" s="5">
+        <f>IF(H52, 100*F52/H52, "")</f>
+        <v>1.4493392070484581</v>
+      </c>
+      <c r="J52" s="5" t="str">
+        <f>IF(G52, F52/G52, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="H53" s="2">
+        <v>45</v>
+      </c>
+      <c r="I53" s="5">
+        <f>IF(H53, 100*F53/H53, "")</f>
+        <v>2.0444444444444443</v>
+      </c>
+      <c r="J53" s="5" t="str">
+        <f>IF(G53, F53/G53, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="H54" s="2">
+        <v>200</v>
+      </c>
+      <c r="I54" s="5">
+        <f>IF(H54, 100*F54/H54, "")</f>
+        <v>1.345</v>
+      </c>
+      <c r="J54" s="5" t="str">
+        <f>IF(G54, F54/G54, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H55" s="2">
+        <v>750</v>
+      </c>
+      <c r="I55" s="5">
+        <f>IF(H55, 100*F55/H55, "")</f>
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="J55" s="5" t="str">
+        <f>IF(G55, F55/G55, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I56" s="5" t="str">
+        <f>IF(H56, 100*F56/H56, "")</f>
+        <v/>
+      </c>
+      <c r="J56" s="5" t="str">
+        <f>IF(G56, F56/G56, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I57" s="5" t="str">
+        <f>IF(H57, 100*F57/H57, "")</f>
+        <v/>
+      </c>
+      <c r="J57" s="5" t="str">
+        <f>IF(G57, F57/G57, "")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H1048576">
+      <formula1>1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="121">
   <si>
     <t>Product</t>
   </si>
@@ -331,6 +331,54 @@
   </si>
   <si>
     <t>Champfleury</t>
+  </si>
+  <si>
+    <t>FreshCo</t>
+  </si>
+  <si>
+    <t>Herring, Smoked</t>
+  </si>
+  <si>
+    <t>Salmon, Sockeye</t>
+  </si>
+  <si>
+    <t>Gold Leaf</t>
+  </si>
+  <si>
+    <t>Salmon, Pink</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Salted</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Kunachia</t>
+  </si>
+  <si>
+    <t>Quinoa</t>
+  </si>
+  <si>
+    <t>Cedar Seeds</t>
+  </si>
+  <si>
+    <t>Tumeric</t>
+  </si>
+  <si>
+    <t>CoolRunn</t>
+  </si>
+  <si>
+    <t>Paprika</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Gold Seal</t>
   </si>
 </sst>
 </file>
@@ -426,9 +474,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J57" totalsRowShown="0">
-  <autoFilter ref="A1:J57"/>
-  <sortState ref="A2:J57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J69" totalsRowShown="0">
+  <autoFilter ref="A1:J69"/>
+  <sortState ref="A2:J69">
     <sortCondition ref="A2:A37"/>
     <sortCondition ref="B2:B37"/>
   </sortState>
@@ -739,11 +787,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,26 +907,26 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E4" s="3">
         <v>42309</v>
       </c>
       <c r="F4" s="1">
-        <v>4.99</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="H4" s="2">
-        <v>500</v>
+        <v>1810</v>
       </c>
       <c r="I4" s="5">
         <f>IF(H4, 100*F4/H4, "")</f>
-        <v>0.998</v>
+        <v>0.23149171270718236</v>
       </c>
       <c r="J4" s="5" t="str">
         <f>IF(G4, F4/G4, "")</f>
@@ -890,23 +938,26 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3">
         <v>42309</v>
       </c>
       <c r="F5" s="1">
-        <v>3.27</v>
+        <v>4.99</v>
       </c>
       <c r="H5" s="2">
-        <v>1235</v>
+        <v>500</v>
       </c>
       <c r="I5" s="5">
         <f>IF(H5, 100*F5/H5, "")</f>
-        <v>0.26477732793522268</v>
+        <v>0.998</v>
       </c>
       <c r="J5" s="5" t="str">
         <f>IF(G5, F5/G5, "")</f>
@@ -918,26 +969,23 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F6" s="1">
-        <v>2.5</v>
+        <v>3.27</v>
       </c>
       <c r="H6" s="2">
-        <v>900</v>
+        <v>1235</v>
       </c>
       <c r="I6" s="5">
         <f>IF(H6, 100*F6/H6, "")</f>
-        <v>0.27777777777777779</v>
+        <v>0.26477732793522268</v>
       </c>
       <c r="J6" s="5" t="str">
         <f>IF(G6, F6/G6, "")</f>
@@ -946,10 +994,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -961,10 +1009,10 @@
         <v>42278</v>
       </c>
       <c r="F7" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H7" s="2">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="I7" s="5">
         <f>IF(H7, 100*F7/H7, "")</f>
@@ -977,57 +1025,60 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3">
         <v>42278</v>
       </c>
       <c r="F8" s="1">
-        <v>1.28</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="str">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1800</v>
+      </c>
+      <c r="I8" s="5">
         <f>IF(H8, 100*F8/H8, "")</f>
-        <v/>
-      </c>
-      <c r="J8" s="5">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="J8" s="5" t="str">
         <f>IF(G8, F8/G8, "")</f>
-        <v>1.28</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E9" s="3">
         <v>42309</v>
       </c>
       <c r="F9" s="1">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="H9" s="2">
-        <v>1925</v>
+        <v>454</v>
       </c>
       <c r="I9" s="5">
         <f>IF(H9, 100*F9/H9, "")</f>
-        <v>0.17402597402597403</v>
+        <v>0.63436123348017626</v>
       </c>
       <c r="J9" s="5" t="str">
         <f>IF(G9, F9/G9, "")</f>
@@ -1036,25 +1087,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3">
         <v>42278</v>
       </c>
       <c r="F10" s="1">
-        <v>6</v>
+        <v>1.28</v>
       </c>
       <c r="G10" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" s="5" t="str">
         <f>IF(H10, 100*F10/H10, "")</f>
@@ -1062,83 +1113,86 @@
       </c>
       <c r="J10" s="5">
         <f>IF(G10, F10/G10, "")</f>
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F11" s="1">
-        <v>1.39</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5" t="str">
+        <v>3.35</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1925</v>
+      </c>
+      <c r="I11" s="5">
         <f>IF(H11, 100*F11/H11, "")</f>
-        <v/>
-      </c>
-      <c r="J11" s="5">
+        <v>0.17402597402597403</v>
+      </c>
+      <c r="J11" s="5" t="str">
         <f>IF(G11, F11/G11, "")</f>
-        <v>1.39</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F12" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="H12" s="2">
-        <v>370</v>
-      </c>
-      <c r="I12" s="5">
+        <v>6</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4</v>
+      </c>
+      <c r="I12" s="5" t="str">
         <f>IF(H12, 100*F12/H12, "")</f>
-        <v>0.28378378378378377</v>
-      </c>
-      <c r="J12" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J12" s="5">
         <f>IF(G12, F12/G12, "")</f>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E13" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F13" s="1">
-        <v>2.4900000000000002</v>
+        <v>1.29</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -1149,62 +1203,65 @@
       </c>
       <c r="J13" s="5">
         <f>IF(G13, F13/G13, "")</f>
-        <v>2.4900000000000002</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="E14" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F14" s="1">
-        <v>8.99</v>
-      </c>
-      <c r="H14" s="2">
-        <v>454</v>
-      </c>
-      <c r="I14" s="5">
+        <v>1.29</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="str">
         <f>IF(H14, 100*F14/H14, "")</f>
-        <v>1.9801762114537445</v>
-      </c>
-      <c r="J14" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J14" s="5">
         <f>IF(G14, F14/G14, "")</f>
-        <v/>
+        <v>1.29</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="E15" s="3">
         <v>42309</v>
       </c>
       <c r="F15" s="1">
-        <v>7.9</v>
+        <v>2.35</v>
       </c>
       <c r="H15" s="2">
-        <v>180</v>
+        <v>418</v>
       </c>
       <c r="I15" s="5">
         <f>IF(H15, 100*F15/H15, "")</f>
-        <v>4.3888888888888893</v>
+        <v>0.56220095693779903</v>
       </c>
       <c r="J15" s="5" t="str">
         <f>IF(G15, F15/G15, "")</f>
@@ -1213,26 +1270,29 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E16" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F16" s="1">
-        <v>3.99</v>
+        <v>1.67</v>
       </c>
       <c r="H16" s="2">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="I16" s="5">
         <f>IF(H16, 100*F16/H16, "")</f>
-        <v>3.99</v>
+        <v>0.784037558685446</v>
       </c>
       <c r="J16" s="5" t="str">
         <f>IF(G16, F16/G16, "")</f>
@@ -1241,29 +1301,29 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="E17" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F17" s="1">
-        <v>2.99</v>
+        <v>2.77</v>
       </c>
       <c r="H17" s="2">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="I17" s="5">
         <f>IF(H17, 100*F17/H17, "")</f>
-        <v>2.99</v>
+        <v>1.300469483568075</v>
       </c>
       <c r="J17" s="5" t="str">
         <f>IF(G17, F17/G17, "")</f>
@@ -1272,10 +1332,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1284,42 +1347,42 @@
         <v>42278</v>
       </c>
       <c r="F18" s="1">
-        <v>7.99</v>
-      </c>
-      <c r="H18" s="2">
-        <v>454</v>
-      </c>
-      <c r="I18" s="5">
+        <v>1.39</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="str">
         <f>IF(H18, 100*F18/H18, "")</f>
-        <v>1.7599118942731278</v>
-      </c>
-      <c r="J18" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J18" s="5">
         <f>IF(G18, F18/G18, "")</f>
-        <v/>
+        <v>1.39</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F19" s="1">
-        <v>8.49</v>
+        <v>1.05</v>
       </c>
       <c r="H19" s="2">
-        <v>454</v>
+        <v>370</v>
       </c>
       <c r="I19" s="5">
         <f>IF(H19, 100*F19/H19, "")</f>
-        <v>1.8700440528634361</v>
+        <v>0.28378378378378377</v>
       </c>
       <c r="J19" s="5" t="str">
         <f>IF(G19, F19/G19, "")</f>
@@ -1328,10 +1391,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -1340,18 +1403,18 @@
         <v>42278</v>
       </c>
       <c r="F20" s="1">
-        <v>4.29</v>
-      </c>
-      <c r="H20" s="2">
-        <v>100</v>
-      </c>
-      <c r="I20" s="5">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="str">
         <f>IF(H20, 100*F20/H20, "")</f>
-        <v>4.29</v>
-      </c>
-      <c r="J20" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J20" s="5">
         <f>IF(G20, F20/G20, "")</f>
-        <v/>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1359,23 +1422,26 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F21" s="1">
-        <v>8.7899999999999991</v>
+        <v>8.99</v>
       </c>
       <c r="H21" s="2">
-        <v>200</v>
+        <v>454</v>
       </c>
       <c r="I21" s="5">
         <f>IF(H21, 100*F21/H21, "")</f>
-        <v>4.3949999999999996</v>
+        <v>1.9801762114537445</v>
       </c>
       <c r="J21" s="5" t="str">
         <f>IF(G21, F21/G21, "")</f>
@@ -1384,29 +1450,26 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E22" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F22" s="1">
-        <v>2.25</v>
+        <v>7.9</v>
       </c>
       <c r="H22" s="2">
-        <v>2000</v>
+        <v>180</v>
       </c>
       <c r="I22" s="5">
         <f>IF(H22, 100*F22/H22, "")</f>
-        <v>0.1125</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="J22" s="5" t="str">
         <f>IF(G22, F22/G22, "")</f>
@@ -1415,13 +1478,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -1430,14 +1490,14 @@
         <v>42278</v>
       </c>
       <c r="F23" s="1">
-        <v>2.2599999999999998</v>
+        <v>3.99</v>
       </c>
       <c r="H23" s="2">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="I23" s="5">
         <f>IF(H23, 100*F23/H23, "")</f>
-        <v>5.6499999999999995E-2</v>
+        <v>3.99</v>
       </c>
       <c r="J23" s="5" t="str">
         <f>IF(G23, F23/G23, "")</f>
@@ -1446,16 +1506,16 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E24" s="3">
         <v>42278</v>
@@ -1463,68 +1523,68 @@
       <c r="F24" s="1">
         <v>2.99</v>
       </c>
-      <c r="G24" s="4">
-        <v>6</v>
-      </c>
-      <c r="I24" s="5" t="str">
+      <c r="H24" s="2">
+        <v>100</v>
+      </c>
+      <c r="I24" s="5">
         <f>IF(H24, 100*F24/H24, "")</f>
-        <v/>
-      </c>
-      <c r="J24" s="5">
+        <v>2.99</v>
+      </c>
+      <c r="J24" s="5" t="str">
         <f>IF(G24, F24/G24, "")</f>
-        <v>0.49833333333333335</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E25" s="3">
         <v>42278</v>
       </c>
       <c r="F25" s="1">
-        <v>2.99</v>
-      </c>
-      <c r="G25" s="4">
-        <v>6</v>
-      </c>
-      <c r="I25" s="5" t="str">
+        <v>7.99</v>
+      </c>
+      <c r="H25" s="2">
+        <v>454</v>
+      </c>
+      <c r="I25" s="5">
         <f>IF(H25, 100*F25/H25, "")</f>
-        <v/>
-      </c>
-      <c r="J25" s="5">
+        <v>1.7599118942731278</v>
+      </c>
+      <c r="J25" s="5" t="str">
         <f>IF(G25, F25/G25, "")</f>
-        <v>0.49833333333333335</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E26" s="3">
         <v>42278</v>
       </c>
       <c r="F26" s="1">
-        <v>12.99</v>
+        <v>8.49</v>
       </c>
       <c r="H26" s="2">
-        <v>1000</v>
+        <v>454</v>
       </c>
       <c r="I26" s="5">
         <f>IF(H26, 100*F26/H26, "")</f>
-        <v>1.2989999999999999</v>
+        <v>1.8700440528634361</v>
       </c>
       <c r="J26" s="5" t="str">
         <f>IF(G26, F26/G26, "")</f>
@@ -1533,26 +1593,26 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E27" s="3">
         <v>42278</v>
       </c>
       <c r="F27" s="1">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="H27" s="2">
-        <v>495</v>
+        <v>100</v>
       </c>
       <c r="I27" s="5">
         <f>IF(H27, 100*F27/H27, "")</f>
-        <v>0.85858585858585856</v>
+        <v>4.29</v>
       </c>
       <c r="J27" s="5" t="str">
         <f>IF(G27, F27/G27, "")</f>
@@ -1561,57 +1621,57 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F28" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="G28" s="4">
-        <v>3</v>
-      </c>
-      <c r="I28" s="5" t="str">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="H28" s="2">
+        <v>200</v>
+      </c>
+      <c r="I28" s="5">
         <f>IF(H28, 100*F28/H28, "")</f>
-        <v/>
-      </c>
-      <c r="J28" s="5">
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="J28" s="5" t="str">
         <f>IF(G28, F28/G28, "")</f>
-        <v>0.33</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E29" s="3">
         <v>42278</v>
       </c>
       <c r="F29" s="1">
-        <v>0.89</v>
+        <v>2.25</v>
       </c>
       <c r="H29" s="2">
-        <v>135</v>
+        <v>2000</v>
       </c>
       <c r="I29" s="5">
         <f>IF(H29, 100*F29/H29, "")</f>
-        <v>0.65925925925925921</v>
+        <v>0.1125</v>
       </c>
       <c r="J29" s="5" t="str">
         <f>IF(G29, F29/G29, "")</f>
@@ -1620,26 +1680,29 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E30" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F30" s="1">
-        <v>1.54</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H30" s="2">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="I30" s="5">
         <f>IF(H30, 100*F30/H30, "")</f>
-        <v>0.77</v>
+        <v>5.6499999999999995E-2</v>
       </c>
       <c r="J30" s="5" t="str">
         <f>IF(G30, F30/G30, "")</f>
@@ -1648,85 +1711,85 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="E31" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F31" s="1">
-        <v>3.99</v>
-      </c>
-      <c r="H31" s="2">
-        <v>900</v>
-      </c>
-      <c r="I31" s="5">
+        <v>2.99</v>
+      </c>
+      <c r="G31" s="4">
+        <v>6</v>
+      </c>
+      <c r="I31" s="5" t="str">
         <f>IF(H31, 100*F31/H31, "")</f>
-        <v>0.44333333333333336</v>
-      </c>
-      <c r="J31" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J31" s="5">
         <f>IF(G31, F31/G31, "")</f>
-        <v/>
+        <v>0.49833333333333335</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E32" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F32" s="1">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="H32" s="2">
-        <v>115</v>
-      </c>
-      <c r="I32" s="5">
+        <v>2.99</v>
+      </c>
+      <c r="G32" s="4">
+        <v>6</v>
+      </c>
+      <c r="I32" s="5" t="str">
         <f>IF(H32, 100*F32/H32, "")</f>
-        <v>2.1304347826086958</v>
-      </c>
-      <c r="J32" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J32" s="5">
         <f>IF(G32, F32/G32, "")</f>
-        <v/>
+        <v>0.49833333333333335</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E33" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F33" s="1">
-        <v>2.99</v>
+        <v>12.99</v>
       </c>
       <c r="H33" s="2">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="I33" s="5">
         <f>IF(H33, 100*F33/H33, "")</f>
-        <v>0.74750000000000005</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="J33" s="5" t="str">
         <f>IF(G33, F33/G33, "")</f>
@@ -1735,26 +1798,26 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
       <c r="E34" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F34" s="1">
-        <v>2.73</v>
+        <v>4.25</v>
       </c>
       <c r="H34" s="2">
-        <v>185</v>
+        <v>495</v>
       </c>
       <c r="I34" s="5">
         <f>IF(H34, 100*F34/H34, "")</f>
-        <v>1.4756756756756757</v>
+        <v>0.85858585858585856</v>
       </c>
       <c r="J34" s="5" t="str">
         <f>IF(G34, F34/G34, "")</f>
@@ -1763,54 +1826,57 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F35" s="1">
-        <v>22.02</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I35" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="G35" s="4">
+        <v>3</v>
+      </c>
+      <c r="I35" s="5" t="str">
         <f>IF(H35, 100*F35/H35, "")</f>
-        <v>2.202</v>
-      </c>
-      <c r="J35" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J35" s="5">
         <f>IF(G35, F35/G35, "")</f>
-        <v/>
+        <v>0.33</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F36" s="1">
-        <v>9.7899999999999991</v>
+        <v>0.89</v>
       </c>
       <c r="H36" s="2">
-        <v>1000</v>
+        <v>135</v>
       </c>
       <c r="I36" s="5">
         <f>IF(H36, 100*F36/H36, "")</f>
-        <v>0.97899999999999987</v>
+        <v>0.65925925925925921</v>
       </c>
       <c r="J36" s="5" t="str">
         <f>IF(G36, F36/G36, "")</f>
@@ -1819,26 +1885,26 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E37" s="3">
         <v>42309</v>
       </c>
       <c r="F37" s="1">
-        <v>3.24</v>
+        <v>1.54</v>
       </c>
       <c r="H37" s="2">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I37" s="5">
         <f>IF(H37, 100*F37/H37, "")</f>
-        <v>0.32400000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="J37" s="5" t="str">
         <f>IF(G37, F37/G37, "")</f>
@@ -1847,26 +1913,26 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E38" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F38" s="1">
-        <v>8.8000000000000007</v>
+        <v>3.99</v>
       </c>
       <c r="H38" s="2">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I38" s="5">
         <f>IF(H38, 100*F38/H38, "")</f>
-        <v>0.88000000000000012</v>
+        <v>0.44333333333333336</v>
       </c>
       <c r="J38" s="5" t="str">
         <f>IF(G38, F38/G38, "")</f>
@@ -1875,26 +1941,26 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E39" s="3">
         <v>42309</v>
       </c>
       <c r="F39" s="1">
-        <v>1.1000000000000001</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H39" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="I39" s="5">
         <f>IF(H39, 100*F39/H39, "")</f>
-        <v>1.1000000000000001</v>
+        <v>2.1304347826086958</v>
       </c>
       <c r="J39" s="5" t="str">
         <f>IF(G39, F39/G39, "")</f>
@@ -1903,26 +1969,29 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="E40" s="3">
         <v>42309</v>
       </c>
       <c r="F40" s="1">
-        <v>17.649999999999999</v>
+        <v>7.79</v>
       </c>
       <c r="H40" s="2">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="I40" s="5">
         <f>IF(H40, 100*F40/H40, "")</f>
-        <v>1.7649999999999997</v>
+        <v>2.782142857142857</v>
       </c>
       <c r="J40" s="5" t="str">
         <f>IF(G40, F40/G40, "")</f>
@@ -1931,29 +2000,29 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E41" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F41" s="1">
-        <v>4.99</v>
+        <v>2.99</v>
       </c>
       <c r="H41" s="2">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="I41" s="5">
         <f>IF(H41, 100*F41/H41, "")</f>
-        <v>0.16633333333333333</v>
+        <v>0.74750000000000005</v>
       </c>
       <c r="J41" s="5" t="str">
         <f>IF(G41, F41/G41, "")</f>
@@ -1962,26 +2031,29 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="E42" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F42" s="1">
-        <v>4.97</v>
+        <v>7.69</v>
       </c>
       <c r="H42" s="2">
-        <v>4000</v>
+        <v>907</v>
       </c>
       <c r="I42" s="5">
         <f>IF(H42, 100*F42/H42, "")</f>
-        <v>0.12425</v>
+        <v>0.84785005512679157</v>
       </c>
       <c r="J42" s="5" t="str">
         <f>IF(G42, F42/G42, "")</f>
@@ -1990,57 +2062,54 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="E43" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F43" s="1">
-        <v>1.34</v>
-      </c>
-      <c r="G43" s="4">
-        <v>2</v>
-      </c>
-      <c r="I43" s="5" t="str">
+        <v>4.99</v>
+      </c>
+      <c r="H43" s="2">
+        <v>400</v>
+      </c>
+      <c r="I43" s="5">
         <f>IF(H43, 100*F43/H43, "")</f>
-        <v/>
-      </c>
-      <c r="J43" s="5">
+        <v>1.2475000000000001</v>
+      </c>
+      <c r="J43" s="5" t="str">
         <f>IF(G43, F43/G43, "")</f>
-        <v>0.67</v>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E44" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F44" s="1">
-        <v>2.5</v>
+        <v>2.73</v>
       </c>
       <c r="H44" s="2">
-        <v>1360</v>
+        <v>185</v>
       </c>
       <c r="I44" s="5">
         <f>IF(H44, 100*F44/H44, "")</f>
-        <v>0.18382352941176472</v>
+        <v>1.4756756756756757</v>
       </c>
       <c r="J44" s="5" t="str">
         <f>IF(G44, F44/G44, "")</f>
@@ -2049,23 +2118,26 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F45" s="1">
-        <v>4.3899999999999997</v>
+        <v>22.02</v>
       </c>
       <c r="H45" s="2">
         <v>1000</v>
       </c>
       <c r="I45" s="5">
         <f>IF(H45, 100*F45/H45, "")</f>
-        <v>0.43899999999999995</v>
+        <v>2.202</v>
       </c>
       <c r="J45" s="5" t="str">
         <f>IF(G45, F45/G45, "")</f>
@@ -2074,54 +2146,54 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E46" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F46" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="G46" s="4">
-        <v>1</v>
-      </c>
-      <c r="I46" s="5" t="str">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I46" s="5">
         <f>IF(H46, 100*F46/H46, "")</f>
-        <v/>
-      </c>
-      <c r="J46" s="5">
+        <v>0.97899999999999987</v>
+      </c>
+      <c r="J46" s="5" t="str">
         <f>IF(G46, F46/G46, "")</f>
-        <v>2.88</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E47" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F47" s="1">
-        <v>4</v>
+        <v>3.24</v>
       </c>
       <c r="H47" s="2">
-        <v>9072</v>
+        <v>1000</v>
       </c>
       <c r="I47" s="5">
         <f>IF(H47, 100*F47/H47, "")</f>
-        <v>4.4091710758377423E-2</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="J47" s="5" t="str">
         <f>IF(G47, F47/G47, "")</f>
@@ -2130,29 +2202,26 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E48" s="3">
         <v>42278</v>
       </c>
       <c r="F48" s="1">
-        <v>8.99</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H48" s="2">
-        <v>1860</v>
+        <v>1000</v>
       </c>
       <c r="I48" s="5">
         <f>IF(H48, 100*F48/H48, "")</f>
-        <v>0.48333333333333334</v>
+        <v>0.88000000000000012</v>
       </c>
       <c r="J48" s="5" t="str">
         <f>IF(G48, F48/G48, "")</f>
@@ -2161,29 +2230,26 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E49" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F49" s="1">
-        <v>16.989999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H49" s="2">
-        <v>8300</v>
+        <v>100</v>
       </c>
       <c r="I49" s="5">
         <f>IF(H49, 100*F49/H49, "")</f>
-        <v>0.20469879518072287</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J49" s="5" t="str">
         <f>IF(G49, F49/G49, "")</f>
@@ -2192,29 +2258,26 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F50" s="1">
-        <v>4.99</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="H50" s="2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I50" s="5">
         <f>IF(H50, 100*F50/H50, "")</f>
-        <v>0.2495</v>
+        <v>1.7649999999999997</v>
       </c>
       <c r="J50" s="5" t="str">
         <f>IF(G50, F50/G50, "")</f>
@@ -2223,29 +2286,29 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E51" s="3">
         <v>42278</v>
       </c>
       <c r="F51" s="1">
-        <v>2.79</v>
+        <v>4.99</v>
       </c>
       <c r="H51" s="2">
-        <v>296</v>
+        <v>3000</v>
       </c>
       <c r="I51" s="5">
         <f>IF(H51, 100*F51/H51, "")</f>
-        <v>0.94256756756756754</v>
+        <v>0.16633333333333333</v>
       </c>
       <c r="J51" s="5" t="str">
         <f>IF(G51, F51/G51, "")</f>
@@ -2254,29 +2317,26 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E52" s="3">
         <v>42278</v>
       </c>
       <c r="F52" s="1">
-        <v>3.29</v>
+        <v>4.97</v>
       </c>
       <c r="H52" s="2">
-        <v>227</v>
+        <v>4000</v>
       </c>
       <c r="I52" s="5">
         <f>IF(H52, 100*F52/H52, "")</f>
-        <v>1.4493392070484581</v>
+        <v>0.12425</v>
       </c>
       <c r="J52" s="5" t="str">
         <f>IF(G52, F52/G52, "")</f>
@@ -2285,54 +2345,57 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E53" s="3">
         <v>42278</v>
       </c>
       <c r="F53" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="H53" s="2">
-        <v>45</v>
-      </c>
-      <c r="I53" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="G53" s="4">
+        <v>2</v>
+      </c>
+      <c r="I53" s="5" t="str">
         <f>IF(H53, 100*F53/H53, "")</f>
-        <v>2.0444444444444443</v>
-      </c>
-      <c r="J53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J53" s="5">
         <f>IF(G53, F53/G53, "")</f>
-        <v/>
+        <v>0.67</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="C54" t="s">
+        <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E54" s="3">
         <v>42278</v>
       </c>
       <c r="F54" s="1">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="H54" s="2">
-        <v>200</v>
+        <v>1360</v>
       </c>
       <c r="I54" s="5">
         <f>IF(H54, 100*F54/H54, "")</f>
-        <v>1.345</v>
+        <v>0.18382352941176472</v>
       </c>
       <c r="J54" s="5" t="str">
         <f>IF(G54, F54/G54, "")</f>
@@ -2341,13 +2404,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -2356,14 +2413,14 @@
         <v>42278</v>
       </c>
       <c r="F55" s="1">
-        <v>2.4900000000000002</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="H55" s="2">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="I55" s="5">
         <f>IF(H55, 100*F55/H55, "")</f>
-        <v>0.33200000000000002</v>
+        <v>0.43899999999999995</v>
       </c>
       <c r="J55" s="5" t="str">
         <f>IF(G55, F55/G55, "")</f>
@@ -2371,22 +2428,421 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
       <c r="I56" s="5" t="str">
         <f>IF(H56, 100*F56/H56, "")</f>
         <v/>
       </c>
-      <c r="J56" s="5" t="str">
+      <c r="J56" s="5">
         <f>IF(G56, F56/G56, "")</f>
-        <v/>
+        <v>2.88</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I57" s="5" t="str">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F57" s="1">
+        <v>4</v>
+      </c>
+      <c r="H57" s="2">
+        <v>9072</v>
+      </c>
+      <c r="I57" s="5">
         <f>IF(H57, 100*F57/H57, "")</f>
-        <v/>
+        <v>4.4091710758377423E-2</v>
       </c>
       <c r="J57" s="5" t="str">
         <f>IF(G57, F57/G57, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F58" s="1">
+        <v>8.99</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1860</v>
+      </c>
+      <c r="I58" s="5">
+        <f>IF(H58, 100*F58/H58, "")</f>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="J58" s="5" t="str">
+        <f>IF(G58, F58/G58, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F59" s="1">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="H59" s="2">
+        <v>8300</v>
+      </c>
+      <c r="I59" s="5">
+        <f>IF(H59, 100*F59/H59, "")</f>
+        <v>0.20469879518072287</v>
+      </c>
+      <c r="J59" s="5" t="str">
+        <f>IF(G59, F59/G59, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F60" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="H60" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I60" s="5">
+        <f>IF(H60, 100*F60/H60, "")</f>
+        <v>0.2495</v>
+      </c>
+      <c r="J60" s="5" t="str">
+        <f>IF(G60, F60/G60, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="H61" s="2">
+        <v>296</v>
+      </c>
+      <c r="I61" s="5">
+        <f>IF(H61, 100*F61/H61, "")</f>
+        <v>0.94256756756756754</v>
+      </c>
+      <c r="J61" s="5" t="str">
+        <f>IF(G61, F61/G61, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F62" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="H62" s="2">
+        <v>227</v>
+      </c>
+      <c r="I62" s="5">
+        <f>IF(H62, 100*F62/H62, "")</f>
+        <v>1.4493392070484581</v>
+      </c>
+      <c r="J62" s="5" t="str">
+        <f>IF(G62, F62/G62, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="H63" s="2">
+        <v>500</v>
+      </c>
+      <c r="I63" s="5">
+        <f>IF(H63, 100*F63/H63, "")</f>
+        <v>0.998</v>
+      </c>
+      <c r="J63" s="5" t="str">
+        <f>IF(G63, F63/G63, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="H64" s="2">
+        <v>45</v>
+      </c>
+      <c r="I64" s="5">
+        <f>IF(H64, 100*F64/H64, "")</f>
+        <v>2.0444444444444443</v>
+      </c>
+      <c r="J64" s="5" t="str">
+        <f>IF(G64, F64/G64, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="H65" s="2">
+        <v>200</v>
+      </c>
+      <c r="I65" s="5">
+        <f>IF(H65, 100*F65/H65, "")</f>
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="J65" s="5" t="str">
+        <f>IF(G65, F65/G65, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H66" s="2">
+        <v>500</v>
+      </c>
+      <c r="I66" s="5">
+        <f>IF(H66, 100*F66/H66, "")</f>
+        <v>0.49800000000000005</v>
+      </c>
+      <c r="J66" s="5" t="str">
+        <f>IF(G66, F66/G66, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="H67" s="2">
+        <v>200</v>
+      </c>
+      <c r="I67" s="5">
+        <f>IF(H67, 100*F67/H67, "")</f>
+        <v>1.345</v>
+      </c>
+      <c r="J67" s="5" t="str">
+        <f>IF(G67, F67/G67, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H68" s="2">
+        <v>750</v>
+      </c>
+      <c r="I68" s="5">
+        <f>IF(H68, 100*F68/H68, "")</f>
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="J68" s="5" t="str">
+        <f>IF(G68, F68/G68, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="H69" s="2">
+        <v>750</v>
+      </c>
+      <c r="I69" s="5">
+        <f>IF(H69, 100*F69/H69, "")</f>
+        <v>0.26533333333333331</v>
+      </c>
+      <c r="J69" s="5" t="str">
+        <f>IF(G69, F69/G69, "")</f>
         <v/>
       </c>
     </row>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="147">
   <si>
     <t>Product</t>
   </si>
@@ -379,6 +379,84 @@
   </si>
   <si>
     <t>Gold Seal</t>
+  </si>
+  <si>
+    <t>Buckwheat, Hulled, Organic</t>
+  </si>
+  <si>
+    <t>Jiahe</t>
+  </si>
+  <si>
+    <t>Toronto China Town</t>
+  </si>
+  <si>
+    <t>Millet, Hulled, Organic</t>
+  </si>
+  <si>
+    <t>Green Split Peas</t>
+  </si>
+  <si>
+    <t>Yellow Split Peas</t>
+  </si>
+  <si>
+    <t>Red Cargo</t>
+  </si>
+  <si>
+    <t>Cod, Wild, Boned, Salted</t>
+  </si>
+  <si>
+    <t>Kirkland</t>
+  </si>
+  <si>
+    <t>Trout, Farmed, Rainbow, Boneless</t>
+  </si>
+  <si>
+    <t>Haddock, Wild</t>
+  </si>
+  <si>
+    <t>Cod, Atlantic, Wild</t>
+  </si>
+  <si>
+    <t>Salmon, Atlantic, Farmed</t>
+  </si>
+  <si>
+    <t>Chicken, Thighs, Boneless, Skinless</t>
+  </si>
+  <si>
+    <t>Beef, Ground, Lean</t>
+  </si>
+  <si>
+    <t>Chick, Thighs, Bone, Skin</t>
+  </si>
+  <si>
+    <t>Salmon, Pink, Wild</t>
+  </si>
+  <si>
+    <t>Oceans</t>
+  </si>
+  <si>
+    <t>Salmon, Sockeye, Wild</t>
+  </si>
+  <si>
+    <t>Chia, Organic</t>
+  </si>
+  <si>
+    <t>Nature's Intent</t>
+  </si>
+  <si>
+    <t>Hemp Heart</t>
+  </si>
+  <si>
+    <t>Manitoba Harvest</t>
+  </si>
+  <si>
+    <t>Vinegar, Rice</t>
+  </si>
+  <si>
+    <t>Marukan</t>
+  </si>
+  <si>
+    <t>Walmart</t>
   </si>
 </sst>
 </file>
@@ -474,9 +552,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J69" totalsRowShown="0">
-  <autoFilter ref="A1:J69"/>
-  <sortState ref="A2:J69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J94" totalsRowShown="0">
+  <autoFilter ref="A1:J94"/>
+  <sortState ref="A2:J94">
     <sortCondition ref="A2:A37"/>
     <sortCondition ref="B2:B37"/>
   </sortState>
@@ -787,17 +865,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O83" sqref="O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
@@ -845,26 +923,23 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F2" s="1">
-        <v>5</v>
+        <v>0.24</v>
       </c>
       <c r="H2" s="2">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="I2" s="5">
         <f>IF(H2, 100*F2/H2, "")</f>
-        <v>0.27777777777777779</v>
+        <v>0.24</v>
       </c>
       <c r="J2" s="5" t="str">
         <f>IF(G2, F2/G2, "")</f>
@@ -879,23 +954,23 @@
         <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F3" s="1">
-        <v>1.99</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="I3" s="5">
         <f>IF(H3, 100*F3/H3, "")</f>
-        <v>0.22111111111111112</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="J3" s="5" t="str">
         <f>IF(G3, F3/G3, "")</f>
@@ -910,23 +985,23 @@
         <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E4" s="3">
         <v>42309</v>
       </c>
       <c r="F4" s="1">
-        <v>4.1900000000000004</v>
+        <v>1.99</v>
       </c>
       <c r="H4" s="2">
-        <v>1810</v>
+        <v>900</v>
       </c>
       <c r="I4" s="5">
         <f>IF(H4, 100*F4/H4, "")</f>
-        <v>0.23149171270718236</v>
+        <v>0.22111111111111112</v>
       </c>
       <c r="J4" s="5" t="str">
         <f>IF(G4, F4/G4, "")</f>
@@ -938,26 +1013,26 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E5" s="3">
         <v>42309</v>
       </c>
       <c r="F5" s="1">
-        <v>4.99</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="H5" s="2">
-        <v>500</v>
+        <v>1810</v>
       </c>
       <c r="I5" s="5">
         <f>IF(H5, 100*F5/H5, "")</f>
-        <v>0.998</v>
+        <v>0.23149171270718236</v>
       </c>
       <c r="J5" s="5" t="str">
         <f>IF(G5, F5/G5, "")</f>
@@ -969,23 +1044,26 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3">
         <v>42309</v>
       </c>
       <c r="F6" s="1">
-        <v>3.27</v>
+        <v>4.99</v>
       </c>
       <c r="H6" s="2">
-        <v>1235</v>
+        <v>500</v>
       </c>
       <c r="I6" s="5">
         <f>IF(H6, 100*F6/H6, "")</f>
-        <v>0.26477732793522268</v>
+        <v>0.998</v>
       </c>
       <c r="J6" s="5" t="str">
         <f>IF(G6, F6/G6, "")</f>
@@ -997,26 +1075,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F7" s="1">
-        <v>2.5</v>
+        <v>3.27</v>
       </c>
       <c r="H7" s="2">
-        <v>900</v>
+        <v>1235</v>
       </c>
       <c r="I7" s="5">
         <f>IF(H7, 100*F7/H7, "")</f>
-        <v>0.27777777777777779</v>
+        <v>0.26477732793522268</v>
       </c>
       <c r="J7" s="5" t="str">
         <f>IF(G7, F7/G7, "")</f>
@@ -1025,10 +1100,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1040,10 +1115,10 @@
         <v>42278</v>
       </c>
       <c r="F8" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H8" s="2">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="I8" s="5">
         <f>IF(H8, 100*F8/H8, "")</f>
@@ -1056,29 +1131,26 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E9" s="3">
         <v>42309</v>
       </c>
       <c r="F9" s="1">
-        <v>2.88</v>
+        <v>0.24</v>
       </c>
       <c r="H9" s="2">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="I9" s="5">
         <f>IF(H9, 100*F9/H9, "")</f>
-        <v>0.63436123348017626</v>
+        <v>0.24</v>
       </c>
       <c r="J9" s="5" t="str">
         <f>IF(G9, F9/G9, "")</f>
@@ -1087,57 +1159,60 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3">
         <v>42278</v>
       </c>
       <c r="F10" s="1">
-        <v>1.28</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5" t="str">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1800</v>
+      </c>
+      <c r="I10" s="5">
         <f>IF(H10, 100*F10/H10, "")</f>
-        <v/>
-      </c>
-      <c r="J10" s="5">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="J10" s="5" t="str">
         <f>IF(G10, F10/G10, "")</f>
-        <v>1.28</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E11" s="3">
         <v>42309</v>
       </c>
       <c r="F11" s="1">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="H11" s="2">
-        <v>1925</v>
+        <v>454</v>
       </c>
       <c r="I11" s="5">
         <f>IF(H11, 100*F11/H11, "")</f>
-        <v>0.17402597402597403</v>
+        <v>0.63436123348017626</v>
       </c>
       <c r="J11" s="5" t="str">
         <f>IF(G11, F11/G11, "")</f>
@@ -1146,25 +1221,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3">
         <v>42278</v>
       </c>
       <c r="F12" s="1">
-        <v>6</v>
+        <v>1.28</v>
       </c>
       <c r="G12" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12" s="5" t="str">
         <f>IF(H12, 100*F12/H12, "")</f>
@@ -1172,38 +1247,35 @@
       </c>
       <c r="J12" s="5">
         <f>IF(G12, F12/G12, "")</f>
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3">
         <v>42309</v>
       </c>
       <c r="F13" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5" t="str">
+        <v>3.35</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1925</v>
+      </c>
+      <c r="I13" s="5">
         <f>IF(H13, 100*F13/H13, "")</f>
-        <v/>
-      </c>
-      <c r="J13" s="5">
+        <v>0.17402597402597403</v>
+      </c>
+      <c r="J13" s="5" t="str">
         <f>IF(G13, F13/G13, "")</f>
-        <v>1.29</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1211,22 +1283,22 @@
         <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F14" s="1">
-        <v>1.29</v>
+        <v>6</v>
       </c>
       <c r="G14" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14" s="5" t="str">
         <f>IF(H14, 100*F14/H14, "")</f>
@@ -1234,7 +1306,7 @@
       </c>
       <c r="J14" s="5">
         <f>IF(G14, F14/G14, "")</f>
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1242,30 +1314,30 @@
         <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E15" s="3">
         <v>42309</v>
       </c>
       <c r="F15" s="1">
-        <v>2.35</v>
-      </c>
-      <c r="H15" s="2">
-        <v>418</v>
-      </c>
-      <c r="I15" s="5">
+        <v>1.29</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="str">
         <f>IF(H15, 100*F15/H15, "")</f>
-        <v>0.56220095693779903</v>
-      </c>
-      <c r="J15" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J15" s="5">
         <f>IF(G15, F15/G15, "")</f>
-        <v/>
+        <v>1.29</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1273,30 +1345,30 @@
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E16" s="3">
         <v>42309</v>
       </c>
       <c r="F16" s="1">
-        <v>1.67</v>
-      </c>
-      <c r="H16" s="2">
-        <v>213</v>
-      </c>
-      <c r="I16" s="5">
+        <v>1.29</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="str">
         <f>IF(H16, 100*F16/H16, "")</f>
-        <v>0.784037558685446</v>
-      </c>
-      <c r="J16" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J16" s="5">
         <f>IF(G16, F16/G16, "")</f>
-        <v/>
+        <v>1.29</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1304,7 +1376,7 @@
         <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
         <v>108</v>
@@ -1316,14 +1388,14 @@
         <v>42309</v>
       </c>
       <c r="F17" s="1">
-        <v>2.77</v>
+        <v>2.35</v>
       </c>
       <c r="H17" s="2">
-        <v>213</v>
+        <v>418</v>
       </c>
       <c r="I17" s="5">
         <f>IF(H17, 100*F17/H17, "")</f>
-        <v>1.300469483568075</v>
+        <v>0.56220095693779903</v>
       </c>
       <c r="J17" s="5" t="str">
         <f>IF(G17, F17/G17, "")</f>
@@ -1335,54 +1407,57 @@
         <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E18" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F18" s="1">
-        <v>1.39</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5" t="str">
+        <v>1.67</v>
+      </c>
+      <c r="H18" s="2">
+        <v>213</v>
+      </c>
+      <c r="I18" s="5">
         <f>IF(H18, 100*F18/H18, "")</f>
-        <v/>
-      </c>
-      <c r="J18" s="5">
+        <v>0.784037558685446</v>
+      </c>
+      <c r="J18" s="5" t="str">
         <f>IF(G18, F18/G18, "")</f>
-        <v>1.39</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E19" s="3">
         <v>42309</v>
       </c>
       <c r="F19" s="1">
-        <v>1.05</v>
+        <v>9.49</v>
       </c>
       <c r="H19" s="2">
-        <v>370</v>
+        <v>1276</v>
       </c>
       <c r="I19" s="5">
         <f>IF(H19, 100*F19/H19, "")</f>
-        <v>0.28378378378378377</v>
+        <v>0.74373040752351094</v>
       </c>
       <c r="J19" s="5" t="str">
         <f>IF(G19, F19/G19, "")</f>
@@ -1391,57 +1466,60 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="E20" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F20" s="1">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5" t="str">
+        <v>2.77</v>
+      </c>
+      <c r="H20" s="2">
+        <v>213</v>
+      </c>
+      <c r="I20" s="5">
         <f>IF(H20, 100*F20/H20, "")</f>
-        <v/>
-      </c>
-      <c r="J20" s="5">
+        <v>1.300469483568075</v>
+      </c>
+      <c r="J20" s="5" t="str">
         <f>IF(G20, F20/G20, "")</f>
-        <v>2.4900000000000002</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E21" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F21" s="1">
-        <v>8.99</v>
+        <v>11.69</v>
       </c>
       <c r="H21" s="2">
-        <v>454</v>
+        <v>850</v>
       </c>
       <c r="I21" s="5">
         <f>IF(H21, 100*F21/H21, "")</f>
-        <v>1.9801762114537445</v>
+        <v>1.3752941176470588</v>
       </c>
       <c r="J21" s="5" t="str">
         <f>IF(G21, F21/G21, "")</f>
@@ -1450,54 +1528,57 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F22" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="H22" s="2">
-        <v>180</v>
-      </c>
-      <c r="I22" s="5">
+        <v>1.39</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="str">
         <f>IF(H22, 100*F22/H22, "")</f>
-        <v>4.3888888888888893</v>
-      </c>
-      <c r="J22" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J22" s="5">
         <f>IF(G22, F22/G22, "")</f>
-        <v/>
+        <v>1.39</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F23" s="1">
-        <v>3.99</v>
+        <v>1.05</v>
       </c>
       <c r="H23" s="2">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="I23" s="5">
         <f>IF(H23, 100*F23/H23, "")</f>
-        <v>3.99</v>
+        <v>0.28378378378378377</v>
       </c>
       <c r="J23" s="5" t="str">
         <f>IF(G23, F23/G23, "")</f>
@@ -1506,13 +1587,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -1521,18 +1599,18 @@
         <v>42278</v>
       </c>
       <c r="F24" s="1">
-        <v>2.99</v>
-      </c>
-      <c r="H24" s="2">
-        <v>100</v>
-      </c>
-      <c r="I24" s="5">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="str">
         <f>IF(H24, 100*F24/H24, "")</f>
-        <v>2.99</v>
-      </c>
-      <c r="J24" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J24" s="5">
         <f>IF(G24, F24/G24, "")</f>
-        <v/>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1540,7 +1618,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -1549,14 +1630,14 @@
         <v>42278</v>
       </c>
       <c r="F25" s="1">
-        <v>7.99</v>
+        <v>8.99</v>
       </c>
       <c r="H25" s="2">
         <v>454</v>
       </c>
       <c r="I25" s="5">
         <f>IF(H25, 100*F25/H25, "")</f>
-        <v>1.7599118942731278</v>
+        <v>1.9801762114537445</v>
       </c>
       <c r="J25" s="5" t="str">
         <f>IF(G25, F25/G25, "")</f>
@@ -1568,23 +1649,23 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F26" s="1">
-        <v>8.49</v>
+        <v>7.9</v>
       </c>
       <c r="H26" s="2">
-        <v>454</v>
+        <v>180</v>
       </c>
       <c r="I26" s="5">
         <f>IF(H26, 100*F26/H26, "")</f>
-        <v>1.8700440528634361</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="J26" s="5" t="str">
         <f>IF(G26, F26/G26, "")</f>
@@ -1596,7 +1677,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -1605,14 +1686,14 @@
         <v>42278</v>
       </c>
       <c r="F27" s="1">
-        <v>4.29</v>
+        <v>3.99</v>
       </c>
       <c r="H27" s="2">
         <v>100</v>
       </c>
       <c r="I27" s="5">
         <f>IF(H27, 100*F27/H27, "")</f>
-        <v>4.29</v>
+        <v>3.99</v>
       </c>
       <c r="J27" s="5" t="str">
         <f>IF(G27, F27/G27, "")</f>
@@ -1624,23 +1705,26 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F28" s="1">
-        <v>8.7899999999999991</v>
+        <v>2.99</v>
       </c>
       <c r="H28" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I28" s="5">
         <f>IF(H28, 100*F28/H28, "")</f>
-        <v>4.3949999999999996</v>
+        <v>2.99</v>
       </c>
       <c r="J28" s="5" t="str">
         <f>IF(G28, F28/G28, "")</f>
@@ -1649,29 +1733,26 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E29" s="3">
         <v>42278</v>
       </c>
       <c r="F29" s="1">
-        <v>2.25</v>
+        <v>7.99</v>
       </c>
       <c r="H29" s="2">
-        <v>2000</v>
+        <v>454</v>
       </c>
       <c r="I29" s="5">
         <f>IF(H29, 100*F29/H29, "")</f>
-        <v>0.1125</v>
+        <v>1.7599118942731278</v>
       </c>
       <c r="J29" s="5" t="str">
         <f>IF(G29, F29/G29, "")</f>
@@ -1680,13 +1761,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -1695,14 +1773,14 @@
         <v>42278</v>
       </c>
       <c r="F30" s="1">
-        <v>2.2599999999999998</v>
+        <v>8.49</v>
       </c>
       <c r="H30" s="2">
-        <v>4000</v>
+        <v>454</v>
       </c>
       <c r="I30" s="5">
         <f>IF(H30, 100*F30/H30, "")</f>
-        <v>5.6499999999999995E-2</v>
+        <v>1.8700440528634361</v>
       </c>
       <c r="J30" s="5" t="str">
         <f>IF(G30, F30/G30, "")</f>
@@ -1711,85 +1789,85 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E31" s="3">
         <v>42278</v>
       </c>
       <c r="F31" s="1">
-        <v>2.99</v>
-      </c>
-      <c r="G31" s="4">
-        <v>6</v>
-      </c>
-      <c r="I31" s="5" t="str">
+        <v>4.29</v>
+      </c>
+      <c r="H31" s="2">
+        <v>100</v>
+      </c>
+      <c r="I31" s="5">
         <f>IF(H31, 100*F31/H31, "")</f>
-        <v/>
-      </c>
-      <c r="J31" s="5">
+        <v>4.29</v>
+      </c>
+      <c r="J31" s="5" t="str">
         <f>IF(G31, F31/G31, "")</f>
-        <v>0.49833333333333335</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E32" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F32" s="1">
-        <v>2.99</v>
-      </c>
-      <c r="G32" s="4">
-        <v>6</v>
-      </c>
-      <c r="I32" s="5" t="str">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="H32" s="2">
+        <v>200</v>
+      </c>
+      <c r="I32" s="5">
         <f>IF(H32, 100*F32/H32, "")</f>
-        <v/>
-      </c>
-      <c r="J32" s="5">
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="J32" s="5" t="str">
         <f>IF(G32, F32/G32, "")</f>
-        <v>0.49833333333333335</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E33" s="3">
         <v>42278</v>
       </c>
       <c r="F33" s="1">
-        <v>12.99</v>
+        <v>2.25</v>
       </c>
       <c r="H33" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I33" s="5">
         <f>IF(H33, 100*F33/H33, "")</f>
-        <v>1.2989999999999999</v>
+        <v>0.1125</v>
       </c>
       <c r="J33" s="5" t="str">
         <f>IF(G33, F33/G33, "")</f>
@@ -1798,26 +1876,29 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E34" s="3">
         <v>42278</v>
       </c>
       <c r="F34" s="1">
-        <v>4.25</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H34" s="2">
-        <v>495</v>
+        <v>4000</v>
       </c>
       <c r="I34" s="5">
         <f>IF(H34, 100*F34/H34, "")</f>
-        <v>0.85858585858585856</v>
+        <v>5.6499999999999995E-2</v>
       </c>
       <c r="J34" s="5" t="str">
         <f>IF(G34, F34/G34, "")</f>
@@ -1826,25 +1907,25 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E35" s="3">
         <v>42278</v>
       </c>
       <c r="F35" s="1">
-        <v>0.99</v>
+        <v>2.99</v>
       </c>
       <c r="G35" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I35" s="5" t="str">
         <f>IF(H35, 100*F35/H35, "")</f>
@@ -1852,59 +1933,62 @@
       </c>
       <c r="J35" s="5">
         <f>IF(G35, F35/G35, "")</f>
-        <v>0.33</v>
+        <v>0.49833333333333335</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E36" s="3">
         <v>42278</v>
       </c>
       <c r="F36" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="H36" s="2">
-        <v>135</v>
-      </c>
-      <c r="I36" s="5">
+        <v>2.99</v>
+      </c>
+      <c r="G36" s="4">
+        <v>6</v>
+      </c>
+      <c r="I36" s="5" t="str">
         <f>IF(H36, 100*F36/H36, "")</f>
-        <v>0.65925925925925921</v>
-      </c>
-      <c r="J36" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J36" s="5">
         <f>IF(G36, F36/G36, "")</f>
-        <v/>
+        <v>0.49833333333333335</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>132</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E37" s="3">
         <v>42309</v>
       </c>
       <c r="F37" s="1">
-        <v>1.54</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="H37" s="2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I37" s="5">
         <f>IF(H37, 100*F37/H37, "")</f>
-        <v>0.77</v>
+        <v>1.8989999999999998</v>
       </c>
       <c r="J37" s="5" t="str">
         <f>IF(G37, F37/G37, "")</f>
@@ -1913,26 +1997,29 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E38" s="3">
         <v>42309</v>
       </c>
       <c r="F38" s="1">
-        <v>3.99</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="H38" s="2">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I38" s="5">
         <f>IF(H38, 100*F38/H38, "")</f>
-        <v>0.44333333333333336</v>
+        <v>1.7989999999999997</v>
       </c>
       <c r="J38" s="5" t="str">
         <f>IF(G38, F38/G38, "")</f>
@@ -1941,26 +2028,26 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E39" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F39" s="1">
-        <v>2.4500000000000002</v>
+        <v>12.99</v>
       </c>
       <c r="H39" s="2">
-        <v>115</v>
+        <v>1000</v>
       </c>
       <c r="I39" s="5">
         <f>IF(H39, 100*F39/H39, "")</f>
-        <v>2.1304347826086958</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="J39" s="5" t="str">
         <f>IF(G39, F39/G39, "")</f>
@@ -1969,29 +2056,29 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E40" s="3">
         <v>42309</v>
       </c>
       <c r="F40" s="1">
-        <v>7.79</v>
+        <v>15.99</v>
       </c>
       <c r="H40" s="2">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="I40" s="5">
         <f>IF(H40, 100*F40/H40, "")</f>
-        <v>2.782142857142857</v>
+        <v>1.599</v>
       </c>
       <c r="J40" s="5" t="str">
         <f>IF(G40, F40/G40, "")</f>
@@ -2000,29 +2087,29 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E41" s="3">
         <v>42309</v>
       </c>
       <c r="F41" s="1">
-        <v>2.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="H41" s="2">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="I41" s="5">
         <f>IF(H41, 100*F41/H41, "")</f>
-        <v>0.74750000000000005</v>
+        <v>1.9989999999999997</v>
       </c>
       <c r="J41" s="5" t="str">
         <f>IF(G41, F41/G41, "")</f>
@@ -2031,29 +2118,29 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E42" s="3">
         <v>42309</v>
       </c>
       <c r="F42" s="1">
-        <v>7.69</v>
+        <v>16.29</v>
       </c>
       <c r="H42" s="2">
-        <v>907</v>
+        <v>1000</v>
       </c>
       <c r="I42" s="5">
         <f>IF(H42, 100*F42/H42, "")</f>
-        <v>0.84785005512679157</v>
+        <v>1.629</v>
       </c>
       <c r="J42" s="5" t="str">
         <f>IF(G42, F42/G42, "")</f>
@@ -2062,26 +2149,26 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="E43" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F43" s="1">
-        <v>4.99</v>
+        <v>4.25</v>
       </c>
       <c r="H43" s="2">
-        <v>400</v>
+        <v>495</v>
       </c>
       <c r="I43" s="5">
         <f>IF(H43, 100*F43/H43, "")</f>
-        <v>1.2475000000000001</v>
+        <v>0.85858585858585856</v>
       </c>
       <c r="J43" s="5" t="str">
         <f>IF(G43, F43/G43, "")</f>
@@ -2090,54 +2177,57 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E44" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F44" s="1">
-        <v>2.73</v>
-      </c>
-      <c r="H44" s="2">
-        <v>185</v>
-      </c>
-      <c r="I44" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="G44" s="4">
+        <v>3</v>
+      </c>
+      <c r="I44" s="5" t="str">
         <f>IF(H44, 100*F44/H44, "")</f>
-        <v>1.4756756756756757</v>
-      </c>
-      <c r="J44" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J44" s="5">
         <f>IF(G44, F44/G44, "")</f>
-        <v/>
+        <v>0.33</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F45" s="1">
-        <v>22.02</v>
+        <v>0.89</v>
       </c>
       <c r="H45" s="2">
-        <v>1000</v>
+        <v>135</v>
       </c>
       <c r="I45" s="5">
         <f>IF(H45, 100*F45/H45, "")</f>
-        <v>2.202</v>
+        <v>0.65925925925925921</v>
       </c>
       <c r="J45" s="5" t="str">
         <f>IF(G45, F45/G45, "")</f>
@@ -2146,26 +2236,29 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>121</v>
+      </c>
+      <c r="C46" t="s">
+        <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="E46" s="3">
         <v>42309</v>
       </c>
       <c r="F46" s="1">
-        <v>9.7899999999999991</v>
+        <v>2.69</v>
       </c>
       <c r="H46" s="2">
-        <v>1000</v>
+        <v>454</v>
       </c>
       <c r="I46" s="5">
         <f>IF(H46, 100*F46/H46, "")</f>
-        <v>0.97899999999999987</v>
+        <v>0.59251101321585908</v>
       </c>
       <c r="J46" s="5" t="str">
         <f>IF(G46, F46/G46, "")</f>
@@ -2174,26 +2267,26 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E47" s="3">
         <v>42309</v>
       </c>
       <c r="F47" s="1">
-        <v>3.24</v>
+        <v>1.54</v>
       </c>
       <c r="H47" s="2">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I47" s="5">
         <f>IF(H47, 100*F47/H47, "")</f>
-        <v>0.32400000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="J47" s="5" t="str">
         <f>IF(G47, F47/G47, "")</f>
@@ -2202,26 +2295,26 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E48" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F48" s="1">
-        <v>8.8000000000000007</v>
+        <v>3.99</v>
       </c>
       <c r="H48" s="2">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I48" s="5">
         <f>IF(H48, 100*F48/H48, "")</f>
-        <v>0.88000000000000012</v>
+        <v>0.44333333333333336</v>
       </c>
       <c r="J48" s="5" t="str">
         <f>IF(G48, F48/G48, "")</f>
@@ -2230,26 +2323,26 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E49" s="3">
         <v>42309</v>
       </c>
       <c r="F49" s="1">
-        <v>1.1000000000000001</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H49" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="I49" s="5">
         <f>IF(H49, 100*F49/H49, "")</f>
-        <v>1.1000000000000001</v>
+        <v>2.1304347826086958</v>
       </c>
       <c r="J49" s="5" t="str">
         <f>IF(G49, F49/G49, "")</f>
@@ -2258,26 +2351,29 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="E50" s="3">
         <v>42309</v>
       </c>
       <c r="F50" s="1">
-        <v>17.649999999999999</v>
+        <v>7.79</v>
       </c>
       <c r="H50" s="2">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="I50" s="5">
         <f>IF(H50, 100*F50/H50, "")</f>
-        <v>1.7649999999999997</v>
+        <v>2.782142857142857</v>
       </c>
       <c r="J50" s="5" t="str">
         <f>IF(G50, F50/G50, "")</f>
@@ -2286,29 +2382,29 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E51" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F51" s="1">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="H51" s="2">
-        <v>3000</v>
+        <v>907</v>
       </c>
       <c r="I51" s="5">
         <f>IF(H51, 100*F51/H51, "")</f>
-        <v>0.16633333333333333</v>
+        <v>1.101433296582139</v>
       </c>
       <c r="J51" s="5" t="str">
         <f>IF(G51, F51/G51, "")</f>
@@ -2317,26 +2413,29 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>142</v>
+      </c>
+      <c r="C52" t="s">
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E52" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F52" s="1">
-        <v>4.97</v>
+        <v>13.99</v>
       </c>
       <c r="H52" s="2">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="I52" s="5">
         <f>IF(H52, 100*F52/H52, "")</f>
-        <v>0.12425</v>
+        <v>1.74875</v>
       </c>
       <c r="J52" s="5" t="str">
         <f>IF(G52, F52/G52, "")</f>
@@ -2345,57 +2444,60 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>88</v>
+      </c>
+      <c r="C53" t="s">
+        <v>89</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E53" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F53" s="1">
-        <v>1.34</v>
-      </c>
-      <c r="G53" s="4">
-        <v>2</v>
-      </c>
-      <c r="I53" s="5" t="str">
+        <v>2.99</v>
+      </c>
+      <c r="H53" s="2">
+        <v>400</v>
+      </c>
+      <c r="I53" s="5">
         <f>IF(H53, 100*F53/H53, "")</f>
-        <v/>
-      </c>
-      <c r="J53" s="5">
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="J53" s="5" t="str">
         <f>IF(G53, F53/G53, "")</f>
-        <v>0.67</v>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="E54" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F54" s="1">
-        <v>2.5</v>
+        <v>2.69</v>
       </c>
       <c r="H54" s="2">
-        <v>1360</v>
+        <v>454</v>
       </c>
       <c r="I54" s="5">
         <f>IF(H54, 100*F54/H54, "")</f>
-        <v>0.18382352941176472</v>
+        <v>0.59251101321585908</v>
       </c>
       <c r="J54" s="5" t="str">
         <f>IF(G54, F54/G54, "")</f>
@@ -2404,23 +2506,26 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>87</v>
+      </c>
+      <c r="B55" t="s">
+        <v>124</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="E55" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F55" s="1">
-        <v>4.3899999999999997</v>
+        <v>7.99</v>
       </c>
       <c r="H55" s="2">
-        <v>1000</v>
+        <v>1816</v>
       </c>
       <c r="I55" s="5">
         <f>IF(H55, 100*F55/H55, "")</f>
-        <v>0.43899999999999995</v>
+        <v>0.43997797356828194</v>
       </c>
       <c r="J55" s="5" t="str">
         <f>IF(G55, F55/G55, "")</f>
@@ -2429,54 +2534,57 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>114</v>
+      </c>
+      <c r="C56" t="s">
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E56" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F56" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="G56" s="4">
-        <v>1</v>
-      </c>
-      <c r="I56" s="5" t="str">
+        <v>7.69</v>
+      </c>
+      <c r="H56" s="2">
+        <v>907</v>
+      </c>
+      <c r="I56" s="5">
         <f>IF(H56, 100*F56/H56, "")</f>
-        <v/>
-      </c>
-      <c r="J56" s="5">
+        <v>0.84785005512679157</v>
+      </c>
+      <c r="J56" s="5" t="str">
         <f>IF(G56, F56/G56, "")</f>
-        <v>2.88</v>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="E57" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F57" s="1">
-        <v>4</v>
+        <v>4.99</v>
       </c>
       <c r="H57" s="2">
-        <v>9072</v>
+        <v>400</v>
       </c>
       <c r="I57" s="5">
         <f>IF(H57, 100*F57/H57, "")</f>
-        <v>4.4091710758377423E-2</v>
+        <v>1.2475000000000001</v>
       </c>
       <c r="J57" s="5" t="str">
         <f>IF(G57, F57/G57, "")</f>
@@ -2485,29 +2593,26 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E58" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F58" s="1">
-        <v>8.99</v>
+        <v>2.73</v>
       </c>
       <c r="H58" s="2">
-        <v>1860</v>
+        <v>185</v>
       </c>
       <c r="I58" s="5">
         <f>IF(H58, 100*F58/H58, "")</f>
-        <v>0.48333333333333334</v>
+        <v>1.4756756756756757</v>
       </c>
       <c r="J58" s="5" t="str">
         <f>IF(G58, F58/G58, "")</f>
@@ -2516,29 +2621,26 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E59" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F59" s="1">
-        <v>16.989999999999998</v>
+        <v>22.02</v>
       </c>
       <c r="H59" s="2">
-        <v>8300</v>
+        <v>1000</v>
       </c>
       <c r="I59" s="5">
         <f>IF(H59, 100*F59/H59, "")</f>
-        <v>0.20469879518072287</v>
+        <v>2.202</v>
       </c>
       <c r="J59" s="5" t="str">
         <f>IF(G59, F59/G59, "")</f>
@@ -2547,29 +2649,26 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F60" s="1">
-        <v>4.99</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="H60" s="2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I60" s="5">
         <f>IF(H60, 100*F60/H60, "")</f>
-        <v>0.2495</v>
+        <v>0.97899999999999987</v>
       </c>
       <c r="J60" s="5" t="str">
         <f>IF(G60, F60/G60, "")</f>
@@ -2578,29 +2677,29 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E61" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F61" s="1">
-        <v>2.79</v>
+        <v>7.99</v>
       </c>
       <c r="H61" s="2">
-        <v>296</v>
+        <v>1000</v>
       </c>
       <c r="I61" s="5">
         <f>IF(H61, 100*F61/H61, "")</f>
-        <v>0.94256756756756754</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="J61" s="5" t="str">
         <f>IF(G61, F61/G61, "")</f>
@@ -2609,29 +2708,29 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E62" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F62" s="1">
-        <v>3.29</v>
+        <v>5.69</v>
       </c>
       <c r="H62" s="2">
-        <v>227</v>
+        <v>1000</v>
       </c>
       <c r="I62" s="5">
         <f>IF(H62, 100*F62/H62, "")</f>
-        <v>1.4493392070484581</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>IF(G62, F62/G62, "")</f>
@@ -2640,29 +2739,29 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E63" s="3">
         <v>42309</v>
       </c>
       <c r="F63" s="1">
-        <v>4.99</v>
+        <v>11.69</v>
       </c>
       <c r="H63" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I63" s="5">
         <f>IF(H63, 100*F63/H63, "")</f>
-        <v>0.998</v>
+        <v>1.169</v>
       </c>
       <c r="J63" s="5" t="str">
         <f>IF(G63, F63/G63, "")</f>
@@ -2671,26 +2770,26 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="D64" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E64" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F64" s="1">
-        <v>0.92</v>
+        <v>3.24</v>
       </c>
       <c r="H64" s="2">
-        <v>45</v>
+        <v>1000</v>
       </c>
       <c r="I64" s="5">
         <f>IF(H64, 100*F64/H64, "")</f>
-        <v>2.0444444444444443</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>IF(G64, F64/G64, "")</f>
@@ -2699,26 +2798,26 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="E65" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F65" s="1">
-        <v>2.99</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H65" s="2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I65" s="5">
         <f>IF(H65, 100*F65/H65, "")</f>
-        <v>1.4950000000000001</v>
+        <v>0.88000000000000012</v>
       </c>
       <c r="J65" s="5" t="str">
         <f>IF(G65, F65/G65, "")</f>
@@ -2727,29 +2826,26 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="D66" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="E66" s="3">
         <v>42309</v>
       </c>
       <c r="F66" s="1">
-        <v>2.4900000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H66" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I66" s="5">
         <f>IF(H66, 100*F66/H66, "")</f>
-        <v>0.49800000000000005</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J66" s="5" t="str">
         <f>IF(G66, F66/G66, "")</f>
@@ -2758,26 +2854,29 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="C67" t="s">
+        <v>129</v>
       </c>
       <c r="D67" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E67" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F67" s="1">
-        <v>2.69</v>
+        <v>4.99</v>
       </c>
       <c r="H67" s="2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I67" s="5">
         <f>IF(H67, 100*F67/H67, "")</f>
-        <v>1.345</v>
+        <v>0.499</v>
       </c>
       <c r="J67" s="5" t="str">
         <f>IF(G67, F67/G67, "")</f>
@@ -2786,29 +2885,26 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F68" s="1">
-        <v>2.4900000000000002</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="H68" s="2">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="I68" s="5">
         <f>IF(H68, 100*F68/H68, "")</f>
-        <v>0.33200000000000002</v>
+        <v>1.7649999999999997</v>
       </c>
       <c r="J68" s="5" t="str">
         <f>IF(G68, F68/G68, "")</f>
@@ -2817,32 +2913,777 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E69" s="3">
         <v>42309</v>
       </c>
       <c r="F69" s="1">
-        <v>1.99</v>
+        <v>9.89</v>
       </c>
       <c r="H69" s="2">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="I69" s="5">
         <f>IF(H69, 100*F69/H69, "")</f>
-        <v>0.26533333333333331</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="J69" s="5" t="str">
         <f>IF(G69, F69/G69, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F70" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="H70" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I70" s="5">
+        <f>IF(H70, 100*F70/H70, "")</f>
+        <v>0.16633333333333333</v>
+      </c>
+      <c r="J70" s="5" t="str">
+        <f>IF(G70, F70/G70, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F71" s="1">
+        <v>4.97</v>
+      </c>
+      <c r="H71" s="2">
+        <v>4000</v>
+      </c>
+      <c r="I71" s="5">
+        <f>IF(H71, 100*F71/H71, "")</f>
+        <v>0.12425</v>
+      </c>
+      <c r="J71" s="5" t="str">
+        <f>IF(G71, F71/G71, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="G72" s="4">
+        <v>2</v>
+      </c>
+      <c r="I72" s="5" t="str">
+        <f>IF(H72, 100*F72/H72, "")</f>
+        <v/>
+      </c>
+      <c r="J72" s="5">
+        <f>IF(G72, F72/G72, "")</f>
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1360</v>
+      </c>
+      <c r="I73" s="5">
+        <f>IF(H73, 100*F73/H73, "")</f>
+        <v>0.18382352941176472</v>
+      </c>
+      <c r="J73" s="5" t="str">
+        <f>IF(G73, F73/G73, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2</v>
+      </c>
+      <c r="H74" s="2">
+        <v>4536</v>
+      </c>
+      <c r="I74" s="5">
+        <f>IF(H74, 100*F74/H74, "")</f>
+        <v>4.4091710758377423E-2</v>
+      </c>
+      <c r="J74" s="5" t="str">
+        <f>IF(G74, F74/G74, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F75" s="1">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I75" s="5">
+        <f>IF(H75, 100*F75/H75, "")</f>
+        <v>0.43899999999999995</v>
+      </c>
+      <c r="J75" s="5" t="str">
+        <f>IF(G75, F75/G75, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F76" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+      <c r="I76" s="5" t="str">
+        <f>IF(H76, 100*F76/H76, "")</f>
+        <v/>
+      </c>
+      <c r="J76" s="5">
+        <f>IF(G76, F76/G76, "")</f>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F77" s="1">
+        <v>4</v>
+      </c>
+      <c r="H77" s="2">
+        <v>9072</v>
+      </c>
+      <c r="I77" s="5">
+        <f>IF(H77, 100*F77/H77, "")</f>
+        <v>4.4091710758377423E-2</v>
+      </c>
+      <c r="J77" s="5" t="str">
+        <f>IF(G77, F77/G77, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F78" s="1">
+        <v>8.99</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1860</v>
+      </c>
+      <c r="I78" s="5">
+        <f>IF(H78, 100*F78/H78, "")</f>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="J78" s="5" t="str">
+        <f>IF(G78, F78/G78, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F79" s="1">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="H79" s="2">
+        <v>6804</v>
+      </c>
+      <c r="I79" s="5">
+        <f>IF(H79, 100*F79/H79, "")</f>
+        <v>0.24970605526161077</v>
+      </c>
+      <c r="J79" s="5" t="str">
+        <f>IF(G79, F79/G79, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F80" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="H80" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I80" s="5">
+        <f>IF(H80, 100*F80/H80, "")</f>
+        <v>0.2495</v>
+      </c>
+      <c r="J80" s="5" t="str">
+        <f>IF(G80, F80/G80, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F81" s="1">
+        <v>12.99</v>
+      </c>
+      <c r="H81" s="2">
+        <v>6804</v>
+      </c>
+      <c r="I81" s="5">
+        <f>IF(H81, 100*F81/H81, "")</f>
+        <v>0.19091710758377425</v>
+      </c>
+      <c r="J81" s="5" t="str">
+        <f>IF(G81, F81/G81, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" t="s">
+        <v>146</v>
+      </c>
+      <c r="E82" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F82" s="1">
+        <v>13.98</v>
+      </c>
+      <c r="H82" s="2">
+        <v>8000</v>
+      </c>
+      <c r="I82" s="5">
+        <f>IF(H82, 100*F82/H82, "")</f>
+        <v>0.17474999999999999</v>
+      </c>
+      <c r="J82" s="5" t="str">
+        <f>IF(G82, F82/G82, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F83" s="1">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H83" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I83" s="5">
+        <f>IF(H83, 100*F83/H83, "")</f>
+        <v>0.21949999999999997</v>
+      </c>
+      <c r="J83" s="5" t="str">
+        <f>IF(G83, F83/G83, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F84" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="H84" s="2">
+        <v>296</v>
+      </c>
+      <c r="I84" s="5">
+        <f>IF(H84, 100*F84/H84, "")</f>
+        <v>0.94256756756756754</v>
+      </c>
+      <c r="J84" s="5" t="str">
+        <f>IF(G84, F84/G84, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" t="s">
+        <v>73</v>
+      </c>
+      <c r="E85" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F85" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="H85" s="2">
+        <v>710</v>
+      </c>
+      <c r="I85" s="5">
+        <f>IF(H85, 100*F85/H85, "")</f>
+        <v>0.56197183098591552</v>
+      </c>
+      <c r="J85" s="5" t="str">
+        <f>IF(G85, F85/G85, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F86" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="H86" s="2">
+        <v>710</v>
+      </c>
+      <c r="I86" s="5">
+        <f>IF(H86, 100*F86/H86, "")</f>
+        <v>0.70281690140845066</v>
+      </c>
+      <c r="J86" s="5" t="str">
+        <f>IF(G86, F86/G86, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F87" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="H87" s="2">
+        <v>227</v>
+      </c>
+      <c r="I87" s="5">
+        <f>IF(H87, 100*F87/H87, "")</f>
+        <v>1.4493392070484581</v>
+      </c>
+      <c r="J87" s="5" t="str">
+        <f>IF(G87, F87/G87, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F88" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="H88" s="2">
+        <v>500</v>
+      </c>
+      <c r="I88" s="5">
+        <f>IF(H88, 100*F88/H88, "")</f>
+        <v>0.998</v>
+      </c>
+      <c r="J88" s="5" t="str">
+        <f>IF(G88, F88/G88, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" t="s">
+        <v>47</v>
+      </c>
+      <c r="D89" t="s">
+        <v>48</v>
+      </c>
+      <c r="E89" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="H89" s="2">
+        <v>45</v>
+      </c>
+      <c r="I89" s="5">
+        <f>IF(H89, 100*F89/H89, "")</f>
+        <v>2.0444444444444443</v>
+      </c>
+      <c r="J89" s="5" t="str">
+        <f>IF(G89, F89/G89, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90" t="s">
+        <v>105</v>
+      </c>
+      <c r="E90" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F90" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="H90" s="2">
+        <v>200</v>
+      </c>
+      <c r="I90" s="5">
+        <f>IF(H90, 100*F90/H90, "")</f>
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="J90" s="5" t="str">
+        <f>IF(G90, F90/G90, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" t="s">
+        <v>117</v>
+      </c>
+      <c r="D91" t="s">
+        <v>105</v>
+      </c>
+      <c r="E91" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F91" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H91" s="2">
+        <v>500</v>
+      </c>
+      <c r="I91" s="5">
+        <f>IF(H91, 100*F91/H91, "")</f>
+        <v>0.49800000000000005</v>
+      </c>
+      <c r="J91" s="5" t="str">
+        <f>IF(G91, F91/G91, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E92" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F92" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="H92" s="2">
+        <v>200</v>
+      </c>
+      <c r="I92" s="5">
+        <f>IF(H92, 100*F92/H92, "")</f>
+        <v>1.345</v>
+      </c>
+      <c r="J92" s="5" t="str">
+        <f>IF(G92, F92/G92, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" t="s">
+        <v>65</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F93" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H93" s="2">
+        <v>750</v>
+      </c>
+      <c r="I93" s="5">
+        <f>IF(H93, 100*F93/H93, "")</f>
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="J93" s="5" t="str">
+        <f>IF(G93, F93/G93, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" t="s">
+        <v>105</v>
+      </c>
+      <c r="E94" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="H94" s="2">
+        <v>750</v>
+      </c>
+      <c r="I94" s="5">
+        <f>IF(H94, 100*F94/H94, "")</f>
+        <v>0.26533333333333331</v>
+      </c>
+      <c r="J94" s="5" t="str">
+        <f>IF(G94, F94/G94, "")</f>
         <v/>
       </c>
     </row>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="173">
   <si>
     <t>Product</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Grain</t>
   </si>
   <si>
-    <t>Millet</t>
-  </si>
-  <si>
     <t>Riso</t>
   </si>
   <si>
@@ -457,6 +454,87 @@
   </si>
   <si>
     <t>Walmart</t>
+  </si>
+  <si>
+    <t>Bob's Red Mill</t>
+  </si>
+  <si>
+    <t>Clementine</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Ginger, Root</t>
+  </si>
+  <si>
+    <t>Potato, Sweet</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Millet, Hulled</t>
+  </si>
+  <si>
+    <t>Nuts</t>
+  </si>
+  <si>
+    <t>Brazil, Whole</t>
+  </si>
+  <si>
+    <t>Starch</t>
+  </si>
+  <si>
+    <t>Chia</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Almonds, Sliced, Blanched</t>
+  </si>
+  <si>
+    <t>Millet, Hulled, Glutinous</t>
+  </si>
+  <si>
+    <t>Sitara</t>
+  </si>
+  <si>
+    <t>Mushrooms</t>
+  </si>
+  <si>
+    <t>Shiitake</t>
+  </si>
+  <si>
+    <t>Dollars Per Pound</t>
+  </si>
+  <si>
+    <t>Dollars Per 100g</t>
+  </si>
+  <si>
+    <t>Greens</t>
+  </si>
+  <si>
+    <t>Shungiku</t>
+  </si>
+  <si>
+    <t>Turkey, Drumstick</t>
+  </si>
+  <si>
+    <t>Farm Boy</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>Y&amp;Y</t>
+  </si>
+  <si>
+    <t>Black, Long</t>
   </si>
 </sst>
 </file>
@@ -552,9 +630,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J94" totalsRowShown="0">
-  <autoFilter ref="A1:J94"/>
-  <sortState ref="A2:J94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J115" totalsRowShown="0">
+  <autoFilter ref="A1:J115"/>
+  <sortState ref="A2:J115">
     <sortCondition ref="A2:A37"/>
     <sortCondition ref="B2:B37"/>
   </sortState>
@@ -865,16 +943,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O83" sqref="O83"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
@@ -923,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
@@ -951,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -982,13 +1060,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="3">
         <v>42309</v>
@@ -1013,13 +1091,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="3">
         <v>42309</v>
@@ -1044,26 +1122,26 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="E6" s="3">
         <v>42309</v>
       </c>
       <c r="F6" s="1">
-        <v>4.99</v>
+        <v>6.87</v>
       </c>
       <c r="H6" s="2">
-        <v>500</v>
+        <v>3629</v>
       </c>
       <c r="I6" s="5">
         <f>IF(H6, 100*F6/H6, "")</f>
-        <v>0.998</v>
+        <v>0.18930834940755029</v>
       </c>
       <c r="J6" s="5" t="str">
         <f>IF(G6, F6/G6, "")</f>
@@ -1075,23 +1153,26 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="E7" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F7" s="1">
-        <v>3.27</v>
+        <v>2.29</v>
       </c>
       <c r="H7" s="2">
-        <v>1235</v>
+        <v>907</v>
       </c>
       <c r="I7" s="5">
         <f>IF(H7, 100*F7/H7, "")</f>
-        <v>0.26477732793522268</v>
+        <v>0.25248070562293273</v>
       </c>
       <c r="J7" s="5" t="str">
         <f>IF(G7, F7/G7, "")</f>
@@ -1103,26 +1184,26 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F8" s="1">
-        <v>2.5</v>
+        <v>4.99</v>
       </c>
       <c r="H8" s="2">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="I8" s="5">
         <f>IF(H8, 100*F8/H8, "")</f>
-        <v>0.27777777777777779</v>
+        <v>0.998</v>
       </c>
       <c r="J8" s="5" t="str">
         <f>IF(G8, F8/G8, "")</f>
@@ -1134,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
@@ -1143,14 +1224,14 @@
         <v>42309</v>
       </c>
       <c r="F9" s="1">
-        <v>0.24</v>
+        <v>3.27</v>
       </c>
       <c r="H9" s="2">
-        <v>100</v>
+        <v>1235</v>
       </c>
       <c r="I9" s="5">
         <f>IF(H9, 100*F9/H9, "")</f>
-        <v>0.24</v>
+        <v>0.26477732793522268</v>
       </c>
       <c r="J9" s="5" t="str">
         <f>IF(G9, F9/G9, "")</f>
@@ -1159,10 +1240,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1174,10 +1255,10 @@
         <v>42278</v>
       </c>
       <c r="F10" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H10" s="2">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="I10" s="5">
         <f>IF(H10, 100*F10/H10, "")</f>
@@ -1190,29 +1271,26 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3">
         <v>42309</v>
       </c>
       <c r="F11" s="1">
-        <v>2.88</v>
+        <v>0.24</v>
       </c>
       <c r="H11" s="2">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="I11" s="5">
         <f>IF(H11, 100*F11/H11, "")</f>
-        <v>0.63436123348017626</v>
+        <v>0.24</v>
       </c>
       <c r="J11" s="5" t="str">
         <f>IF(G11, F11/G11, "")</f>
@@ -1221,57 +1299,60 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3">
         <v>42278</v>
       </c>
       <c r="F12" s="1">
-        <v>1.28</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5" t="str">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1800</v>
+      </c>
+      <c r="I12" s="5">
         <f>IF(H12, 100*F12/H12, "")</f>
-        <v/>
-      </c>
-      <c r="J12" s="5">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="J12" s="5" t="str">
         <f>IF(G12, F12/G12, "")</f>
-        <v>1.28</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E13" s="3">
         <v>42309</v>
       </c>
       <c r="F13" s="1">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="H13" s="2">
-        <v>1925</v>
+        <v>454</v>
       </c>
       <c r="I13" s="5">
         <f>IF(H13, 100*F13/H13, "")</f>
-        <v>0.17402597402597403</v>
+        <v>0.63436123348017626</v>
       </c>
       <c r="J13" s="5" t="str">
         <f>IF(G13, F13/G13, "")</f>
@@ -1280,25 +1361,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3">
         <v>42278</v>
       </c>
       <c r="F14" s="1">
-        <v>6</v>
+        <v>1.28</v>
       </c>
       <c r="G14" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14" s="5" t="str">
         <f>IF(H14, 100*F14/H14, "")</f>
@@ -1306,38 +1387,35 @@
       </c>
       <c r="J14" s="5">
         <f>IF(G14, F14/G14, "")</f>
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3">
         <v>42309</v>
       </c>
       <c r="F15" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5" t="str">
+        <v>3.35</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1925</v>
+      </c>
+      <c r="I15" s="5">
         <f>IF(H15, 100*F15/H15, "")</f>
-        <v/>
-      </c>
-      <c r="J15" s="5">
+        <v>0.17402597402597403</v>
+      </c>
+      <c r="J15" s="5" t="str">
         <f>IF(G15, F15/G15, "")</f>
-        <v>1.29</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1345,22 +1423,22 @@
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="E16" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F16" s="1">
-        <v>1.29</v>
+        <v>6</v>
       </c>
       <c r="G16" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16" s="5" t="str">
         <f>IF(H16, 100*F16/H16, "")</f>
@@ -1368,7 +1446,7 @@
       </c>
       <c r="J16" s="5">
         <f>IF(G16, F16/G16, "")</f>
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1376,30 +1454,30 @@
         <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E17" s="3">
         <v>42309</v>
       </c>
       <c r="F17" s="1">
-        <v>2.35</v>
-      </c>
-      <c r="H17" s="2">
-        <v>418</v>
-      </c>
-      <c r="I17" s="5">
+        <v>1.29</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="str">
         <f>IF(H17, 100*F17/H17, "")</f>
-        <v>0.56220095693779903</v>
-      </c>
-      <c r="J17" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J17" s="5">
         <f>IF(G17, F17/G17, "")</f>
-        <v/>
+        <v>1.29</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1407,30 +1485,30 @@
         <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E18" s="3">
         <v>42309</v>
       </c>
       <c r="F18" s="1">
-        <v>1.67</v>
-      </c>
-      <c r="H18" s="2">
-        <v>213</v>
-      </c>
-      <c r="I18" s="5">
+        <v>1.29</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="str">
         <f>IF(H18, 100*F18/H18, "")</f>
-        <v>0.784037558685446</v>
-      </c>
-      <c r="J18" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J18" s="5">
         <f>IF(G18, F18/G18, "")</f>
-        <v/>
+        <v>1.29</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1438,26 +1516,26 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E19" s="3">
         <v>42309</v>
       </c>
       <c r="F19" s="1">
-        <v>9.49</v>
+        <v>2.35</v>
       </c>
       <c r="H19" s="2">
-        <v>1276</v>
+        <v>418</v>
       </c>
       <c r="I19" s="5">
         <f>IF(H19, 100*F19/H19, "")</f>
-        <v>0.74373040752351094</v>
+        <v>0.56220095693779903</v>
       </c>
       <c r="J19" s="5" t="str">
         <f>IF(G19, F19/G19, "")</f>
@@ -1469,26 +1547,26 @@
         <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E20" s="3">
         <v>42309</v>
       </c>
       <c r="F20" s="1">
-        <v>2.77</v>
+        <v>1.67</v>
       </c>
       <c r="H20" s="2">
         <v>213</v>
       </c>
       <c r="I20" s="5">
         <f>IF(H20, 100*F20/H20, "")</f>
-        <v>1.300469483568075</v>
+        <v>0.784037558685446</v>
       </c>
       <c r="J20" s="5" t="str">
         <f>IF(G20, F20/G20, "")</f>
@@ -1500,10 +1578,10 @@
         <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
         <v>73</v>
@@ -1512,14 +1590,14 @@
         <v>42309</v>
       </c>
       <c r="F21" s="1">
-        <v>11.69</v>
+        <v>9.49</v>
       </c>
       <c r="H21" s="2">
-        <v>850</v>
+        <v>1276</v>
       </c>
       <c r="I21" s="5">
         <f>IF(H21, 100*F21/H21, "")</f>
-        <v>1.3752941176470588</v>
+        <v>0.74373040752351094</v>
       </c>
       <c r="J21" s="5" t="str">
         <f>IF(G21, F21/G21, "")</f>
@@ -1531,54 +1609,57 @@
         <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="E22" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F22" s="1">
-        <v>1.39</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="I22" s="5" t="str">
+        <v>2.77</v>
+      </c>
+      <c r="H22" s="2">
+        <v>213</v>
+      </c>
+      <c r="I22" s="5">
         <f>IF(H22, 100*F22/H22, "")</f>
-        <v/>
-      </c>
-      <c r="J22" s="5">
+        <v>1.300469483568075</v>
+      </c>
+      <c r="J22" s="5" t="str">
         <f>IF(G22, F22/G22, "")</f>
-        <v>1.39</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>138</v>
+      </c>
+      <c r="C23" t="s">
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E23" s="3">
         <v>42309</v>
       </c>
       <c r="F23" s="1">
-        <v>1.05</v>
+        <v>11.69</v>
       </c>
       <c r="H23" s="2">
-        <v>370</v>
+        <v>850</v>
       </c>
       <c r="I23" s="5">
         <f>IF(H23, 100*F23/H23, "")</f>
-        <v>0.28378378378378377</v>
+        <v>1.3752941176470588</v>
       </c>
       <c r="J23" s="5" t="str">
         <f>IF(G23, F23/G23, "")</f>
@@ -1587,10 +1668,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -1599,7 +1683,7 @@
         <v>42278</v>
       </c>
       <c r="F24" s="1">
-        <v>2.4900000000000002</v>
+        <v>1.39</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
@@ -1610,34 +1694,31 @@
       </c>
       <c r="J24" s="5">
         <f>IF(G24, F24/G24, "")</f>
-        <v>2.4900000000000002</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F25" s="1">
-        <v>8.99</v>
+        <v>1.05</v>
       </c>
       <c r="H25" s="2">
-        <v>454</v>
+        <v>370</v>
       </c>
       <c r="I25" s="5">
         <f>IF(H25, 100*F25/H25, "")</f>
-        <v>1.9801762114537445</v>
+        <v>0.28378378378378377</v>
       </c>
       <c r="J25" s="5" t="str">
         <f>IF(G25, F25/G25, "")</f>
@@ -1646,30 +1727,30 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F26" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="H26" s="2">
-        <v>180</v>
-      </c>
-      <c r="I26" s="5">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="str">
         <f>IF(H26, 100*F26/H26, "")</f>
-        <v>4.3888888888888893</v>
-      </c>
-      <c r="J26" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J26" s="5">
         <f>IF(G26, F26/G26, "")</f>
-        <v/>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1677,7 +1758,10 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -1686,14 +1770,14 @@
         <v>42278</v>
       </c>
       <c r="F27" s="1">
-        <v>3.99</v>
+        <v>8.99</v>
       </c>
       <c r="H27" s="2">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="I27" s="5">
         <f>IF(H27, 100*F27/H27, "")</f>
-        <v>3.99</v>
+        <v>1.9801762114537445</v>
       </c>
       <c r="J27" s="5" t="str">
         <f>IF(G27, F27/G27, "")</f>
@@ -1705,26 +1789,23 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F28" s="1">
-        <v>2.99</v>
+        <v>7.9</v>
       </c>
       <c r="H28" s="2">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="I28" s="5">
         <f>IF(H28, 100*F28/H28, "")</f>
-        <v>2.99</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="J28" s="5" t="str">
         <f>IF(G28, F28/G28, "")</f>
@@ -1736,7 +1817,7 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -1745,14 +1826,14 @@
         <v>42278</v>
       </c>
       <c r="F29" s="1">
-        <v>7.99</v>
+        <v>3.99</v>
       </c>
       <c r="H29" s="2">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="I29" s="5">
         <f>IF(H29, 100*F29/H29, "")</f>
-        <v>1.7599118942731278</v>
+        <v>3.99</v>
       </c>
       <c r="J29" s="5" t="str">
         <f>IF(G29, F29/G29, "")</f>
@@ -1764,7 +1845,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -1773,14 +1857,14 @@
         <v>42278</v>
       </c>
       <c r="F30" s="1">
-        <v>8.49</v>
+        <v>2.99</v>
       </c>
       <c r="H30" s="2">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="I30" s="5">
         <f>IF(H30, 100*F30/H30, "")</f>
-        <v>1.8700440528634361</v>
+        <v>2.99</v>
       </c>
       <c r="J30" s="5" t="str">
         <f>IF(G30, F30/G30, "")</f>
@@ -1792,7 +1876,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -1801,14 +1885,14 @@
         <v>42278</v>
       </c>
       <c r="F31" s="1">
-        <v>4.29</v>
+        <v>7.99</v>
       </c>
       <c r="H31" s="2">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="I31" s="5">
         <f>IF(H31, 100*F31/H31, "")</f>
-        <v>4.29</v>
+        <v>1.7599118942731278</v>
       </c>
       <c r="J31" s="5" t="str">
         <f>IF(G31, F31/G31, "")</f>
@@ -1820,23 +1904,23 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F32" s="1">
-        <v>8.7899999999999991</v>
+        <v>8.49</v>
       </c>
       <c r="H32" s="2">
-        <v>200</v>
+        <v>454</v>
       </c>
       <c r="I32" s="5">
         <f>IF(H32, 100*F32/H32, "")</f>
-        <v>4.3949999999999996</v>
+        <v>1.8700440528634361</v>
       </c>
       <c r="J32" s="5" t="str">
         <f>IF(G32, F32/G32, "")</f>
@@ -1845,29 +1929,26 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E33" s="3">
         <v>42278</v>
       </c>
       <c r="F33" s="1">
-        <v>2.25</v>
+        <v>4.29</v>
       </c>
       <c r="H33" s="2">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="I33" s="5">
         <f>IF(H33, 100*F33/H33, "")</f>
-        <v>0.1125</v>
+        <v>4.29</v>
       </c>
       <c r="J33" s="5" t="str">
         <f>IF(G33, F33/G33, "")</f>
@@ -1876,29 +1957,26 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F34" s="1">
-        <v>2.2599999999999998</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="H34" s="2">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="I34" s="5">
         <f>IF(H34, 100*F34/H34, "")</f>
-        <v>5.6499999999999995E-2</v>
+        <v>4.3949999999999996</v>
       </c>
       <c r="J34" s="5" t="str">
         <f>IF(G34, F34/G34, "")</f>
@@ -1907,25 +1985,22 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E35" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F35" s="1">
-        <v>2.99</v>
+        <v>5.97</v>
       </c>
       <c r="G35" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I35" s="5" t="str">
         <f>IF(H35, 100*F35/H35, "")</f>
@@ -1933,27 +2008,30 @@
       </c>
       <c r="J35" s="5">
         <f>IF(G35, F35/G35, "")</f>
-        <v>0.49833333333333335</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E36" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F36" s="1">
-        <v>2.99</v>
+        <v>8.99</v>
       </c>
       <c r="G36" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I36" s="5" t="str">
         <f>IF(H36, 100*F36/H36, "")</f>
@@ -1961,34 +2039,34 @@
       </c>
       <c r="J36" s="5">
         <f>IF(G36, F36/G36, "")</f>
-        <v>0.49833333333333335</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E37" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F37" s="1">
-        <v>18.989999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="H37" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I37" s="5">
         <f>IF(H37, 100*F37/H37, "")</f>
-        <v>1.8989999999999998</v>
+        <v>0.1125</v>
       </c>
       <c r="J37" s="5" t="str">
         <f>IF(G37, F37/G37, "")</f>
@@ -1997,29 +2075,29 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E38" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F38" s="1">
-        <v>17.989999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H38" s="2">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I38" s="5">
         <f>IF(H38, 100*F38/H38, "")</f>
-        <v>1.7989999999999997</v>
+        <v>5.6499999999999995E-2</v>
       </c>
       <c r="J38" s="5" t="str">
         <f>IF(G38, F38/G38, "")</f>
@@ -2028,61 +2106,61 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="E39" s="3">
         <v>42278</v>
       </c>
       <c r="F39" s="1">
-        <v>12.99</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I39" s="5">
+        <v>2.99</v>
+      </c>
+      <c r="G39" s="4">
+        <v>6</v>
+      </c>
+      <c r="I39" s="5" t="str">
         <f>IF(H39, 100*F39/H39, "")</f>
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="J39" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J39" s="5">
         <f>IF(G39, F39/G39, "")</f>
-        <v/>
+        <v>0.49833333333333335</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E40" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F40" s="1">
-        <v>15.99</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I40" s="5">
+        <v>2.99</v>
+      </c>
+      <c r="G40" s="4">
+        <v>6</v>
+      </c>
+      <c r="I40" s="5" t="str">
         <f>IF(H40, 100*F40/H40, "")</f>
-        <v>1.599</v>
-      </c>
-      <c r="J40" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J40" s="5">
         <f>IF(G40, F40/G40, "")</f>
-        <v/>
+        <v>0.49833333333333335</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2090,10 +2168,10 @@
         <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
         <v>73</v>
@@ -2102,14 +2180,14 @@
         <v>42309</v>
       </c>
       <c r="F41" s="1">
-        <v>19.989999999999998</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="H41" s="2">
         <v>1000</v>
       </c>
       <c r="I41" s="5">
         <f>IF(H41, 100*F41/H41, "")</f>
-        <v>1.9989999999999997</v>
+        <v>1.8989999999999998</v>
       </c>
       <c r="J41" s="5" t="str">
         <f>IF(G41, F41/G41, "")</f>
@@ -2121,10 +2199,10 @@
         <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
         <v>73</v>
@@ -2133,14 +2211,14 @@
         <v>42309</v>
       </c>
       <c r="F42" s="1">
-        <v>16.29</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="H42" s="2">
         <v>1000</v>
       </c>
       <c r="I42" s="5">
         <f>IF(H42, 100*F42/H42, "")</f>
-        <v>1.629</v>
+        <v>1.7989999999999997</v>
       </c>
       <c r="J42" s="5" t="str">
         <f>IF(G42, F42/G42, "")</f>
@@ -2149,26 +2227,26 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E43" s="3">
         <v>42278</v>
       </c>
       <c r="F43" s="1">
-        <v>4.25</v>
+        <v>12.99</v>
       </c>
       <c r="H43" s="2">
-        <v>495</v>
+        <v>1000</v>
       </c>
       <c r="I43" s="5">
         <f>IF(H43, 100*F43/H43, "")</f>
-        <v>0.85858585858585856</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="J43" s="5" t="str">
         <f>IF(G43, F43/G43, "")</f>
@@ -2177,57 +2255,60 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E44" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F44" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="G44" s="4">
-        <v>3</v>
-      </c>
-      <c r="I44" s="5" t="str">
+        <v>15.99</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I44" s="5">
         <f>IF(H44, 100*F44/H44, "")</f>
-        <v/>
-      </c>
-      <c r="J44" s="5">
+        <v>1.599</v>
+      </c>
+      <c r="J44" s="5" t="str">
         <f>IF(G44, F44/G44, "")</f>
-        <v>0.33</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>132</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E45" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F45" s="1">
-        <v>0.89</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="H45" s="2">
-        <v>135</v>
+        <v>1000</v>
       </c>
       <c r="I45" s="5">
         <f>IF(H45, 100*F45/H45, "")</f>
-        <v>0.65925925925925921</v>
+        <v>1.9989999999999997</v>
       </c>
       <c r="J45" s="5" t="str">
         <f>IF(G45, F45/G45, "")</f>
@@ -2236,29 +2317,29 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="E46" s="3">
         <v>42309</v>
       </c>
       <c r="F46" s="1">
-        <v>2.69</v>
+        <v>16.29</v>
       </c>
       <c r="H46" s="2">
-        <v>454</v>
+        <v>1000</v>
       </c>
       <c r="I46" s="5">
         <f>IF(H46, 100*F46/H46, "")</f>
-        <v>0.59251101321585908</v>
+        <v>1.629</v>
       </c>
       <c r="J46" s="5" t="str">
         <f>IF(G46, F46/G46, "")</f>
@@ -2267,26 +2348,26 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
       </c>
       <c r="E47" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F47" s="1">
-        <v>1.54</v>
+        <v>4.25</v>
       </c>
       <c r="H47" s="2">
-        <v>200</v>
+        <v>495</v>
       </c>
       <c r="I47" s="5">
         <f>IF(H47, 100*F47/H47, "")</f>
-        <v>0.77</v>
+        <v>0.85858585858585856</v>
       </c>
       <c r="J47" s="5" t="str">
         <f>IF(G47, F47/G47, "")</f>
@@ -2295,54 +2376,57 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E48" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F48" s="1">
-        <v>3.99</v>
-      </c>
-      <c r="H48" s="2">
-        <v>900</v>
-      </c>
-      <c r="I48" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="G48" s="4">
+        <v>3</v>
+      </c>
+      <c r="I48" s="5" t="str">
         <f>IF(H48, 100*F48/H48, "")</f>
-        <v>0.44333333333333336</v>
-      </c>
-      <c r="J48" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J48" s="5">
         <f>IF(G48, F48/G48, "")</f>
-        <v/>
+        <v>0.33</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E49" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F49" s="1">
-        <v>2.4500000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="H49" s="2">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="I49" s="5">
         <f>IF(H49, 100*F49/H49, "")</f>
-        <v>2.1304347826086958</v>
+        <v>0.65925925925925921</v>
       </c>
       <c r="J49" s="5" t="str">
         <f>IF(G49, F49/G49, "")</f>
@@ -2354,26 +2438,26 @@
         <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E50" s="3">
         <v>42309</v>
       </c>
       <c r="F50" s="1">
-        <v>7.79</v>
+        <v>2.69</v>
       </c>
       <c r="H50" s="2">
-        <v>280</v>
+        <v>454</v>
       </c>
       <c r="I50" s="5">
         <f>IF(H50, 100*F50/H50, "")</f>
-        <v>2.782142857142857</v>
+        <v>0.59251101321585908</v>
       </c>
       <c r="J50" s="5" t="str">
         <f>IF(G50, F50/G50, "")</f>
@@ -2385,26 +2469,23 @@
         <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E51" s="3">
         <v>42309</v>
       </c>
       <c r="F51" s="1">
-        <v>9.99</v>
+        <v>1.54</v>
       </c>
       <c r="H51" s="2">
-        <v>907</v>
+        <v>200</v>
       </c>
       <c r="I51" s="5">
         <f>IF(H51, 100*F51/H51, "")</f>
-        <v>1.101433296582139</v>
+        <v>0.77</v>
       </c>
       <c r="J51" s="5" t="str">
         <f>IF(G51, F51/G51, "")</f>
@@ -2416,26 +2497,23 @@
         <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E52" s="3">
         <v>42309</v>
       </c>
       <c r="F52" s="1">
-        <v>13.99</v>
+        <v>3.99</v>
       </c>
       <c r="H52" s="2">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I52" s="5">
         <f>IF(H52, 100*F52/H52, "")</f>
-        <v>1.74875</v>
+        <v>0.44333333333333336</v>
       </c>
       <c r="J52" s="5" t="str">
         <f>IF(G52, F52/G52, "")</f>
@@ -2447,26 +2525,23 @@
         <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E53" s="3">
         <v>42309</v>
       </c>
       <c r="F53" s="1">
-        <v>2.99</v>
+        <v>1.74</v>
       </c>
       <c r="H53" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I53" s="5">
         <f>IF(H53, 100*F53/H53, "")</f>
-        <v>0.74750000000000005</v>
+        <v>1.74</v>
       </c>
       <c r="J53" s="5" t="str">
         <f>IF(G53, F53/G53, "")</f>
@@ -2478,26 +2553,23 @@
         <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="E54" s="3">
         <v>42309</v>
       </c>
       <c r="F54" s="1">
-        <v>2.69</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H54" s="2">
-        <v>454</v>
+        <v>115</v>
       </c>
       <c r="I54" s="5">
         <f>IF(H54, 100*F54/H54, "")</f>
-        <v>0.59251101321585908</v>
+        <v>2.1304347826086958</v>
       </c>
       <c r="J54" s="5" t="str">
         <f>IF(G54, F54/G54, "")</f>
@@ -2509,23 +2581,26 @@
         <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>90</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E55" s="3">
         <v>42309</v>
       </c>
       <c r="F55" s="1">
-        <v>7.99</v>
+        <v>7.79</v>
       </c>
       <c r="H55" s="2">
-        <v>1816</v>
+        <v>280</v>
       </c>
       <c r="I55" s="5">
         <f>IF(H55, 100*F55/H55, "")</f>
-        <v>0.43997797356828194</v>
+        <v>2.782142857142857</v>
       </c>
       <c r="J55" s="5" t="str">
         <f>IF(G55, F55/G55, "")</f>
@@ -2537,26 +2612,26 @@
         <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E56" s="3">
         <v>42309</v>
       </c>
       <c r="F56" s="1">
-        <v>7.69</v>
+        <v>9.99</v>
       </c>
       <c r="H56" s="2">
         <v>907</v>
       </c>
       <c r="I56" s="5">
         <f>IF(H56, 100*F56/H56, "")</f>
-        <v>0.84785005512679157</v>
+        <v>1.101433296582139</v>
       </c>
       <c r="J56" s="5" t="str">
         <f>IF(G56, F56/G56, "")</f>
@@ -2568,23 +2643,26 @@
         <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>141</v>
+      </c>
+      <c r="C57" t="s">
+        <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E57" s="3">
         <v>42309</v>
       </c>
       <c r="F57" s="1">
-        <v>4.99</v>
+        <v>13.99</v>
       </c>
       <c r="H57" s="2">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="I57" s="5">
         <f>IF(H57, 100*F57/H57, "")</f>
-        <v>1.2475000000000001</v>
+        <v>1.74875</v>
       </c>
       <c r="J57" s="5" t="str">
         <f>IF(G57, F57/G57, "")</f>
@@ -2596,7 +2674,7 @@
         <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="D58" t="s">
         <v>48</v>
@@ -2605,14 +2683,14 @@
         <v>42309</v>
       </c>
       <c r="F58" s="1">
-        <v>2.73</v>
+        <v>0.41</v>
       </c>
       <c r="H58" s="2">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="I58" s="5">
         <f>IF(H58, 100*F58/H58, "")</f>
-        <v>1.4756756756756757</v>
+        <v>0.41</v>
       </c>
       <c r="J58" s="5" t="str">
         <f>IF(G58, F58/G58, "")</f>
@@ -2621,26 +2699,29 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>160</v>
+      </c>
+      <c r="C59" t="s">
+        <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E59" s="3">
         <v>42309</v>
       </c>
       <c r="F59" s="1">
-        <v>22.02</v>
+        <v>2.99</v>
       </c>
       <c r="H59" s="2">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="I59" s="5">
         <f>IF(H59, 100*F59/H59, "")</f>
-        <v>2.202</v>
+        <v>0.74750000000000005</v>
       </c>
       <c r="J59" s="5" t="str">
         <f>IF(G59, F59/G59, "")</f>
@@ -2649,26 +2730,29 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
+        <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E60" s="3">
         <v>42309</v>
       </c>
       <c r="F60" s="1">
-        <v>9.7899999999999991</v>
+        <v>2.69</v>
       </c>
       <c r="H60" s="2">
-        <v>1000</v>
+        <v>454</v>
       </c>
       <c r="I60" s="5">
         <f>IF(H60, 100*F60/H60, "")</f>
-        <v>0.97899999999999987</v>
+        <v>0.59251101321585908</v>
       </c>
       <c r="J60" s="5" t="str">
         <f>IF(G60, F60/G60, "")</f>
@@ -2677,16 +2761,13 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="E61" s="3">
         <v>42309</v>
@@ -2695,11 +2776,11 @@
         <v>7.99</v>
       </c>
       <c r="H61" s="2">
-        <v>1000</v>
+        <v>1816</v>
       </c>
       <c r="I61" s="5">
         <f>IF(H61, 100*F61/H61, "")</f>
-        <v>0.79900000000000004</v>
+        <v>0.43997797356828194</v>
       </c>
       <c r="J61" s="5" t="str">
         <f>IF(G61, F61/G61, "")</f>
@@ -2708,29 +2789,29 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="E62" s="3">
         <v>42309</v>
       </c>
       <c r="F62" s="1">
-        <v>5.69</v>
+        <v>3.77</v>
       </c>
       <c r="H62" s="2">
-        <v>1000</v>
+        <v>793</v>
       </c>
       <c r="I62" s="5">
         <f>IF(H62, 100*F62/H62, "")</f>
-        <v>0.56899999999999995</v>
+        <v>0.47540983606557374</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>IF(G62, F62/G62, "")</f>
@@ -2739,29 +2820,29 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E63" s="3">
         <v>42309</v>
       </c>
       <c r="F63" s="1">
-        <v>11.69</v>
+        <v>7.69</v>
       </c>
       <c r="H63" s="2">
-        <v>1000</v>
+        <v>907</v>
       </c>
       <c r="I63" s="5">
         <f>IF(H63, 100*F63/H63, "")</f>
-        <v>1.169</v>
+        <v>0.84785005512679157</v>
       </c>
       <c r="J63" s="5" t="str">
         <f>IF(G63, F63/G63, "")</f>
@@ -2770,26 +2851,26 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E64" s="3">
         <v>42309</v>
       </c>
       <c r="F64" s="1">
-        <v>3.24</v>
+        <v>4.99</v>
       </c>
       <c r="H64" s="2">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="I64" s="5">
         <f>IF(H64, 100*F64/H64, "")</f>
-        <v>0.32400000000000001</v>
+        <v>1.2475000000000001</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>IF(G64, F64/G64, "")</f>
@@ -2798,26 +2879,29 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>113</v>
+      </c>
+      <c r="C65" t="s">
+        <v>114</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E65" s="3">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="F65" s="1">
-        <v>8.8000000000000007</v>
+        <v>9.99</v>
       </c>
       <c r="H65" s="2">
-        <v>1000</v>
+        <v>907</v>
       </c>
       <c r="I65" s="5">
         <f>IF(H65, 100*F65/H65, "")</f>
-        <v>0.88000000000000012</v>
+        <v>1.101433296582139</v>
       </c>
       <c r="J65" s="5" t="str">
         <f>IF(G65, F65/G65, "")</f>
@@ -2826,26 +2910,26 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E66" s="3">
         <v>42309</v>
       </c>
       <c r="F66" s="1">
-        <v>1.1000000000000001</v>
+        <v>2.73</v>
       </c>
       <c r="H66" s="2">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="I66" s="5">
         <f>IF(H66, 100*F66/H66, "")</f>
-        <v>1.1000000000000001</v>
+        <v>1.4756756756756757</v>
       </c>
       <c r="J66" s="5" t="str">
         <f>IF(G66, F66/G66, "")</f>
@@ -2854,29 +2938,26 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="D67" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E67" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F67" s="1">
-        <v>4.99</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H67" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I67" s="5">
         <f>IF(H67, 100*F67/H67, "")</f>
-        <v>0.499</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J67" s="5" t="str">
         <f>IF(G67, F67/G67, "")</f>
@@ -2888,7 +2969,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -2897,14 +2978,14 @@
         <v>42309</v>
       </c>
       <c r="F68" s="1">
-        <v>17.649999999999999</v>
+        <v>22.02</v>
       </c>
       <c r="H68" s="2">
         <v>1000</v>
       </c>
       <c r="I68" s="5">
         <f>IF(H68, 100*F68/H68, "")</f>
-        <v>1.7649999999999997</v>
+        <v>2.202</v>
       </c>
       <c r="J68" s="5" t="str">
         <f>IF(G68, F68/G68, "")</f>
@@ -2916,26 +2997,23 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E69" s="3">
         <v>42309</v>
       </c>
       <c r="F69" s="1">
-        <v>9.89</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="H69" s="2">
         <v>1000</v>
       </c>
       <c r="I69" s="5">
         <f>IF(H69, 100*F69/H69, "")</f>
-        <v>0.98899999999999999</v>
+        <v>0.97899999999999987</v>
       </c>
       <c r="J69" s="5" t="str">
         <f>IF(G69, F69/G69, "")</f>
@@ -2944,29 +3022,29 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E70" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F70" s="1">
-        <v>4.99</v>
+        <v>7.99</v>
       </c>
       <c r="H70" s="2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="I70" s="5">
         <f>IF(H70, 100*F70/H70, "")</f>
-        <v>0.16633333333333333</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="J70" s="5" t="str">
         <f>IF(G70, F70/G70, "")</f>
@@ -2975,26 +3053,29 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>135</v>
+      </c>
+      <c r="C71" t="s">
+        <v>128</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E71" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F71" s="1">
-        <v>4.97</v>
+        <v>5.69</v>
       </c>
       <c r="H71" s="2">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="I71" s="5">
         <f>IF(H71, 100*F71/H71, "")</f>
-        <v>0.12425</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="J71" s="5" t="str">
         <f>IF(G71, F71/G71, "")</f>
@@ -3003,57 +3084,57 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>133</v>
+      </c>
+      <c r="C72" t="s">
+        <v>128</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E72" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F72" s="1">
-        <v>1.34</v>
-      </c>
-      <c r="G72" s="4">
-        <v>2</v>
-      </c>
-      <c r="I72" s="5" t="str">
+        <v>11.69</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I72" s="5">
         <f>IF(H72, 100*F72/H72, "")</f>
-        <v/>
-      </c>
-      <c r="J72" s="5">
+        <v>1.169</v>
+      </c>
+      <c r="J72" s="5" t="str">
         <f>IF(G72, F72/G72, "")</f>
-        <v>0.67</v>
+        <v/>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E73" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F73" s="1">
-        <v>2.5</v>
+        <v>3.24</v>
       </c>
       <c r="H73" s="2">
-        <v>1360</v>
+        <v>1000</v>
       </c>
       <c r="I73" s="5">
         <f>IF(H73, 100*F73/H73, "")</f>
-        <v>0.18382352941176472</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>IF(G73, F73/G73, "")</f>
@@ -3062,26 +3143,26 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F74" s="1">
-        <v>2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H74" s="2">
-        <v>4536</v>
+        <v>1000</v>
       </c>
       <c r="I74" s="5">
         <f>IF(H74, 100*F74/H74, "")</f>
-        <v>4.4091710758377423E-2</v>
+        <v>0.88000000000000012</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>IF(G74, F74/G74, "")</f>
@@ -3090,23 +3171,26 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>82</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
       </c>
       <c r="E75" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F75" s="1">
-        <v>4.3899999999999997</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H75" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I75" s="5">
         <f>IF(H75, 100*F75/H75, "")</f>
-        <v>0.43899999999999995</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J75" s="5" t="str">
         <f>IF(G75, F75/G75, "")</f>
@@ -3115,54 +3199,57 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>82</v>
+      </c>
+      <c r="C76" t="s">
+        <v>128</v>
       </c>
       <c r="D76" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E76" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F76" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="G76" s="4">
-        <v>1</v>
-      </c>
-      <c r="I76" s="5" t="str">
+        <v>4.99</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I76" s="5">
         <f>IF(H76, 100*F76/H76, "")</f>
-        <v/>
-      </c>
-      <c r="J76" s="5">
+        <v>0.499</v>
+      </c>
+      <c r="J76" s="5" t="str">
         <f>IF(G76, F76/G76, "")</f>
-        <v>2.88</v>
+        <v/>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="E77" s="3">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="F77" s="1">
-        <v>4</v>
+        <v>11.07</v>
       </c>
       <c r="H77" s="2">
-        <v>9072</v>
+        <v>2016</v>
       </c>
       <c r="I77" s="5">
         <f>IF(H77, 100*F77/H77, "")</f>
-        <v>4.4091710758377423E-2</v>
+        <v>0.5491071428571429</v>
       </c>
       <c r="J77" s="5" t="str">
         <f>IF(G77, F77/G77, "")</f>
@@ -3171,29 +3258,26 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D78" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E78" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F78" s="1">
-        <v>8.99</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="H78" s="2">
-        <v>1860</v>
+        <v>1000</v>
       </c>
       <c r="I78" s="5">
         <f>IF(H78, 100*F78/H78, "")</f>
-        <v>0.48333333333333334</v>
+        <v>1.7649999999999997</v>
       </c>
       <c r="J78" s="5" t="str">
         <f>IF(G78, F78/G78, "")</f>
@@ -3202,29 +3286,29 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E79" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F79" s="1">
-        <v>16.989999999999998</v>
+        <v>9.89</v>
       </c>
       <c r="H79" s="2">
-        <v>6804</v>
+        <v>1000</v>
       </c>
       <c r="I79" s="5">
         <f>IF(H79, 100*F79/H79, "")</f>
-        <v>0.24970605526161077</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="J79" s="5" t="str">
         <f>IF(G79, F79/G79, "")</f>
@@ -3233,13 +3317,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -3251,11 +3335,11 @@
         <v>4.99</v>
       </c>
       <c r="H80" s="2">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I80" s="5">
         <f>IF(H80, 100*F80/H80, "")</f>
-        <v>0.2495</v>
+        <v>0.16633333333333333</v>
       </c>
       <c r="J80" s="5" t="str">
         <f>IF(G80, F80/G80, "")</f>
@@ -3264,29 +3348,26 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="E81" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F81" s="1">
-        <v>12.99</v>
+        <v>4.97</v>
       </c>
       <c r="H81" s="2">
-        <v>6804</v>
+        <v>4000</v>
       </c>
       <c r="I81" s="5">
         <f>IF(H81, 100*F81/H81, "")</f>
-        <v>0.19091710758377425</v>
+        <v>0.12425</v>
       </c>
       <c r="J81" s="5" t="str">
         <f>IF(G81, F81/G81, "")</f>
@@ -3295,29 +3376,26 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="E82" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F82" s="1">
-        <v>13.98</v>
+        <v>1.23</v>
       </c>
       <c r="H82" s="2">
-        <v>8000</v>
+        <v>100</v>
       </c>
       <c r="I82" s="5">
         <f>IF(H82, 100*F82/H82, "")</f>
-        <v>0.17474999999999999</v>
+        <v>1.23</v>
       </c>
       <c r="J82" s="5" t="str">
         <f>IF(G82, F82/G82, "")</f>
@@ -3326,13 +3404,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="B83" t="s">
-        <v>127</v>
-      </c>
-      <c r="C83" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
@@ -3341,14 +3416,14 @@
         <v>42309</v>
       </c>
       <c r="F83" s="1">
-        <v>4.3899999999999997</v>
+        <v>2.29</v>
       </c>
       <c r="H83" s="2">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="I83" s="5">
         <f>IF(H83, 100*F83/H83, "")</f>
-        <v>0.21949999999999997</v>
+        <v>2.29</v>
       </c>
       <c r="J83" s="5" t="str">
         <f>IF(G83, F83/G83, "")</f>
@@ -3357,29 +3432,26 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="B84" t="s">
-        <v>59</v>
-      </c>
-      <c r="C84" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E84" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F84" s="1">
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
       <c r="H84" s="2">
-        <v>296</v>
+        <v>100</v>
       </c>
       <c r="I84" s="5">
         <f>IF(H84, 100*F84/H84, "")</f>
-        <v>0.94256756756756754</v>
+        <v>3.1</v>
       </c>
       <c r="J84" s="5" t="str">
         <f>IF(G84, F84/G84, "")</f>
@@ -3388,29 +3460,29 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="B85" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C85" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="D85" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E85" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F85" s="1">
-        <v>3.99</v>
+        <v>3.14</v>
       </c>
       <c r="H85" s="2">
-        <v>710</v>
+        <v>100</v>
       </c>
       <c r="I85" s="5">
         <f>IF(H85, 100*F85/H85, "")</f>
-        <v>0.56197183098591552</v>
+        <v>3.14</v>
       </c>
       <c r="J85" s="5" t="str">
         <f>IF(G85, F85/G85, "")</f>
@@ -3419,60 +3491,57 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>144</v>
-      </c>
-      <c r="C86" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="D86" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E86" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F86" s="1">
-        <v>4.99</v>
-      </c>
-      <c r="H86" s="2">
-        <v>710</v>
-      </c>
-      <c r="I86" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="G86" s="4">
+        <v>2</v>
+      </c>
+      <c r="I86" s="5" t="str">
         <f>IF(H86, 100*F86/H86, "")</f>
-        <v>0.70281690140845066</v>
-      </c>
-      <c r="J86" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J86" s="5">
         <f>IF(G86, F86/G86, "")</f>
-        <v/>
+        <v>0.67</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C87" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E87" s="3">
         <v>42278</v>
       </c>
       <c r="F87" s="1">
-        <v>3.29</v>
+        <v>2.5</v>
       </c>
       <c r="H87" s="2">
-        <v>227</v>
+        <v>1360</v>
       </c>
       <c r="I87" s="5">
         <f>IF(H87, 100*F87/H87, "")</f>
-        <v>1.4493392070484581</v>
+        <v>0.18382352941176472</v>
       </c>
       <c r="J87" s="5" t="str">
         <f>IF(G87, F87/G87, "")</f>
@@ -3481,29 +3550,26 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="E88" s="3">
         <v>42309</v>
       </c>
       <c r="F88" s="1">
-        <v>4.99</v>
+        <v>2</v>
       </c>
       <c r="H88" s="2">
-        <v>500</v>
+        <v>4536</v>
       </c>
       <c r="I88" s="5">
         <f>IF(H88, 100*F88/H88, "")</f>
-        <v>0.998</v>
+        <v>4.4091710758377423E-2</v>
       </c>
       <c r="J88" s="5" t="str">
         <f>IF(G88, F88/G88, "")</f>
@@ -3512,26 +3578,23 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>46</v>
-      </c>
-      <c r="B89" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D89" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E89" s="3">
         <v>42278</v>
       </c>
       <c r="F89" s="1">
-        <v>0.92</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="H89" s="2">
-        <v>45</v>
+        <v>1000</v>
       </c>
       <c r="I89" s="5">
         <f>IF(H89, 100*F89/H89, "")</f>
-        <v>2.0444444444444443</v>
+        <v>0.43899999999999995</v>
       </c>
       <c r="J89" s="5" t="str">
         <f>IF(G89, F89/G89, "")</f>
@@ -3540,57 +3603,54 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B90" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="E90" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F90" s="1">
-        <v>2.99</v>
-      </c>
-      <c r="H90" s="2">
-        <v>200</v>
-      </c>
-      <c r="I90" s="5">
+        <v>2.88</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1</v>
+      </c>
+      <c r="I90" s="5" t="str">
         <f>IF(H90, 100*F90/H90, "")</f>
-        <v>1.4950000000000001</v>
-      </c>
-      <c r="J90" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J90" s="5">
         <f>IF(G90, F90/G90, "")</f>
-        <v/>
+        <v>2.88</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
-      </c>
-      <c r="C91" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="E91" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F91" s="1">
-        <v>2.4900000000000002</v>
+        <v>4</v>
       </c>
       <c r="H91" s="2">
-        <v>500</v>
+        <v>9072</v>
       </c>
       <c r="I91" s="5">
         <f>IF(H91, 100*F91/H91, "")</f>
-        <v>0.49800000000000005</v>
+        <v>4.4091710758377423E-2</v>
       </c>
       <c r="J91" s="5" t="str">
         <f>IF(G91, F91/G91, "")</f>
@@ -3599,26 +3659,26 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E92" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F92" s="1">
-        <v>2.69</v>
+        <v>1.29</v>
       </c>
       <c r="H92" s="2">
-        <v>200</v>
+        <v>454</v>
       </c>
       <c r="I92" s="5">
         <f>IF(H92, 100*F92/H92, "")</f>
-        <v>1.345</v>
+        <v>0.28414096916299558</v>
       </c>
       <c r="J92" s="5" t="str">
         <f>IF(G92, F92/G92, "")</f>
@@ -3627,29 +3687,26 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="B93" t="s">
-        <v>64</v>
-      </c>
-      <c r="C93" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E93" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F93" s="1">
-        <v>2.4900000000000002</v>
+        <v>1.29</v>
       </c>
       <c r="H93" s="2">
-        <v>750</v>
+        <v>454</v>
       </c>
       <c r="I93" s="5">
         <f>IF(H93, 100*F93/H93, "")</f>
-        <v>0.33200000000000002</v>
+        <v>0.28414096916299558</v>
       </c>
       <c r="J93" s="5" t="str">
         <f>IF(G93, F93/G93, "")</f>
@@ -3658,32 +3715,668 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="E94" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F94" s="1">
-        <v>1.99</v>
+        <v>8.99</v>
       </c>
       <c r="H94" s="2">
-        <v>750</v>
+        <v>1860</v>
       </c>
       <c r="I94" s="5">
         <f>IF(H94, 100*F94/H94, "")</f>
-        <v>0.26533333333333331</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="J94" s="5" t="str">
         <f>IF(G94, F94/G94, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95" t="s">
+        <v>171</v>
+      </c>
+      <c r="D95" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95" s="3">
+        <v>42339</v>
+      </c>
+      <c r="F95" s="1">
+        <v>9.99</v>
+      </c>
+      <c r="H95" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I95" s="5">
+        <f>IF(H95, 100*F95/H95, "")</f>
+        <v>0.4995</v>
+      </c>
+      <c r="J95" s="5" t="str">
+        <f>IF(G95, F95/G95, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F96" s="1">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="H96" s="2">
+        <v>6804</v>
+      </c>
+      <c r="I96" s="5">
+        <f>IF(H96, 100*F96/H96, "")</f>
+        <v>0.24970605526161077</v>
+      </c>
+      <c r="J96" s="5" t="str">
+        <f>IF(G96, F96/G96, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F97" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="H97" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I97" s="5">
+        <f>IF(H97, 100*F97/H97, "")</f>
+        <v>0.2495</v>
+      </c>
+      <c r="J97" s="5" t="str">
+        <f>IF(G97, F97/G97, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" t="s">
+        <v>122</v>
+      </c>
+      <c r="E98" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F98" s="1">
+        <v>12.99</v>
+      </c>
+      <c r="H98" s="2">
+        <v>6804</v>
+      </c>
+      <c r="I98" s="5">
+        <f>IF(H98, 100*F98/H98, "")</f>
+        <v>0.19091710758377425</v>
+      </c>
+      <c r="J98" s="5" t="str">
+        <f>IF(G98, F98/G98, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F99" s="1">
+        <v>13.98</v>
+      </c>
+      <c r="H99" s="2">
+        <v>8000</v>
+      </c>
+      <c r="I99" s="5">
+        <f>IF(H99, 100*F99/H99, "")</f>
+        <v>0.17474999999999999</v>
+      </c>
+      <c r="J99" s="5" t="str">
+        <f>IF(G99, F99/G99, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F100" s="1">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H100" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I100" s="5">
+        <f>IF(H100, 100*F100/H100, "")</f>
+        <v>0.21949999999999997</v>
+      </c>
+      <c r="J100" s="5" t="str">
+        <f>IF(G100, F100/G100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" s="3">
+        <v>42339</v>
+      </c>
+      <c r="F101" s="1">
+        <v>5.99</v>
+      </c>
+      <c r="H101" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I101" s="5">
+        <f>IF(H101, 100*F101/H101, "")</f>
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="J101" s="5" t="str">
+        <f>IF(G101, F101/G101, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102" t="s">
+        <v>171</v>
+      </c>
+      <c r="D102" t="s">
+        <v>93</v>
+      </c>
+      <c r="E102" s="3">
+        <v>42339</v>
+      </c>
+      <c r="F102" s="1">
+        <v>6.99</v>
+      </c>
+      <c r="H102" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I102" s="5">
+        <f>IF(H102, 100*F102/H102, "")</f>
+        <v>0.34949999999999998</v>
+      </c>
+      <c r="J102" s="5" t="str">
+        <f>IF(G102, F102/G102, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>58</v>
+      </c>
+      <c r="B103" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F103" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="H103" s="2">
+        <v>296</v>
+      </c>
+      <c r="I103" s="5">
+        <f>IF(H103, 100*F103/H103, "")</f>
+        <v>0.94256756756756754</v>
+      </c>
+      <c r="J103" s="5" t="str">
+        <f>IF(G103, F103/G103, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>58</v>
+      </c>
+      <c r="B104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C104" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104" t="s">
+        <v>73</v>
+      </c>
+      <c r="E104" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F104" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="H104" s="2">
+        <v>710</v>
+      </c>
+      <c r="I104" s="5">
+        <f>IF(H104, 100*F104/H104, "")</f>
+        <v>0.56197183098591552</v>
+      </c>
+      <c r="J104" s="5" t="str">
+        <f>IF(G104, F104/G104, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>58</v>
+      </c>
+      <c r="B105" t="s">
+        <v>143</v>
+      </c>
+      <c r="C105" t="s">
+        <v>144</v>
+      </c>
+      <c r="D105" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F105" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="H105" s="2">
+        <v>710</v>
+      </c>
+      <c r="I105" s="5">
+        <f>IF(H105, 100*F105/H105, "")</f>
+        <v>0.70281690140845066</v>
+      </c>
+      <c r="J105" s="5" t="str">
+        <f>IF(G105, F105/G105, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>56</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F106" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="H106" s="2">
+        <v>227</v>
+      </c>
+      <c r="I106" s="5">
+        <f>IF(H106, 100*F106/H106, "")</f>
+        <v>1.4493392070484581</v>
+      </c>
+      <c r="J106" s="5" t="str">
+        <f>IF(G106, F106/G106, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>46</v>
+      </c>
+      <c r="B107" t="s">
+        <v>149</v>
+      </c>
+      <c r="D107" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="H107" s="2">
+        <v>671</v>
+      </c>
+      <c r="I107" s="5">
+        <f>IF(H107, 100*F107/H107, "")</f>
+        <v>0.21609538002980627</v>
+      </c>
+      <c r="J107" s="5" t="str">
+        <f>IF(G107, F107/G107, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>46</v>
+      </c>
+      <c r="B108" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" t="s">
+        <v>116</v>
+      </c>
+      <c r="D108" t="s">
+        <v>104</v>
+      </c>
+      <c r="E108" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F108" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="H108" s="2">
+        <v>500</v>
+      </c>
+      <c r="I108" s="5">
+        <f>IF(H108, 100*F108/H108, "")</f>
+        <v>0.998</v>
+      </c>
+      <c r="J108" s="5" t="str">
+        <f>IF(G108, F108/G108, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>46</v>
+      </c>
+      <c r="B109" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="H109" s="2">
+        <v>45</v>
+      </c>
+      <c r="I109" s="5">
+        <f>IF(H109, 100*F109/H109, "")</f>
+        <v>2.0444444444444443</v>
+      </c>
+      <c r="J109" s="5" t="str">
+        <f>IF(G109, F109/G109, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" t="s">
+        <v>47</v>
+      </c>
+      <c r="D110" t="s">
+        <v>104</v>
+      </c>
+      <c r="E110" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F110" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="H110" s="2">
+        <v>200</v>
+      </c>
+      <c r="I110" s="5">
+        <f>IF(H110, 100*F110/H110, "")</f>
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="J110" s="5" t="str">
+        <f>IF(G110, F110/G110, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" t="s">
+        <v>104</v>
+      </c>
+      <c r="E111" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F111" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H111" s="2">
+        <v>500</v>
+      </c>
+      <c r="I111" s="5">
+        <f>IF(H111, 100*F111/H111, "")</f>
+        <v>0.49800000000000005</v>
+      </c>
+      <c r="J111" s="5" t="str">
+        <f>IF(G111, F111/G111, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" t="s">
+        <v>51</v>
+      </c>
+      <c r="D112" t="s">
+        <v>48</v>
+      </c>
+      <c r="E112" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="H112" s="2">
+        <v>100</v>
+      </c>
+      <c r="I112" s="5">
+        <f>IF(H112, 100*F112/H112, "")</f>
+        <v>0.39</v>
+      </c>
+      <c r="J112" s="5" t="str">
+        <f>IF(G112, F112/G112, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>48</v>
+      </c>
+      <c r="E113" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F113" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="H113" s="2">
+        <v>200</v>
+      </c>
+      <c r="I113" s="5">
+        <f>IF(H113, 100*F113/H113, "")</f>
+        <v>1.345</v>
+      </c>
+      <c r="J113" s="5" t="str">
+        <f>IF(G113, F113/G113, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>63</v>
+      </c>
+      <c r="B114" t="s">
+        <v>64</v>
+      </c>
+      <c r="C114" t="s">
+        <v>65</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F114" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H114" s="2">
+        <v>750</v>
+      </c>
+      <c r="I114" s="5">
+        <f>IF(H114, 100*F114/H114, "")</f>
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="J114" s="5" t="str">
+        <f>IF(G114, F114/G114, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>63</v>
+      </c>
+      <c r="B115" t="s">
+        <v>64</v>
+      </c>
+      <c r="C115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D115" t="s">
+        <v>104</v>
+      </c>
+      <c r="E115" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="H115" s="2">
+        <v>750</v>
+      </c>
+      <c r="I115" s="5">
+        <f>IF(H115, 100*F115/H115, "")</f>
+        <v>0.26533333333333331</v>
+      </c>
+      <c r="J115" s="5" t="str">
+        <f>IF(G115, F115/G115, "")</f>
         <v/>
       </c>
     </row>
@@ -3703,12 +4396,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.59</v>
+      </c>
+      <c r="B2">
+        <f>A2*2.20462/10</f>
+        <v>0.57099657999999986</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="181">
   <si>
     <t>Product</t>
   </si>
@@ -535,6 +535,30 @@
   </si>
   <si>
     <t>Black, Long</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Noodles</t>
+  </si>
+  <si>
+    <t>Pho, 10mm</t>
+  </si>
+  <si>
+    <t>Turkey, Split Wings</t>
+  </si>
+  <si>
+    <t>Arabica, Dark</t>
+  </si>
+  <si>
+    <t>Cofee</t>
+  </si>
+  <si>
+    <t>Arabica, Columbian, Dark</t>
   </si>
 </sst>
 </file>
@@ -630,9 +654,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J115" totalsRowShown="0">
-  <autoFilter ref="A1:J115"/>
-  <sortState ref="A2:J115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J125" totalsRowShown="0">
+  <autoFilter ref="A1:J125"/>
+  <sortState ref="A2:J125">
     <sortCondition ref="A2:A37"/>
     <sortCondition ref="B2:B37"/>
   </sortState>
@@ -943,11 +967,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,26 +1022,26 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F2" s="1">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="H2" s="2">
         <v>100</v>
       </c>
       <c r="I2" s="5">
         <f>IF(H2, 100*F2/H2, "")</f>
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="J2" s="5" t="str">
         <f>IF(G2, F2/G2, "")</f>
@@ -1026,29 +1050,26 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="F3" s="1">
-        <v>5</v>
+        <v>1.74</v>
       </c>
       <c r="H3" s="2">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="I3" s="5">
         <f>IF(H3, 100*F3/H3, "")</f>
-        <v>0.27777777777777779</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="J3" s="5" t="str">
         <f>IF(G3, F3/G3, "")</f>
@@ -1060,26 +1081,23 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3">
         <v>42309</v>
       </c>
       <c r="F4" s="1">
-        <v>1.99</v>
+        <v>0.24</v>
       </c>
       <c r="H4" s="2">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="I4" s="5">
         <f>IF(H4, 100*F4/H4, "")</f>
-        <v>0.22111111111111112</v>
+        <v>0.24</v>
       </c>
       <c r="J4" s="5" t="str">
         <f>IF(G4, F4/G4, "")</f>
@@ -1094,23 +1112,23 @@
         <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F5" s="1">
-        <v>4.1900000000000004</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2">
-        <v>1810</v>
+        <v>1800</v>
       </c>
       <c r="I5" s="5">
         <f>IF(H5, 100*F5/H5, "")</f>
-        <v>0.23149171270718236</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="J5" s="5" t="str">
         <f>IF(G5, F5/G5, "")</f>
@@ -1125,23 +1143,23 @@
         <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="E6" s="3">
         <v>42309</v>
       </c>
       <c r="F6" s="1">
-        <v>6.87</v>
+        <v>1.99</v>
       </c>
       <c r="H6" s="2">
-        <v>3629</v>
+        <v>900</v>
       </c>
       <c r="I6" s="5">
         <f>IF(H6, 100*F6/H6, "")</f>
-        <v>0.18930834940755029</v>
+        <v>0.22111111111111112</v>
       </c>
       <c r="J6" s="5" t="str">
         <f>IF(G6, F6/G6, "")</f>
@@ -1156,23 +1174,23 @@
         <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E7" s="3">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="F7" s="1">
-        <v>2.29</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="H7" s="2">
-        <v>907</v>
+        <v>1810</v>
       </c>
       <c r="I7" s="5">
         <f>IF(H7, 100*F7/H7, "")</f>
-        <v>0.25248070562293273</v>
+        <v>0.23149171270718236</v>
       </c>
       <c r="J7" s="5" t="str">
         <f>IF(G7, F7/G7, "")</f>
@@ -1184,26 +1202,26 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="E8" s="3">
         <v>42309</v>
       </c>
       <c r="F8" s="1">
-        <v>4.99</v>
+        <v>6.87</v>
       </c>
       <c r="H8" s="2">
-        <v>500</v>
+        <v>3629</v>
       </c>
       <c r="I8" s="5">
         <f>IF(H8, 100*F8/H8, "")</f>
-        <v>0.998</v>
+        <v>0.18930834940755029</v>
       </c>
       <c r="J8" s="5" t="str">
         <f>IF(G8, F8/G8, "")</f>
@@ -1215,23 +1233,26 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="E9" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F9" s="1">
-        <v>3.27</v>
+        <v>2.29</v>
       </c>
       <c r="H9" s="2">
-        <v>1235</v>
+        <v>907</v>
       </c>
       <c r="I9" s="5">
         <f>IF(H9, 100*F9/H9, "")</f>
-        <v>0.26477732793522268</v>
+        <v>0.25248070562293273</v>
       </c>
       <c r="J9" s="5" t="str">
         <f>IF(G9, F9/G9, "")</f>
@@ -1243,26 +1264,26 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F10" s="1">
-        <v>2.5</v>
+        <v>4.99</v>
       </c>
       <c r="H10" s="2">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="I10" s="5">
         <f>IF(H10, 100*F10/H10, "")</f>
-        <v>0.27777777777777779</v>
+        <v>0.998</v>
       </c>
       <c r="J10" s="5" t="str">
         <f>IF(G10, F10/G10, "")</f>
@@ -1274,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
@@ -1283,14 +1304,14 @@
         <v>42309</v>
       </c>
       <c r="F11" s="1">
-        <v>0.24</v>
+        <v>3.27</v>
       </c>
       <c r="H11" s="2">
-        <v>100</v>
+        <v>1235</v>
       </c>
       <c r="I11" s="5">
         <f>IF(H11, 100*F11/H11, "")</f>
-        <v>0.24</v>
+        <v>0.26477732793522268</v>
       </c>
       <c r="J11" s="5" t="str">
         <f>IF(G11, F11/G11, "")</f>
@@ -1299,10 +1320,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1314,10 +1335,10 @@
         <v>42278</v>
       </c>
       <c r="F12" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H12" s="2">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="I12" s="5">
         <f>IF(H12, 100*F12/H12, "")</f>
@@ -1330,29 +1351,26 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3">
         <v>42309</v>
       </c>
       <c r="F13" s="1">
-        <v>2.88</v>
+        <v>0.24</v>
       </c>
       <c r="H13" s="2">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="I13" s="5">
         <f>IF(H13, 100*F13/H13, "")</f>
-        <v>0.63436123348017626</v>
+        <v>0.24</v>
       </c>
       <c r="J13" s="5" t="str">
         <f>IF(G13, F13/G13, "")</f>
@@ -1361,57 +1379,60 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3">
         <v>42278</v>
       </c>
       <c r="F14" s="1">
-        <v>1.28</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5" t="str">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1800</v>
+      </c>
+      <c r="I14" s="5">
         <f>IF(H14, 100*F14/H14, "")</f>
-        <v/>
-      </c>
-      <c r="J14" s="5">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="J14" s="5" t="str">
         <f>IF(G14, F14/G14, "")</f>
-        <v>1.28</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E15" s="3">
         <v>42309</v>
       </c>
       <c r="F15" s="1">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="H15" s="2">
-        <v>1925</v>
+        <v>454</v>
       </c>
       <c r="I15" s="5">
         <f>IF(H15, 100*F15/H15, "")</f>
-        <v>0.17402597402597403</v>
+        <v>0.63436123348017626</v>
       </c>
       <c r="J15" s="5" t="str">
         <f>IF(G15, F15/G15, "")</f>
@@ -1420,53 +1441,53 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="3">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="F16" s="1">
-        <v>6</v>
-      </c>
-      <c r="G16" s="4">
-        <v>4</v>
-      </c>
-      <c r="I16" s="5" t="str">
+        <v>2.99</v>
+      </c>
+      <c r="H16" s="2">
+        <v>454</v>
+      </c>
+      <c r="I16" s="5">
         <f>IF(H16, 100*F16/H16, "")</f>
-        <v/>
-      </c>
-      <c r="J16" s="5">
+        <v>0.65859030837004406</v>
+      </c>
+      <c r="J16" s="5" t="str">
         <f>IF(G16, F16/G16, "")</f>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E17" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F17" s="1">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
@@ -1477,65 +1498,59 @@
       </c>
       <c r="J17" s="5">
         <f>IF(G17, F17/G17, "")</f>
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3">
         <v>42309</v>
       </c>
       <c r="F18" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5" t="str">
+        <v>3.35</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1925</v>
+      </c>
+      <c r="I18" s="5">
         <f>IF(H18, 100*F18/H18, "")</f>
-        <v/>
-      </c>
-      <c r="J18" s="5">
+        <v>0.17402597402597403</v>
+      </c>
+      <c r="J18" s="5" t="str">
         <f>IF(G18, F18/G18, "")</f>
-        <v>1.29</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F19" s="1">
-        <v>2.35</v>
+        <v>2.84</v>
       </c>
       <c r="H19" s="2">
-        <v>418</v>
+        <v>1000</v>
       </c>
       <c r="I19" s="5">
         <f>IF(H19, 100*F19/H19, "")</f>
-        <v>0.56220095693779903</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="J19" s="5" t="str">
         <f>IF(G19, F19/G19, "")</f>
@@ -1547,30 +1562,30 @@
         <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="E20" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F20" s="1">
-        <v>1.67</v>
-      </c>
-      <c r="H20" s="2">
-        <v>213</v>
-      </c>
-      <c r="I20" s="5">
+        <v>6</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4</v>
+      </c>
+      <c r="I20" s="5" t="str">
         <f>IF(H20, 100*F20/H20, "")</f>
-        <v>0.784037558685446</v>
-      </c>
-      <c r="J20" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J20" s="5">
         <f>IF(G20, F20/G20, "")</f>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1578,30 +1593,30 @@
         <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E21" s="3">
         <v>42309</v>
       </c>
       <c r="F21" s="1">
-        <v>9.49</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1276</v>
-      </c>
-      <c r="I21" s="5">
+        <v>1.29</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="str">
         <f>IF(H21, 100*F21/H21, "")</f>
-        <v>0.74373040752351094</v>
-      </c>
-      <c r="J21" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J21" s="5">
         <f>IF(G21, F21/G21, "")</f>
-        <v/>
+        <v>1.29</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1609,10 +1624,10 @@
         <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
         <v>104</v>
@@ -1621,18 +1636,18 @@
         <v>42309</v>
       </c>
       <c r="F22" s="1">
-        <v>2.77</v>
-      </c>
-      <c r="H22" s="2">
-        <v>213</v>
-      </c>
-      <c r="I22" s="5">
+        <v>1.29</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="str">
         <f>IF(H22, 100*F22/H22, "")</f>
-        <v>1.300469483568075</v>
-      </c>
-      <c r="J22" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J22" s="5">
         <f>IF(G22, F22/G22, "")</f>
-        <v/>
+        <v>1.29</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1640,26 +1655,26 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E23" s="3">
         <v>42309</v>
       </c>
       <c r="F23" s="1">
-        <v>11.69</v>
+        <v>2.35</v>
       </c>
       <c r="H23" s="2">
-        <v>850</v>
+        <v>418</v>
       </c>
       <c r="I23" s="5">
         <f>IF(H23, 100*F23/H23, "")</f>
-        <v>1.3752941176470588</v>
+        <v>0.56220095693779903</v>
       </c>
       <c r="J23" s="5" t="str">
         <f>IF(G23, F23/G23, "")</f>
@@ -1671,54 +1686,57 @@
         <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E24" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F24" s="1">
-        <v>1.39</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="5" t="str">
+        <v>1.67</v>
+      </c>
+      <c r="H24" s="2">
+        <v>213</v>
+      </c>
+      <c r="I24" s="5">
         <f>IF(H24, 100*F24/H24, "")</f>
-        <v/>
-      </c>
-      <c r="J24" s="5">
+        <v>0.784037558685446</v>
+      </c>
+      <c r="J24" s="5" t="str">
         <f>IF(G24, F24/G24, "")</f>
-        <v>1.39</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E25" s="3">
         <v>42309</v>
       </c>
       <c r="F25" s="1">
-        <v>1.05</v>
+        <v>9.49</v>
       </c>
       <c r="H25" s="2">
-        <v>370</v>
+        <v>1276</v>
       </c>
       <c r="I25" s="5">
         <f>IF(H25, 100*F25/H25, "")</f>
-        <v>0.28378378378378377</v>
+        <v>0.74373040752351094</v>
       </c>
       <c r="J25" s="5" t="str">
         <f>IF(G25, F25/G25, "")</f>
@@ -1727,57 +1745,60 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="E26" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F26" s="1">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
-      <c r="I26" s="5" t="str">
+        <v>2.77</v>
+      </c>
+      <c r="H26" s="2">
+        <v>213</v>
+      </c>
+      <c r="I26" s="5">
         <f>IF(H26, 100*F26/H26, "")</f>
-        <v/>
-      </c>
-      <c r="J26" s="5">
+        <v>1.300469483568075</v>
+      </c>
+      <c r="J26" s="5" t="str">
         <f>IF(G26, F26/G26, "")</f>
-        <v>2.4900000000000002</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E27" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F27" s="1">
-        <v>8.99</v>
+        <v>11.69</v>
       </c>
       <c r="H27" s="2">
-        <v>454</v>
+        <v>850</v>
       </c>
       <c r="I27" s="5">
         <f>IF(H27, 100*F27/H27, "")</f>
-        <v>1.9801762114537445</v>
+        <v>1.3752941176470588</v>
       </c>
       <c r="J27" s="5" t="str">
         <f>IF(G27, F27/G27, "")</f>
@@ -1786,54 +1807,57 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F28" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="H28" s="2">
-        <v>180</v>
-      </c>
-      <c r="I28" s="5">
+        <v>1.39</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="str">
         <f>IF(H28, 100*F28/H28, "")</f>
-        <v>4.3888888888888893</v>
-      </c>
-      <c r="J28" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J28" s="5">
         <f>IF(G28, F28/G28, "")</f>
-        <v/>
+        <v>1.39</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F29" s="1">
-        <v>3.99</v>
+        <v>1.05</v>
       </c>
       <c r="H29" s="2">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="I29" s="5">
         <f>IF(H29, 100*F29/H29, "")</f>
-        <v>3.99</v>
+        <v>0.28378378378378377</v>
       </c>
       <c r="J29" s="5" t="str">
         <f>IF(G29, F29/G29, "")</f>
@@ -1842,13 +1866,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -1857,18 +1878,18 @@
         <v>42278</v>
       </c>
       <c r="F30" s="1">
-        <v>2.99</v>
-      </c>
-      <c r="H30" s="2">
-        <v>100</v>
-      </c>
-      <c r="I30" s="5">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="str">
         <f>IF(H30, 100*F30/H30, "")</f>
-        <v>2.99</v>
-      </c>
-      <c r="J30" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J30" s="5">
         <f>IF(G30, F30/G30, "")</f>
-        <v/>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1876,7 +1897,10 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -1885,14 +1909,14 @@
         <v>42278</v>
       </c>
       <c r="F31" s="1">
-        <v>7.99</v>
+        <v>8.99</v>
       </c>
       <c r="H31" s="2">
         <v>454</v>
       </c>
       <c r="I31" s="5">
         <f>IF(H31, 100*F31/H31, "")</f>
-        <v>1.7599118942731278</v>
+        <v>1.9801762114537445</v>
       </c>
       <c r="J31" s="5" t="str">
         <f>IF(G31, F31/G31, "")</f>
@@ -1904,23 +1928,23 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F32" s="1">
-        <v>8.49</v>
+        <v>7.9</v>
       </c>
       <c r="H32" s="2">
-        <v>454</v>
+        <v>180</v>
       </c>
       <c r="I32" s="5">
         <f>IF(H32, 100*F32/H32, "")</f>
-        <v>1.8700440528634361</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="J32" s="5" t="str">
         <f>IF(G32, F32/G32, "")</f>
@@ -1932,7 +1956,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -1941,14 +1965,14 @@
         <v>42278</v>
       </c>
       <c r="F33" s="1">
-        <v>4.29</v>
+        <v>3.99</v>
       </c>
       <c r="H33" s="2">
         <v>100</v>
       </c>
       <c r="I33" s="5">
         <f>IF(H33, 100*F33/H33, "")</f>
-        <v>4.29</v>
+        <v>3.99</v>
       </c>
       <c r="J33" s="5" t="str">
         <f>IF(G33, F33/G33, "")</f>
@@ -1960,23 +1984,26 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F34" s="1">
-        <v>8.7899999999999991</v>
+        <v>2.99</v>
       </c>
       <c r="H34" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I34" s="5">
         <f>IF(H34, 100*F34/H34, "")</f>
-        <v>4.3949999999999996</v>
+        <v>2.99</v>
       </c>
       <c r="J34" s="5" t="str">
         <f>IF(G34, F34/G34, "")</f>
@@ -1985,88 +2012,82 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="E35" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F35" s="1">
-        <v>5.97</v>
-      </c>
-      <c r="G35" s="4">
-        <v>1</v>
-      </c>
-      <c r="I35" s="5" t="str">
+        <v>7.99</v>
+      </c>
+      <c r="H35" s="2">
+        <v>454</v>
+      </c>
+      <c r="I35" s="5">
         <f>IF(H35, 100*F35/H35, "")</f>
-        <v/>
-      </c>
-      <c r="J35" s="5">
+        <v>1.7599118942731278</v>
+      </c>
+      <c r="J35" s="5" t="str">
         <f>IF(G35, F35/G35, "")</f>
-        <v>5.97</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F36" s="1">
-        <v>8.99</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
-      <c r="I36" s="5" t="str">
+        <v>8.49</v>
+      </c>
+      <c r="H36" s="2">
+        <v>454</v>
+      </c>
+      <c r="I36" s="5">
         <f>IF(H36, 100*F36/H36, "")</f>
-        <v/>
-      </c>
-      <c r="J36" s="5">
+        <v>1.8700440528634361</v>
+      </c>
+      <c r="J36" s="5" t="str">
         <f>IF(G36, F36/G36, "")</f>
-        <v>8.99</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E37" s="3">
         <v>42278</v>
       </c>
       <c r="F37" s="1">
-        <v>2.25</v>
+        <v>4.29</v>
       </c>
       <c r="H37" s="2">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="I37" s="5">
         <f>IF(H37, 100*F37/H37, "")</f>
-        <v>0.1125</v>
+        <v>4.29</v>
       </c>
       <c r="J37" s="5" t="str">
         <f>IF(G37, F37/G37, "")</f>
@@ -2075,29 +2096,26 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F38" s="1">
-        <v>2.2599999999999998</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="H38" s="2">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="I38" s="5">
         <f>IF(H38, 100*F38/H38, "")</f>
-        <v>5.6499999999999995E-2</v>
+        <v>4.3949999999999996</v>
       </c>
       <c r="J38" s="5" t="str">
         <f>IF(G38, F38/G38, "")</f>
@@ -2106,25 +2124,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E39" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F39" s="1">
-        <v>2.99</v>
+        <v>5.97</v>
       </c>
       <c r="G39" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I39" s="5" t="str">
         <f>IF(H39, 100*F39/H39, "")</f>
@@ -2132,62 +2147,65 @@
       </c>
       <c r="J39" s="5">
         <f>IF(G39, F39/G39, "")</f>
-        <v>0.49833333333333335</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E40" s="3">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="F40" s="1">
-        <v>2.99</v>
-      </c>
-      <c r="G40" s="4">
-        <v>6</v>
-      </c>
-      <c r="I40" s="5" t="str">
+        <v>12.99</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1361</v>
+      </c>
+      <c r="I40" s="5">
         <f>IF(H40, 100*F40/H40, "")</f>
-        <v/>
-      </c>
-      <c r="J40" s="5">
+        <v>0.95444526083761938</v>
+      </c>
+      <c r="J40" s="5" t="str">
         <f>IF(G40, F40/G40, "")</f>
-        <v>0.49833333333333335</v>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E41" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F41" s="1">
-        <v>18.989999999999998</v>
+        <v>8.99</v>
       </c>
       <c r="H41" s="2">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="I41" s="5">
         <f>IF(H41, 100*F41/H41, "")</f>
-        <v>1.8989999999999998</v>
+        <v>1.0274285714285714</v>
       </c>
       <c r="J41" s="5" t="str">
         <f>IF(G41, F41/G41, "")</f>
@@ -2196,57 +2214,60 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E42" s="3">
         <v>42309</v>
       </c>
       <c r="F42" s="1">
-        <v>17.989999999999998</v>
-      </c>
-      <c r="H42" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I42" s="5">
+        <v>8.99</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5" t="str">
         <f>IF(H42, 100*F42/H42, "")</f>
-        <v>1.7989999999999997</v>
-      </c>
-      <c r="J42" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J42" s="5">
         <f>IF(G42, F42/G42, "")</f>
-        <v/>
+        <v>8.99</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E43" s="3">
         <v>42278</v>
       </c>
       <c r="F43" s="1">
-        <v>12.99</v>
+        <v>2.25</v>
       </c>
       <c r="H43" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I43" s="5">
         <f>IF(H43, 100*F43/H43, "")</f>
-        <v>1.2989999999999999</v>
+        <v>0.1125</v>
       </c>
       <c r="J43" s="5" t="str">
         <f>IF(G43, F43/G43, "")</f>
@@ -2255,29 +2276,29 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E44" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F44" s="1">
-        <v>15.99</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H44" s="2">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I44" s="5">
         <f>IF(H44, 100*F44/H44, "")</f>
-        <v>1.599</v>
+        <v>5.6499999999999995E-2</v>
       </c>
       <c r="J44" s="5" t="str">
         <f>IF(G44, F44/G44, "")</f>
@@ -2286,88 +2307,88 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="E45" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F45" s="1">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="H45" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I45" s="5">
+        <v>2.99</v>
+      </c>
+      <c r="G45" s="4">
+        <v>6</v>
+      </c>
+      <c r="I45" s="5" t="str">
         <f>IF(H45, 100*F45/H45, "")</f>
-        <v>1.9989999999999997</v>
-      </c>
-      <c r="J45" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J45" s="5">
         <f>IF(G45, F45/G45, "")</f>
-        <v/>
+        <v>0.49833333333333335</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E46" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F46" s="1">
-        <v>16.29</v>
-      </c>
-      <c r="H46" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I46" s="5">
+        <v>2.99</v>
+      </c>
+      <c r="G46" s="4">
+        <v>6</v>
+      </c>
+      <c r="I46" s="5" t="str">
         <f>IF(H46, 100*F46/H46, "")</f>
-        <v>1.629</v>
-      </c>
-      <c r="J46" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J46" s="5">
         <f>IF(G46, F46/G46, "")</f>
-        <v/>
+        <v>0.49833333333333335</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>131</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E47" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F47" s="1">
-        <v>4.25</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="H47" s="2">
-        <v>495</v>
+        <v>1000</v>
       </c>
       <c r="I47" s="5">
         <f>IF(H47, 100*F47/H47, "")</f>
-        <v>0.85858585858585856</v>
+        <v>1.8989999999999998</v>
       </c>
       <c r="J47" s="5" t="str">
         <f>IF(G47, F47/G47, "")</f>
@@ -2376,57 +2397,57 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E48" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F48" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="G48" s="4">
-        <v>3</v>
-      </c>
-      <c r="I48" s="5" t="str">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I48" s="5">
         <f>IF(H48, 100*F48/H48, "")</f>
-        <v/>
-      </c>
-      <c r="J48" s="5">
+        <v>1.7989999999999997</v>
+      </c>
+      <c r="J48" s="5" t="str">
         <f>IF(G48, F48/G48, "")</f>
-        <v>0.33</v>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E49" s="3">
         <v>42278</v>
       </c>
       <c r="F49" s="1">
-        <v>0.89</v>
+        <v>12.99</v>
       </c>
       <c r="H49" s="2">
-        <v>135</v>
+        <v>1000</v>
       </c>
       <c r="I49" s="5">
         <f>IF(H49, 100*F49/H49, "")</f>
-        <v>0.65925925925925921</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="J49" s="5" t="str">
         <f>IF(G49, F49/G49, "")</f>
@@ -2435,29 +2456,29 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="E50" s="3">
         <v>42309</v>
       </c>
       <c r="F50" s="1">
-        <v>2.69</v>
+        <v>15.99</v>
       </c>
       <c r="H50" s="2">
-        <v>454</v>
+        <v>1000</v>
       </c>
       <c r="I50" s="5">
         <f>IF(H50, 100*F50/H50, "")</f>
-        <v>0.59251101321585908</v>
+        <v>1.599</v>
       </c>
       <c r="J50" s="5" t="str">
         <f>IF(G50, F50/G50, "")</f>
@@ -2466,26 +2487,29 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>132</v>
+      </c>
+      <c r="C51" t="s">
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E51" s="3">
         <v>42309</v>
       </c>
       <c r="F51" s="1">
-        <v>1.54</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="H51" s="2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I51" s="5">
         <f>IF(H51, 100*F51/H51, "")</f>
-        <v>0.77</v>
+        <v>1.9989999999999997</v>
       </c>
       <c r="J51" s="5" t="str">
         <f>IF(G51, F51/G51, "")</f>
@@ -2494,26 +2518,29 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>129</v>
+      </c>
+      <c r="C52" t="s">
+        <v>128</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E52" s="3">
         <v>42309</v>
       </c>
       <c r="F52" s="1">
-        <v>3.99</v>
+        <v>16.29</v>
       </c>
       <c r="H52" s="2">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I52" s="5">
         <f>IF(H52, 100*F52/H52, "")</f>
-        <v>0.44333333333333336</v>
+        <v>1.629</v>
       </c>
       <c r="J52" s="5" t="str">
         <f>IF(G52, F52/G52, "")</f>
@@ -2522,26 +2549,26 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
         <v>48</v>
       </c>
       <c r="E53" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F53" s="1">
-        <v>1.74</v>
+        <v>4.25</v>
       </c>
       <c r="H53" s="2">
-        <v>100</v>
+        <v>495</v>
       </c>
       <c r="I53" s="5">
         <f>IF(H53, 100*F53/H53, "")</f>
-        <v>1.74</v>
+        <v>0.85858585858585856</v>
       </c>
       <c r="J53" s="5" t="str">
         <f>IF(G53, F53/G53, "")</f>
@@ -2550,57 +2577,57 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E54" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F54" s="1">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="H54" s="2">
-        <v>115</v>
-      </c>
-      <c r="I54" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="G54" s="4">
+        <v>3</v>
+      </c>
+      <c r="I54" s="5" t="str">
         <f>IF(H54, 100*F54/H54, "")</f>
-        <v>2.1304347826086958</v>
-      </c>
-      <c r="J54" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J54" s="5">
         <f>IF(G54, F54/G54, "")</f>
-        <v/>
+        <v>0.33</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="E55" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F55" s="1">
-        <v>7.79</v>
+        <v>0.89</v>
       </c>
       <c r="H55" s="2">
-        <v>280</v>
+        <v>135</v>
       </c>
       <c r="I55" s="5">
         <f>IF(H55, 100*F55/H55, "")</f>
-        <v>2.782142857142857</v>
+        <v>0.65925925925925921</v>
       </c>
       <c r="J55" s="5" t="str">
         <f>IF(G55, F55/G55, "")</f>
@@ -2612,26 +2639,26 @@
         <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D56" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="E56" s="3">
         <v>42309</v>
       </c>
       <c r="F56" s="1">
-        <v>9.99</v>
+        <v>2.69</v>
       </c>
       <c r="H56" s="2">
-        <v>907</v>
+        <v>454</v>
       </c>
       <c r="I56" s="5">
         <f>IF(H56, 100*F56/H56, "")</f>
-        <v>1.101433296582139</v>
+        <v>0.59251101321585908</v>
       </c>
       <c r="J56" s="5" t="str">
         <f>IF(G56, F56/G56, "")</f>
@@ -2643,26 +2670,23 @@
         <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="D57" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E57" s="3">
         <v>42309</v>
       </c>
       <c r="F57" s="1">
-        <v>13.99</v>
+        <v>1.54</v>
       </c>
       <c r="H57" s="2">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="I57" s="5">
         <f>IF(H57, 100*F57/H57, "")</f>
-        <v>1.74875</v>
+        <v>0.77</v>
       </c>
       <c r="J57" s="5" t="str">
         <f>IF(G57, F57/G57, "")</f>
@@ -2674,23 +2698,23 @@
         <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="E58" s="3">
         <v>42309</v>
       </c>
       <c r="F58" s="1">
-        <v>0.41</v>
+        <v>3.99</v>
       </c>
       <c r="H58" s="2">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="I58" s="5">
         <f>IF(H58, 100*F58/H58, "")</f>
-        <v>0.41</v>
+        <v>0.44333333333333336</v>
       </c>
       <c r="J58" s="5" t="str">
         <f>IF(G58, F58/G58, "")</f>
@@ -2702,26 +2726,23 @@
         <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E59" s="3">
         <v>42309</v>
       </c>
       <c r="F59" s="1">
-        <v>2.99</v>
+        <v>1.74</v>
       </c>
       <c r="H59" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I59" s="5">
         <f>IF(H59, 100*F59/H59, "")</f>
-        <v>0.74750000000000005</v>
+        <v>1.74</v>
       </c>
       <c r="J59" s="5" t="str">
         <f>IF(G59, F59/G59, "")</f>
@@ -2733,26 +2754,23 @@
         <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="E60" s="3">
         <v>42309</v>
       </c>
       <c r="F60" s="1">
-        <v>2.69</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H60" s="2">
-        <v>454</v>
+        <v>115</v>
       </c>
       <c r="I60" s="5">
         <f>IF(H60, 100*F60/H60, "")</f>
-        <v>0.59251101321585908</v>
+        <v>2.1304347826086958</v>
       </c>
       <c r="J60" s="5" t="str">
         <f>IF(G60, F60/G60, "")</f>
@@ -2764,23 +2782,26 @@
         <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>90</v>
+      </c>
+      <c r="C61" t="s">
+        <v>112</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E61" s="3">
         <v>42309</v>
       </c>
       <c r="F61" s="1">
-        <v>7.99</v>
+        <v>7.79</v>
       </c>
       <c r="H61" s="2">
-        <v>1816</v>
+        <v>280</v>
       </c>
       <c r="I61" s="5">
         <f>IF(H61, 100*F61/H61, "")</f>
-        <v>0.43997797356828194</v>
+        <v>2.782142857142857</v>
       </c>
       <c r="J61" s="5" t="str">
         <f>IF(G61, F61/G61, "")</f>
@@ -2792,26 +2813,26 @@
         <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="E62" s="3">
         <v>42309</v>
       </c>
       <c r="F62" s="1">
-        <v>3.77</v>
+        <v>9.99</v>
       </c>
       <c r="H62" s="2">
-        <v>793</v>
+        <v>907</v>
       </c>
       <c r="I62" s="5">
         <f>IF(H62, 100*F62/H62, "")</f>
-        <v>0.47540983606557374</v>
+        <v>1.101433296582139</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>IF(G62, F62/G62, "")</f>
@@ -2823,26 +2844,26 @@
         <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="E63" s="3">
         <v>42309</v>
       </c>
       <c r="F63" s="1">
-        <v>7.69</v>
+        <v>13.99</v>
       </c>
       <c r="H63" s="2">
-        <v>907</v>
+        <v>800</v>
       </c>
       <c r="I63" s="5">
         <f>IF(H63, 100*F63/H63, "")</f>
-        <v>0.84785005512679157</v>
+        <v>1.74875</v>
       </c>
       <c r="J63" s="5" t="str">
         <f>IF(G63, F63/G63, "")</f>
@@ -2854,23 +2875,23 @@
         <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="E64" s="3">
         <v>42309</v>
       </c>
       <c r="F64" s="1">
-        <v>4.99</v>
+        <v>0.41</v>
       </c>
       <c r="H64" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I64" s="5">
         <f>IF(H64, 100*F64/H64, "")</f>
-        <v>1.2475000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>IF(G64, F64/G64, "")</f>
@@ -2882,26 +2903,26 @@
         <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
       </c>
       <c r="E65" s="3">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="F65" s="1">
-        <v>9.99</v>
+        <v>2.99</v>
       </c>
       <c r="H65" s="2">
-        <v>907</v>
+        <v>400</v>
       </c>
       <c r="I65" s="5">
         <f>IF(H65, 100*F65/H65, "")</f>
-        <v>1.101433296582139</v>
+        <v>0.74750000000000005</v>
       </c>
       <c r="J65" s="5" t="str">
         <f>IF(G65, F65/G65, "")</f>
@@ -2913,23 +2934,26 @@
         <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>123</v>
+      </c>
+      <c r="C66" t="s">
+        <v>121</v>
       </c>
       <c r="D66" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="E66" s="3">
         <v>42309</v>
       </c>
       <c r="F66" s="1">
-        <v>2.73</v>
+        <v>2.69</v>
       </c>
       <c r="H66" s="2">
-        <v>185</v>
+        <v>454</v>
       </c>
       <c r="I66" s="5">
         <f>IF(H66, 100*F66/H66, "")</f>
-        <v>1.4756756756756757</v>
+        <v>0.59251101321585908</v>
       </c>
       <c r="J66" s="5" t="str">
         <f>IF(G66, F66/G66, "")</f>
@@ -2938,26 +2962,26 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="E67" s="3">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="F67" s="1">
-        <v>0.56999999999999995</v>
+        <v>7.99</v>
       </c>
       <c r="H67" s="2">
-        <v>100</v>
+        <v>1816</v>
       </c>
       <c r="I67" s="5">
         <f>IF(H67, 100*F67/H67, "")</f>
-        <v>0.56999999999999995</v>
+        <v>0.43997797356828194</v>
       </c>
       <c r="J67" s="5" t="str">
         <f>IF(G67, F67/G67, "")</f>
@@ -2966,26 +2990,29 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>123</v>
+      </c>
+      <c r="C68" t="s">
+        <v>146</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="E68" s="3">
         <v>42309</v>
       </c>
       <c r="F68" s="1">
-        <v>22.02</v>
+        <v>3.77</v>
       </c>
       <c r="H68" s="2">
-        <v>1000</v>
+        <v>793</v>
       </c>
       <c r="I68" s="5">
         <f>IF(H68, 100*F68/H68, "")</f>
-        <v>2.202</v>
+        <v>0.47540983606557374</v>
       </c>
       <c r="J68" s="5" t="str">
         <f>IF(G68, F68/G68, "")</f>
@@ -2994,26 +3021,29 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>113</v>
+      </c>
+      <c r="C69" t="s">
+        <v>114</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="E69" s="3">
         <v>42309</v>
       </c>
       <c r="F69" s="1">
-        <v>9.7899999999999991</v>
+        <v>7.69</v>
       </c>
       <c r="H69" s="2">
-        <v>1000</v>
+        <v>907</v>
       </c>
       <c r="I69" s="5">
         <f>IF(H69, 100*F69/H69, "")</f>
-        <v>0.97899999999999987</v>
+        <v>0.84785005512679157</v>
       </c>
       <c r="J69" s="5" t="str">
         <f>IF(G69, F69/G69, "")</f>
@@ -3022,29 +3052,26 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E70" s="3">
         <v>42309</v>
       </c>
       <c r="F70" s="1">
-        <v>7.99</v>
+        <v>4.99</v>
       </c>
       <c r="H70" s="2">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="I70" s="5">
         <f>IF(H70, 100*F70/H70, "")</f>
-        <v>0.79900000000000004</v>
+        <v>1.2475000000000001</v>
       </c>
       <c r="J70" s="5" t="str">
         <f>IF(G70, F70/G70, "")</f>
@@ -3053,29 +3080,29 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D71" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E71" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F71" s="1">
-        <v>5.69</v>
+        <v>9.99</v>
       </c>
       <c r="H71" s="2">
-        <v>1000</v>
+        <v>907</v>
       </c>
       <c r="I71" s="5">
         <f>IF(H71, 100*F71/H71, "")</f>
-        <v>0.56899999999999995</v>
+        <v>1.101433296582139</v>
       </c>
       <c r="J71" s="5" t="str">
         <f>IF(G71, F71/G71, "")</f>
@@ -3084,29 +3111,26 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="D72" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E72" s="3">
         <v>42309</v>
       </c>
       <c r="F72" s="1">
-        <v>11.69</v>
+        <v>2.73</v>
       </c>
       <c r="H72" s="2">
-        <v>1000</v>
+        <v>185</v>
       </c>
       <c r="I72" s="5">
         <f>IF(H72, 100*F72/H72, "")</f>
-        <v>1.169</v>
+        <v>1.4756756756756757</v>
       </c>
       <c r="J72" s="5" t="str">
         <f>IF(G72, F72/G72, "")</f>
@@ -3115,26 +3139,26 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="D73" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E73" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F73" s="1">
-        <v>3.24</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H73" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I73" s="5">
         <f>IF(H73, 100*F73/H73, "")</f>
-        <v>0.32400000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>IF(G73, F73/G73, "")</f>
@@ -3146,23 +3170,23 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F74" s="1">
-        <v>8.8000000000000007</v>
+        <v>22.02</v>
       </c>
       <c r="H74" s="2">
         <v>1000</v>
       </c>
       <c r="I74" s="5">
         <f>IF(H74, 100*F74/H74, "")</f>
-        <v>0.88000000000000012</v>
+        <v>2.202</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>IF(G74, F74/G74, "")</f>
@@ -3174,7 +3198,7 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -3183,14 +3207,14 @@
         <v>42309</v>
       </c>
       <c r="F75" s="1">
-        <v>1.1000000000000001</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="H75" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I75" s="5">
         <f>IF(H75, 100*F75/H75, "")</f>
-        <v>1.1000000000000001</v>
+        <v>0.97899999999999987</v>
       </c>
       <c r="J75" s="5" t="str">
         <f>IF(G75, F75/G75, "")</f>
@@ -3202,7 +3226,7 @@
         <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
         <v>128</v>
@@ -3214,14 +3238,14 @@
         <v>42309</v>
       </c>
       <c r="F76" s="1">
-        <v>4.99</v>
+        <v>7.99</v>
       </c>
       <c r="H76" s="2">
         <v>1000</v>
       </c>
       <c r="I76" s="5">
         <f>IF(H76, 100*F76/H76, "")</f>
-        <v>0.499</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>IF(G76, F76/G76, "")</f>
@@ -3233,23 +3257,26 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>135</v>
+      </c>
+      <c r="C77" t="s">
+        <v>128</v>
       </c>
       <c r="D77" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="E77" s="3">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="F77" s="1">
-        <v>11.07</v>
+        <v>5.69</v>
       </c>
       <c r="H77" s="2">
-        <v>2016</v>
+        <v>1000</v>
       </c>
       <c r="I77" s="5">
         <f>IF(H77, 100*F77/H77, "")</f>
-        <v>0.5491071428571429</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="J77" s="5" t="str">
         <f>IF(G77, F77/G77, "")</f>
@@ -3261,23 +3288,26 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>133</v>
+      </c>
+      <c r="C78" t="s">
+        <v>128</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E78" s="3">
         <v>42309</v>
       </c>
       <c r="F78" s="1">
-        <v>17.649999999999999</v>
+        <v>11.69</v>
       </c>
       <c r="H78" s="2">
         <v>1000</v>
       </c>
       <c r="I78" s="5">
         <f>IF(H78, 100*F78/H78, "")</f>
-        <v>1.7649999999999997</v>
+        <v>1.169</v>
       </c>
       <c r="J78" s="5" t="str">
         <f>IF(G78, F78/G78, "")</f>
@@ -3289,26 +3319,23 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
-      </c>
-      <c r="C79" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="D79" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E79" s="3">
         <v>42309</v>
       </c>
       <c r="F79" s="1">
-        <v>9.89</v>
+        <v>3.24</v>
       </c>
       <c r="H79" s="2">
         <v>1000</v>
       </c>
       <c r="I79" s="5">
         <f>IF(H79, 100*F79/H79, "")</f>
-        <v>0.98899999999999999</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="J79" s="5" t="str">
         <f>IF(G79, F79/G79, "")</f>
@@ -3317,13 +3344,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
-      </c>
-      <c r="C80" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -3332,14 +3356,14 @@
         <v>42278</v>
       </c>
       <c r="F80" s="1">
-        <v>4.99</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H80" s="2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="I80" s="5">
         <f>IF(H80, 100*F80/H80, "")</f>
-        <v>0.16633333333333333</v>
+        <v>0.88000000000000012</v>
       </c>
       <c r="J80" s="5" t="str">
         <f>IF(G80, F80/G80, "")</f>
@@ -3348,26 +3372,26 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F81" s="1">
-        <v>4.97</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H81" s="2">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="I81" s="5">
         <f>IF(H81, 100*F81/H81, "")</f>
-        <v>0.12425</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J81" s="5" t="str">
         <f>IF(G81, F81/G81, "")</f>
@@ -3376,26 +3400,29 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>82</v>
+      </c>
+      <c r="C82" t="s">
+        <v>128</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E82" s="3">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="F82" s="1">
-        <v>1.23</v>
+        <v>4.99</v>
       </c>
       <c r="H82" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I82" s="5">
         <f>IF(H82, 100*F82/H82, "")</f>
-        <v>1.23</v>
+        <v>0.499</v>
       </c>
       <c r="J82" s="5" t="str">
         <f>IF(G82, F82/G82, "")</f>
@@ -3404,26 +3431,26 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="E83" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F83" s="1">
-        <v>2.29</v>
+        <v>11.07</v>
       </c>
       <c r="H83" s="2">
-        <v>100</v>
+        <v>2016</v>
       </c>
       <c r="I83" s="5">
         <f>IF(H83, 100*F83/H83, "")</f>
-        <v>2.29</v>
+        <v>0.5491071428571429</v>
       </c>
       <c r="J83" s="5" t="str">
         <f>IF(G83, F83/G83, "")</f>
@@ -3432,26 +3459,26 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="D84" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E84" s="3">
         <v>42309</v>
       </c>
       <c r="F84" s="1">
-        <v>3.1</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="H84" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I84" s="5">
         <f>IF(H84, 100*F84/H84, "")</f>
-        <v>3.1</v>
+        <v>1.7649999999999997</v>
       </c>
       <c r="J84" s="5" t="str">
         <f>IF(G84, F84/G84, "")</f>
@@ -3460,29 +3487,29 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E85" s="3">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="F85" s="1">
-        <v>3.14</v>
+        <v>9.89</v>
       </c>
       <c r="H85" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I85" s="5">
         <f>IF(H85, 100*F85/H85, "")</f>
-        <v>3.14</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="J85" s="5" t="str">
         <f>IF(G85, F85/G85, "")</f>
@@ -3491,41 +3518,41 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="3">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="F86" s="1">
-        <v>1.34</v>
-      </c>
-      <c r="G86" s="4">
-        <v>2</v>
-      </c>
-      <c r="I86" s="5" t="str">
+        <v>5.95</v>
+      </c>
+      <c r="H86" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I86" s="5">
         <f>IF(H86, 100*F86/H86, "")</f>
-        <v/>
-      </c>
-      <c r="J86" s="5">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="J86" s="5" t="str">
         <f>IF(G86, F86/G86, "")</f>
-        <v>0.67</v>
+        <v/>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C87" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
@@ -3534,14 +3561,14 @@
         <v>42278</v>
       </c>
       <c r="F87" s="1">
-        <v>2.5</v>
+        <v>4.99</v>
       </c>
       <c r="H87" s="2">
-        <v>1360</v>
+        <v>3000</v>
       </c>
       <c r="I87" s="5">
         <f>IF(H87, 100*F87/H87, "")</f>
-        <v>0.18382352941176472</v>
+        <v>0.16633333333333333</v>
       </c>
       <c r="J87" s="5" t="str">
         <f>IF(G87, F87/G87, "")</f>
@@ -3550,26 +3577,26 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
       </c>
       <c r="E88" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F88" s="1">
-        <v>2</v>
+        <v>4.97</v>
       </c>
       <c r="H88" s="2">
-        <v>4536</v>
+        <v>4000</v>
       </c>
       <c r="I88" s="5">
         <f>IF(H88, 100*F88/H88, "")</f>
-        <v>4.4091710758377423E-2</v>
+        <v>0.12425</v>
       </c>
       <c r="J88" s="5" t="str">
         <f>IF(G88, F88/G88, "")</f>
@@ -3578,23 +3605,26 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>162</v>
+      </c>
+      <c r="B89" t="s">
+        <v>163</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E89" s="3">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="F89" s="1">
-        <v>4.3899999999999997</v>
+        <v>1.23</v>
       </c>
       <c r="H89" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I89" s="5">
         <f>IF(H89, 100*F89/H89, "")</f>
-        <v>0.43899999999999995</v>
+        <v>1.23</v>
       </c>
       <c r="J89" s="5" t="str">
         <f>IF(G89, F89/G89, "")</f>
@@ -3603,54 +3633,54 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="B90" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="D90" t="s">
         <v>26</v>
       </c>
       <c r="E90" s="3">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="F90" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="G90" s="4">
-        <v>1</v>
-      </c>
-      <c r="I90" s="5" t="str">
+        <v>1.59</v>
+      </c>
+      <c r="H90" s="2">
+        <v>500</v>
+      </c>
+      <c r="I90" s="5">
         <f>IF(H90, 100*F90/H90, "")</f>
-        <v/>
-      </c>
-      <c r="J90" s="5">
+        <v>0.318</v>
+      </c>
+      <c r="J90" s="5" t="str">
         <f>IF(G90, F90/G90, "")</f>
-        <v>2.88</v>
+        <v/>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
       </c>
       <c r="E91" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F91" s="1">
-        <v>4</v>
+        <v>2.29</v>
       </c>
       <c r="H91" s="2">
-        <v>9072</v>
+        <v>100</v>
       </c>
       <c r="I91" s="5">
         <f>IF(H91, 100*F91/H91, "")</f>
-        <v>4.4091710758377423E-2</v>
+        <v>2.29</v>
       </c>
       <c r="J91" s="5" t="str">
         <f>IF(G91, F91/G91, "")</f>
@@ -3659,26 +3689,26 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E92" s="3">
         <v>42309</v>
       </c>
       <c r="F92" s="1">
-        <v>1.29</v>
+        <v>3.1</v>
       </c>
       <c r="H92" s="2">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="I92" s="5">
         <f>IF(H92, 100*F92/H92, "")</f>
-        <v>0.28414096916299558</v>
+        <v>3.1</v>
       </c>
       <c r="J92" s="5" t="str">
         <f>IF(G92, F92/G92, "")</f>
@@ -3687,26 +3717,29 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B93" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="C93" t="s">
+        <v>170</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E93" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F93" s="1">
-        <v>1.29</v>
+        <v>3.14</v>
       </c>
       <c r="H93" s="2">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="I93" s="5">
         <f>IF(H93, 100*F93/H93, "")</f>
-        <v>0.28414096916299558</v>
+        <v>3.14</v>
       </c>
       <c r="J93" s="5" t="str">
         <f>IF(G93, F93/G93, "")</f>
@@ -3715,60 +3748,57 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D94" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E94" s="3">
         <v>42278</v>
       </c>
       <c r="F94" s="1">
-        <v>8.99</v>
-      </c>
-      <c r="H94" s="2">
-        <v>1860</v>
-      </c>
-      <c r="I94" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="G94" s="4">
+        <v>2</v>
+      </c>
+      <c r="I94" s="5" t="str">
         <f>IF(H94, 100*F94/H94, "")</f>
-        <v>0.48333333333333334</v>
-      </c>
-      <c r="J94" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J94" s="5">
         <f>IF(G94, F94/G94, "")</f>
-        <v/>
+        <v>0.67</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="C95" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="D95" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="E95" s="3">
-        <v>42339</v>
+        <v>42278</v>
       </c>
       <c r="F95" s="1">
-        <v>9.99</v>
+        <v>2.5</v>
       </c>
       <c r="H95" s="2">
-        <v>2000</v>
+        <v>1360</v>
       </c>
       <c r="I95" s="5">
         <f>IF(H95, 100*F95/H95, "")</f>
-        <v>0.4995</v>
+        <v>0.18382352941176472</v>
       </c>
       <c r="J95" s="5" t="str">
         <f>IF(G95, F95/G95, "")</f>
@@ -3777,29 +3807,26 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D96" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E96" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F96" s="1">
-        <v>16.989999999999998</v>
+        <v>2</v>
       </c>
       <c r="H96" s="2">
-        <v>6804</v>
+        <v>4536</v>
       </c>
       <c r="I96" s="5">
         <f>IF(H96, 100*F96/H96, "")</f>
-        <v>0.24970605526161077</v>
+        <v>4.4091710758377423E-2</v>
       </c>
       <c r="J96" s="5" t="str">
         <f>IF(G96, F96/G96, "")</f>
@@ -3808,13 +3835,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
@@ -3823,14 +3844,14 @@
         <v>42278</v>
       </c>
       <c r="F97" s="1">
-        <v>4.99</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="H97" s="2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I97" s="5">
         <f>IF(H97, 100*F97/H97, "")</f>
-        <v>0.2495</v>
+        <v>0.43899999999999995</v>
       </c>
       <c r="J97" s="5" t="str">
         <f>IF(G97, F97/G97, "")</f>
@@ -3839,60 +3860,54 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D98" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="E98" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F98" s="1">
-        <v>12.99</v>
-      </c>
-      <c r="H98" s="2">
-        <v>6804</v>
-      </c>
-      <c r="I98" s="5">
+        <v>2.88</v>
+      </c>
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
+      <c r="I98" s="5" t="str">
         <f>IF(H98, 100*F98/H98, "")</f>
-        <v>0.19091710758377425</v>
-      </c>
-      <c r="J98" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J98" s="5">
         <f>IF(G98, F98/G98, "")</f>
-        <v/>
+        <v>2.88</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D99" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="E99" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F99" s="1">
-        <v>13.98</v>
+        <v>4</v>
       </c>
       <c r="H99" s="2">
-        <v>8000</v>
+        <v>9072</v>
       </c>
       <c r="I99" s="5">
         <f>IF(H99, 100*F99/H99, "")</f>
-        <v>0.17474999999999999</v>
+        <v>4.4091710758377423E-2</v>
       </c>
       <c r="J99" s="5" t="str">
         <f>IF(G99, F99/G99, "")</f>
@@ -3901,29 +3916,26 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B100" t="s">
-        <v>126</v>
-      </c>
-      <c r="C100" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E100" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F100" s="1">
-        <v>4.3899999999999997</v>
+        <v>1.88</v>
       </c>
       <c r="H100" s="2">
-        <v>2000</v>
+        <v>4536</v>
       </c>
       <c r="I100" s="5">
         <f>IF(H100, 100*F100/H100, "")</f>
-        <v>0.21949999999999997</v>
+        <v>4.1446208112874777E-2</v>
       </c>
       <c r="J100" s="5" t="str">
         <f>IF(G100, F100/G100, "")</f>
@@ -3932,29 +3944,26 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="B101" t="s">
-        <v>126</v>
-      </c>
-      <c r="C101" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E101" s="3">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="F101" s="1">
-        <v>5.99</v>
+        <v>1.29</v>
       </c>
       <c r="H101" s="2">
-        <v>2000</v>
+        <v>454</v>
       </c>
       <c r="I101" s="5">
         <f>IF(H101, 100*F101/H101, "")</f>
-        <v>0.29949999999999999</v>
+        <v>0.28414096916299558</v>
       </c>
       <c r="J101" s="5" t="str">
         <f>IF(G101, F101/G101, "")</f>
@@ -3963,29 +3972,26 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="B102" t="s">
-        <v>126</v>
-      </c>
-      <c r="C102" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D102" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E102" s="3">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="F102" s="1">
-        <v>6.99</v>
+        <v>1.29</v>
       </c>
       <c r="H102" s="2">
-        <v>2000</v>
+        <v>454</v>
       </c>
       <c r="I102" s="5">
         <f>IF(H102, 100*F102/H102, "")</f>
-        <v>0.34949999999999998</v>
+        <v>0.28414096916299558</v>
       </c>
       <c r="J102" s="5" t="str">
         <f>IF(G102, F102/G102, "")</f>
@@ -3994,29 +4000,26 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="B103" t="s">
-        <v>59</v>
-      </c>
-      <c r="C103" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="D103" t="s">
         <v>26</v>
       </c>
       <c r="E103" s="3">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="F103" s="1">
-        <v>2.79</v>
+        <v>0.33</v>
       </c>
       <c r="H103" s="2">
-        <v>296</v>
+        <v>100</v>
       </c>
       <c r="I103" s="5">
         <f>IF(H103, 100*F103/H103, "")</f>
-        <v>0.94256756756756754</v>
+        <v>0.33</v>
       </c>
       <c r="J103" s="5" t="str">
         <f>IF(G103, F103/G103, "")</f>
@@ -4025,29 +4028,29 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E104" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F104" s="1">
-        <v>3.99</v>
+        <v>8.99</v>
       </c>
       <c r="H104" s="2">
-        <v>710</v>
+        <v>1860</v>
       </c>
       <c r="I104" s="5">
         <f>IF(H104, 100*F104/H104, "")</f>
-        <v>0.56197183098591552</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="J104" s="5" t="str">
         <f>IF(G104, F104/G104, "")</f>
@@ -4056,29 +4059,29 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C105" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="D105" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="E105" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F105" s="1">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="H105" s="2">
-        <v>710</v>
+        <v>2000</v>
       </c>
       <c r="I105" s="5">
         <f>IF(H105, 100*F105/H105, "")</f>
-        <v>0.70281690140845066</v>
+        <v>0.4995</v>
       </c>
       <c r="J105" s="5" t="str">
         <f>IF(G105, F105/G105, "")</f>
@@ -4087,29 +4090,29 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D106" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E106" s="3">
         <v>42278</v>
       </c>
       <c r="F106" s="1">
-        <v>3.29</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="H106" s="2">
-        <v>227</v>
+        <v>6804</v>
       </c>
       <c r="I106" s="5">
         <f>IF(H106, 100*F106/H106, "")</f>
-        <v>1.4493392070484581</v>
+        <v>0.24970605526161077</v>
       </c>
       <c r="J106" s="5" t="str">
         <f>IF(G106, F106/G106, "")</f>
@@ -4118,26 +4121,29 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>149</v>
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E107" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F107" s="1">
-        <v>1.45</v>
+        <v>4.99</v>
       </c>
       <c r="H107" s="2">
-        <v>671</v>
+        <v>2000</v>
       </c>
       <c r="I107" s="5">
         <f>IF(H107, 100*F107/H107, "")</f>
-        <v>0.21609538002980627</v>
+        <v>0.2495</v>
       </c>
       <c r="J107" s="5" t="str">
         <f>IF(G107, F107/G107, "")</f>
@@ -4146,29 +4152,29 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="D108" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E108" s="3">
         <v>42309</v>
       </c>
       <c r="F108" s="1">
-        <v>4.99</v>
+        <v>12.99</v>
       </c>
       <c r="H108" s="2">
-        <v>500</v>
+        <v>6804</v>
       </c>
       <c r="I108" s="5">
         <f>IF(H108, 100*F108/H108, "")</f>
-        <v>0.998</v>
+        <v>0.19091710758377425</v>
       </c>
       <c r="J108" s="5" t="str">
         <f>IF(G108, F108/G108, "")</f>
@@ -4177,26 +4183,29 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>22</v>
       </c>
       <c r="D109" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="E109" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F109" s="1">
-        <v>0.92</v>
+        <v>13.98</v>
       </c>
       <c r="H109" s="2">
-        <v>45</v>
+        <v>8000</v>
       </c>
       <c r="I109" s="5">
         <f>IF(H109, 100*F109/H109, "")</f>
-        <v>2.0444444444444443</v>
+        <v>0.17474999999999999</v>
       </c>
       <c r="J109" s="5" t="str">
         <f>IF(G109, F109/G109, "")</f>
@@ -4205,26 +4214,29 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>47</v>
+        <v>126</v>
+      </c>
+      <c r="C110" t="s">
+        <v>38</v>
       </c>
       <c r="D110" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="E110" s="3">
         <v>42309</v>
       </c>
       <c r="F110" s="1">
-        <v>2.99</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="H110" s="2">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I110" s="5">
         <f>IF(H110, 100*F110/H110, "")</f>
-        <v>1.4950000000000001</v>
+        <v>0.21949999999999997</v>
       </c>
       <c r="J110" s="5" t="str">
         <f>IF(G110, F110/G110, "")</f>
@@ -4233,29 +4245,29 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C111" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="D111" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="E111" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F111" s="1">
-        <v>2.4900000000000002</v>
+        <v>5.99</v>
       </c>
       <c r="H111" s="2">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I111" s="5">
         <f>IF(H111, 100*F111/H111, "")</f>
-        <v>0.49800000000000005</v>
+        <v>0.29949999999999999</v>
       </c>
       <c r="J111" s="5" t="str">
         <f>IF(G111, F111/G111, "")</f>
@@ -4264,26 +4276,29 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>51</v>
+        <v>126</v>
+      </c>
+      <c r="C112" t="s">
+        <v>171</v>
       </c>
       <c r="D112" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="E112" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F112" s="1">
-        <v>0.39</v>
+        <v>6.99</v>
       </c>
       <c r="H112" s="2">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I112" s="5">
         <f>IF(H112, 100*F112/H112, "")</f>
-        <v>0.39</v>
+        <v>0.34949999999999998</v>
       </c>
       <c r="J112" s="5" t="str">
         <f>IF(G112, F112/G112, "")</f>
@@ -4292,26 +4307,29 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="C113" t="s">
+        <v>60</v>
       </c>
       <c r="D113" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E113" s="3">
         <v>42278</v>
       </c>
       <c r="F113" s="1">
-        <v>2.69</v>
+        <v>2.79</v>
       </c>
       <c r="H113" s="2">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="I113" s="5">
         <f>IF(H113, 100*F113/H113, "")</f>
-        <v>1.345</v>
+        <v>0.94256756756756754</v>
       </c>
       <c r="J113" s="5" t="str">
         <f>IF(G113, F113/G113, "")</f>
@@ -4320,29 +4338,29 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B114" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="C114" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E114" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F114" s="1">
-        <v>2.4900000000000002</v>
+        <v>3.99</v>
       </c>
       <c r="H114" s="2">
-        <v>750</v>
+        <v>710</v>
       </c>
       <c r="I114" s="5">
         <f>IF(H114, 100*F114/H114, "")</f>
-        <v>0.33200000000000002</v>
+        <v>0.56197183098591552</v>
       </c>
       <c r="J114" s="5" t="str">
         <f>IF(G114, F114/G114, "")</f>
@@ -4351,32 +4369,327 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B115" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="C115" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="D115" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="E115" s="3">
         <v>42309</v>
       </c>
       <c r="F115" s="1">
-        <v>1.99</v>
+        <v>4.99</v>
       </c>
       <c r="H115" s="2">
-        <v>750</v>
+        <v>710</v>
       </c>
       <c r="I115" s="5">
         <f>IF(H115, 100*F115/H115, "")</f>
-        <v>0.26533333333333331</v>
+        <v>0.70281690140845066</v>
       </c>
       <c r="J115" s="5" t="str">
         <f>IF(G115, F115/G115, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>56</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>57</v>
+      </c>
+      <c r="D116" t="s">
+        <v>26</v>
+      </c>
+      <c r="E116" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F116" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="H116" s="2">
+        <v>227</v>
+      </c>
+      <c r="I116" s="5">
+        <f>IF(H116, 100*F116/H116, "")</f>
+        <v>1.4493392070484581</v>
+      </c>
+      <c r="J116" s="5" t="str">
+        <f>IF(G116, F116/G116, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>46</v>
+      </c>
+      <c r="B117" t="s">
+        <v>149</v>
+      </c>
+      <c r="D117" t="s">
+        <v>26</v>
+      </c>
+      <c r="E117" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="H117" s="2">
+        <v>671</v>
+      </c>
+      <c r="I117" s="5">
+        <f>IF(H117, 100*F117/H117, "")</f>
+        <v>0.21609538002980627</v>
+      </c>
+      <c r="J117" s="5" t="str">
+        <f>IF(G117, F117/G117, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>46</v>
+      </c>
+      <c r="B118" t="s">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>116</v>
+      </c>
+      <c r="D118" t="s">
+        <v>104</v>
+      </c>
+      <c r="E118" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F118" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="H118" s="2">
+        <v>500</v>
+      </c>
+      <c r="I118" s="5">
+        <f>IF(H118, 100*F118/H118, "")</f>
+        <v>0.998</v>
+      </c>
+      <c r="J118" s="5" t="str">
+        <f>IF(G118, F118/G118, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" t="s">
+        <v>47</v>
+      </c>
+      <c r="D119" t="s">
+        <v>48</v>
+      </c>
+      <c r="E119" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="H119" s="2">
+        <v>45</v>
+      </c>
+      <c r="I119" s="5">
+        <f>IF(H119, 100*F119/H119, "")</f>
+        <v>2.0444444444444443</v>
+      </c>
+      <c r="J119" s="5" t="str">
+        <f>IF(G119, F119/G119, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" t="s">
+        <v>47</v>
+      </c>
+      <c r="D120" t="s">
+        <v>104</v>
+      </c>
+      <c r="E120" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F120" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="H120" s="2">
+        <v>200</v>
+      </c>
+      <c r="I120" s="5">
+        <f>IF(H120, 100*F120/H120, "")</f>
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="J120" s="5" t="str">
+        <f>IF(G120, F120/G120, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" t="s">
+        <v>115</v>
+      </c>
+      <c r="C121" t="s">
+        <v>116</v>
+      </c>
+      <c r="D121" t="s">
+        <v>104</v>
+      </c>
+      <c r="E121" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F121" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H121" s="2">
+        <v>500</v>
+      </c>
+      <c r="I121" s="5">
+        <f>IF(H121, 100*F121/H121, "")</f>
+        <v>0.49800000000000005</v>
+      </c>
+      <c r="J121" s="5" t="str">
+        <f>IF(G121, F121/G121, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>155</v>
+      </c>
+      <c r="B122" t="s">
+        <v>51</v>
+      </c>
+      <c r="D122" t="s">
+        <v>48</v>
+      </c>
+      <c r="E122" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="H122" s="2">
+        <v>100</v>
+      </c>
+      <c r="I122" s="5">
+        <f>IF(H122, 100*F122/H122, "")</f>
+        <v>0.39</v>
+      </c>
+      <c r="J122" s="5" t="str">
+        <f>IF(G122, F122/G122, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>48</v>
+      </c>
+      <c r="E123" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F123" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="H123" s="2">
+        <v>200</v>
+      </c>
+      <c r="I123" s="5">
+        <f>IF(H123, 100*F123/H123, "")</f>
+        <v>1.345</v>
+      </c>
+      <c r="J123" s="5" t="str">
+        <f>IF(G123, F123/G123, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>63</v>
+      </c>
+      <c r="B124" t="s">
+        <v>64</v>
+      </c>
+      <c r="C124" t="s">
+        <v>65</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F124" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H124" s="2">
+        <v>750</v>
+      </c>
+      <c r="I124" s="5">
+        <f>IF(H124, 100*F124/H124, "")</f>
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="J124" s="5" t="str">
+        <f>IF(G124, F124/G124, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>63</v>
+      </c>
+      <c r="B125" t="s">
+        <v>64</v>
+      </c>
+      <c r="C125" t="s">
+        <v>65</v>
+      </c>
+      <c r="D125" t="s">
+        <v>104</v>
+      </c>
+      <c r="E125" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="H125" s="2">
+        <v>750</v>
+      </c>
+      <c r="I125" s="5">
+        <f>IF(H125, 100*F125/H125, "")</f>
+        <v>0.26533333333333331</v>
+      </c>
+      <c r="J125" s="5" t="str">
+        <f>IF(G125, F125/G125, "")</f>
         <v/>
       </c>
     </row>
@@ -4418,11 +4731,11 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2.59</v>
+        <v>1.29</v>
       </c>
       <c r="B2">
         <f>A2*2.20462/10</f>
-        <v>0.57099657999999986</v>
+        <v>0.28439597999999999</v>
       </c>
     </row>
   </sheetData>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="194">
   <si>
     <t>Product</t>
   </si>
@@ -559,6 +559,45 @@
   </si>
   <si>
     <t>Arabica, Columbian, Dark</t>
+  </si>
+  <si>
+    <t>Pork, Belly</t>
+  </si>
+  <si>
+    <t>Supplement</t>
+  </si>
+  <si>
+    <t>Protein, Whey Isolate</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Avocado</t>
+  </si>
+  <si>
+    <t>Chosen Foods</t>
+  </si>
+  <si>
+    <t>Coconut</t>
+  </si>
+  <si>
+    <t>Nutiva</t>
+  </si>
+  <si>
+    <t>Brie, Double Cream</t>
+  </si>
+  <si>
+    <t>St. Raymond</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>Krinos</t>
+  </si>
+  <si>
+    <t>Olive, Extra Virgin</t>
   </si>
 </sst>
 </file>
@@ -654,9 +693,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J125" totalsRowShown="0">
-  <autoFilter ref="A1:J125"/>
-  <sortState ref="A2:J125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J135" totalsRowShown="0">
+  <autoFilter ref="A1:J135"/>
+  <sortState ref="A2:J135">
     <sortCondition ref="A2:A37"/>
     <sortCondition ref="B2:B37"/>
   </sortState>
@@ -967,11 +1006,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,26 +1936,26 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E31" s="3">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="F31" s="1">
-        <v>8.99</v>
+        <v>7.39</v>
       </c>
       <c r="H31" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I31" s="5">
         <f>IF(H31, 100*F31/H31, "")</f>
-        <v>1.9801762114537445</v>
+        <v>1.6422222222222222</v>
       </c>
       <c r="J31" s="5" t="str">
         <f>IF(G31, F31/G31, "")</f>
@@ -1928,23 +1967,26 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>189</v>
+      </c>
+      <c r="C32" t="s">
+        <v>191</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E32" s="3">
-        <v>42309</v>
+        <v>42370</v>
       </c>
       <c r="F32" s="1">
-        <v>7.9</v>
+        <v>8.89</v>
       </c>
       <c r="H32" s="2">
-        <v>180</v>
+        <v>550</v>
       </c>
       <c r="I32" s="5">
         <f>IF(H32, 100*F32/H32, "")</f>
-        <v>4.3888888888888893</v>
+        <v>1.6163636363636364</v>
       </c>
       <c r="J32" s="5" t="str">
         <f>IF(G32, F32/G32, "")</f>
@@ -1956,23 +1998,26 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>189</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E33" s="3">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="F33" s="1">
-        <v>3.99</v>
+        <v>13.99</v>
       </c>
       <c r="H33" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I33" s="5">
         <f>IF(H33, 100*F33/H33, "")</f>
-        <v>3.99</v>
+        <v>1.399</v>
       </c>
       <c r="J33" s="5" t="str">
         <f>IF(G33, F33/G33, "")</f>
@@ -1984,10 +2029,10 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -1996,14 +2041,14 @@
         <v>42278</v>
       </c>
       <c r="F34" s="1">
-        <v>2.99</v>
+        <v>8.99</v>
       </c>
       <c r="H34" s="2">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="I34" s="5">
         <f>IF(H34, 100*F34/H34, "")</f>
-        <v>2.99</v>
+        <v>1.9801762114537445</v>
       </c>
       <c r="J34" s="5" t="str">
         <f>IF(G34, F34/G34, "")</f>
@@ -2015,23 +2060,23 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F35" s="1">
-        <v>7.99</v>
+        <v>7.9</v>
       </c>
       <c r="H35" s="2">
-        <v>454</v>
+        <v>180</v>
       </c>
       <c r="I35" s="5">
         <f>IF(H35, 100*F35/H35, "")</f>
-        <v>1.7599118942731278</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="J35" s="5" t="str">
         <f>IF(G35, F35/G35, "")</f>
@@ -2043,7 +2088,7 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -2052,14 +2097,14 @@
         <v>42278</v>
       </c>
       <c r="F36" s="1">
-        <v>8.49</v>
+        <v>3.99</v>
       </c>
       <c r="H36" s="2">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="I36" s="5">
         <f>IF(H36, 100*F36/H36, "")</f>
-        <v>1.8700440528634361</v>
+        <v>3.99</v>
       </c>
       <c r="J36" s="5" t="str">
         <f>IF(G36, F36/G36, "")</f>
@@ -2071,7 +2116,10 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -2080,14 +2128,14 @@
         <v>42278</v>
       </c>
       <c r="F37" s="1">
-        <v>4.29</v>
+        <v>2.99</v>
       </c>
       <c r="H37" s="2">
         <v>100</v>
       </c>
       <c r="I37" s="5">
         <f>IF(H37, 100*F37/H37, "")</f>
-        <v>4.29</v>
+        <v>2.99</v>
       </c>
       <c r="J37" s="5" t="str">
         <f>IF(G37, F37/G37, "")</f>
@@ -2099,23 +2147,23 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F38" s="1">
-        <v>8.7899999999999991</v>
+        <v>7.99</v>
       </c>
       <c r="H38" s="2">
-        <v>200</v>
+        <v>454</v>
       </c>
       <c r="I38" s="5">
         <f>IF(H38, 100*F38/H38, "")</f>
-        <v>4.3949999999999996</v>
+        <v>1.7599118942731278</v>
       </c>
       <c r="J38" s="5" t="str">
         <f>IF(G38, F38/G38, "")</f>
@@ -2124,57 +2172,54 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="E39" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F39" s="1">
-        <v>5.97</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="I39" s="5" t="str">
+        <v>8.49</v>
+      </c>
+      <c r="H39" s="2">
+        <v>454</v>
+      </c>
+      <c r="I39" s="5">
         <f>IF(H39, 100*F39/H39, "")</f>
-        <v/>
-      </c>
-      <c r="J39" s="5">
+        <v>1.8700440528634361</v>
+      </c>
+      <c r="J39" s="5" t="str">
         <f>IF(G39, F39/G39, "")</f>
-        <v>5.97</v>
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
-      </c>
-      <c r="C40" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E40" s="3">
-        <v>42339</v>
+        <v>42278</v>
       </c>
       <c r="F40" s="1">
-        <v>12.99</v>
+        <v>4.29</v>
       </c>
       <c r="H40" s="2">
-        <v>1361</v>
+        <v>100</v>
       </c>
       <c r="I40" s="5">
         <f>IF(H40, 100*F40/H40, "")</f>
-        <v>0.95444526083761938</v>
+        <v>4.29</v>
       </c>
       <c r="J40" s="5" t="str">
         <f>IF(G40, F40/G40, "")</f>
@@ -2183,29 +2228,26 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="3">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="F41" s="1">
-        <v>8.99</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="H41" s="2">
-        <v>875</v>
+        <v>200</v>
       </c>
       <c r="I41" s="5">
         <f>IF(H41, 100*F41/H41, "")</f>
-        <v>1.0274285714285714</v>
+        <v>4.3949999999999996</v>
       </c>
       <c r="J41" s="5" t="str">
         <f>IF(G41, F41/G41, "")</f>
@@ -2214,22 +2256,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E42" s="3">
         <v>42309</v>
       </c>
       <c r="F42" s="1">
-        <v>8.99</v>
+        <v>5.97</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
@@ -2240,34 +2279,34 @@
       </c>
       <c r="J42" s="5">
         <f>IF(G42, F42/G42, "")</f>
-        <v>8.99</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E43" s="3">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="F43" s="1">
-        <v>2.25</v>
+        <v>12.99</v>
       </c>
       <c r="H43" s="2">
-        <v>2000</v>
+        <v>1361</v>
       </c>
       <c r="I43" s="5">
         <f>IF(H43, 100*F43/H43, "")</f>
-        <v>0.1125</v>
+        <v>0.95444526083761938</v>
       </c>
       <c r="J43" s="5" t="str">
         <f>IF(G43, F43/G43, "")</f>
@@ -2276,10 +2315,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s">
         <v>30</v>
@@ -2288,17 +2327,17 @@
         <v>12</v>
       </c>
       <c r="E44" s="3">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="F44" s="1">
-        <v>2.2599999999999998</v>
+        <v>8.99</v>
       </c>
       <c r="H44" s="2">
-        <v>4000</v>
+        <v>875</v>
       </c>
       <c r="I44" s="5">
         <f>IF(H44, 100*F44/H44, "")</f>
-        <v>5.6499999999999995E-2</v>
+        <v>1.0274285714285714</v>
       </c>
       <c r="J44" s="5" t="str">
         <f>IF(G44, F44/G44, "")</f>
@@ -2307,25 +2346,25 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E45" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F45" s="1">
-        <v>2.99</v>
+        <v>8.99</v>
       </c>
       <c r="G45" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I45" s="5" t="str">
         <f>IF(H45, 100*F45/H45, "")</f>
@@ -2333,62 +2372,65 @@
       </c>
       <c r="J45" s="5">
         <f>IF(G45, F45/G45, "")</f>
-        <v>0.49833333333333335</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E46" s="3">
         <v>42278</v>
       </c>
       <c r="F46" s="1">
-        <v>2.99</v>
-      </c>
-      <c r="G46" s="4">
-        <v>6</v>
-      </c>
-      <c r="I46" s="5" t="str">
+        <v>2.25</v>
+      </c>
+      <c r="H46" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I46" s="5">
         <f>IF(H46, 100*F46/H46, "")</f>
-        <v/>
-      </c>
-      <c r="J46" s="5">
+        <v>0.1125</v>
+      </c>
+      <c r="J46" s="5" t="str">
         <f>IF(G46, F46/G46, "")</f>
-        <v>0.49833333333333335</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E47" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F47" s="1">
-        <v>18.989999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H47" s="2">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I47" s="5">
         <f>IF(H47, 100*F47/H47, "")</f>
-        <v>1.8989999999999998</v>
+        <v>5.6499999999999995E-2</v>
       </c>
       <c r="J47" s="5" t="str">
         <f>IF(G47, F47/G47, "")</f>
@@ -2397,61 +2439,61 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="E48" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F48" s="1">
-        <v>17.989999999999998</v>
-      </c>
-      <c r="H48" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I48" s="5">
+        <v>2.99</v>
+      </c>
+      <c r="G48" s="4">
+        <v>6</v>
+      </c>
+      <c r="I48" s="5" t="str">
         <f>IF(H48, 100*F48/H48, "")</f>
-        <v>1.7989999999999997</v>
-      </c>
-      <c r="J48" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J48" s="5">
         <f>IF(G48, F48/G48, "")</f>
-        <v/>
+        <v>0.49833333333333335</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E49" s="3">
         <v>42278</v>
       </c>
       <c r="F49" s="1">
-        <v>12.99</v>
-      </c>
-      <c r="H49" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I49" s="5">
+        <v>2.99</v>
+      </c>
+      <c r="G49" s="4">
+        <v>6</v>
+      </c>
+      <c r="I49" s="5" t="str">
         <f>IF(H49, 100*F49/H49, "")</f>
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="J49" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J49" s="5">
         <f>IF(G49, F49/G49, "")</f>
-        <v/>
+        <v>0.49833333333333335</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2459,7 +2501,7 @@
         <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
         <v>128</v>
@@ -2471,14 +2513,14 @@
         <v>42309</v>
       </c>
       <c r="F50" s="1">
-        <v>15.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="H50" s="2">
         <v>1000</v>
       </c>
       <c r="I50" s="5">
         <f>IF(H50, 100*F50/H50, "")</f>
-        <v>1.599</v>
+        <v>1.8989999999999998</v>
       </c>
       <c r="J50" s="5" t="str">
         <f>IF(G50, F50/G50, "")</f>
@@ -2490,7 +2532,7 @@
         <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
         <v>128</v>
@@ -2502,14 +2544,14 @@
         <v>42309</v>
       </c>
       <c r="F51" s="1">
-        <v>19.989999999999998</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="H51" s="2">
         <v>1000</v>
       </c>
       <c r="I51" s="5">
         <f>IF(H51, 100*F51/H51, "")</f>
-        <v>1.9989999999999997</v>
+        <v>1.7989999999999997</v>
       </c>
       <c r="J51" s="5" t="str">
         <f>IF(G51, F51/G51, "")</f>
@@ -2521,26 +2563,23 @@
         <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
-      </c>
-      <c r="C52" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="D52" t="s">
         <v>73</v>
       </c>
       <c r="E52" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F52" s="1">
-        <v>16.29</v>
+        <v>12.99</v>
       </c>
       <c r="H52" s="2">
         <v>1000</v>
       </c>
       <c r="I52" s="5">
         <f>IF(H52, 100*F52/H52, "")</f>
-        <v>1.629</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="J52" s="5" t="str">
         <f>IF(G52, F52/G52, "")</f>
@@ -2549,26 +2588,29 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>130</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E53" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F53" s="1">
-        <v>4.25</v>
+        <v>15.99</v>
       </c>
       <c r="H53" s="2">
-        <v>495</v>
+        <v>1000</v>
       </c>
       <c r="I53" s="5">
         <f>IF(H53, 100*F53/H53, "")</f>
-        <v>0.85858585858585856</v>
+        <v>1.599</v>
       </c>
       <c r="J53" s="5" t="str">
         <f>IF(G53, F53/G53, "")</f>
@@ -2577,57 +2619,60 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E54" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F54" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="G54" s="4">
-        <v>3</v>
-      </c>
-      <c r="I54" s="5" t="str">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I54" s="5">
         <f>IF(H54, 100*F54/H54, "")</f>
-        <v/>
-      </c>
-      <c r="J54" s="5">
+        <v>1.9989999999999997</v>
+      </c>
+      <c r="J54" s="5" t="str">
         <f>IF(G54, F54/G54, "")</f>
-        <v>0.33</v>
+        <v/>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>129</v>
+      </c>
+      <c r="C55" t="s">
+        <v>128</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E55" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F55" s="1">
-        <v>0.89</v>
+        <v>16.29</v>
       </c>
       <c r="H55" s="2">
-        <v>135</v>
+        <v>1000</v>
       </c>
       <c r="I55" s="5">
         <f>IF(H55, 100*F55/H55, "")</f>
-        <v>0.65925925925925921</v>
+        <v>1.629</v>
       </c>
       <c r="J55" s="5" t="str">
         <f>IF(G55, F55/G55, "")</f>
@@ -2636,29 +2681,26 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
-      </c>
-      <c r="C56" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="E56" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F56" s="1">
-        <v>2.69</v>
+        <v>4.25</v>
       </c>
       <c r="H56" s="2">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="I56" s="5">
         <f>IF(H56, 100*F56/H56, "")</f>
-        <v>0.59251101321585908</v>
+        <v>0.85858585858585856</v>
       </c>
       <c r="J56" s="5" t="str">
         <f>IF(G56, F56/G56, "")</f>
@@ -2667,54 +2709,57 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E57" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F57" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="H57" s="2">
-        <v>200</v>
-      </c>
-      <c r="I57" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="G57" s="4">
+        <v>3</v>
+      </c>
+      <c r="I57" s="5" t="str">
         <f>IF(H57, 100*F57/H57, "")</f>
-        <v>0.77</v>
-      </c>
-      <c r="J57" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J57" s="5">
         <f>IF(G57, F57/G57, "")</f>
-        <v/>
+        <v>0.33</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="D58" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="E58" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F58" s="1">
-        <v>3.99</v>
+        <v>0.89</v>
       </c>
       <c r="H58" s="2">
-        <v>900</v>
+        <v>135</v>
       </c>
       <c r="I58" s="5">
         <f>IF(H58, 100*F58/H58, "")</f>
-        <v>0.44333333333333336</v>
+        <v>0.65925925925925921</v>
       </c>
       <c r="J58" s="5" t="str">
         <f>IF(G58, F58/G58, "")</f>
@@ -2726,23 +2771,26 @@
         <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="E59" s="3">
         <v>42309</v>
       </c>
       <c r="F59" s="1">
-        <v>1.74</v>
+        <v>2.69</v>
       </c>
       <c r="H59" s="2">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="I59" s="5">
         <f>IF(H59, 100*F59/H59, "")</f>
-        <v>1.74</v>
+        <v>0.59251101321585908</v>
       </c>
       <c r="J59" s="5" t="str">
         <f>IF(G59, F59/G59, "")</f>
@@ -2754,7 +2802,7 @@
         <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D60" t="s">
         <v>48</v>
@@ -2763,14 +2811,14 @@
         <v>42309</v>
       </c>
       <c r="F60" s="1">
-        <v>2.4500000000000002</v>
+        <v>1.54</v>
       </c>
       <c r="H60" s="2">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="I60" s="5">
         <f>IF(H60, 100*F60/H60, "")</f>
-        <v>2.1304347826086958</v>
+        <v>0.77</v>
       </c>
       <c r="J60" s="5" t="str">
         <f>IF(G60, F60/G60, "")</f>
@@ -2782,26 +2830,23 @@
         <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D61" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E61" s="3">
         <v>42309</v>
       </c>
       <c r="F61" s="1">
-        <v>7.79</v>
+        <v>3.99</v>
       </c>
       <c r="H61" s="2">
-        <v>280</v>
+        <v>900</v>
       </c>
       <c r="I61" s="5">
         <f>IF(H61, 100*F61/H61, "")</f>
-        <v>2.782142857142857</v>
+        <v>0.44333333333333336</v>
       </c>
       <c r="J61" s="5" t="str">
         <f>IF(G61, F61/G61, "")</f>
@@ -2813,26 +2858,23 @@
         <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E62" s="3">
         <v>42309</v>
       </c>
       <c r="F62" s="1">
-        <v>9.99</v>
+        <v>1.74</v>
       </c>
       <c r="H62" s="2">
-        <v>907</v>
+        <v>100</v>
       </c>
       <c r="I62" s="5">
         <f>IF(H62, 100*F62/H62, "")</f>
-        <v>1.101433296582139</v>
+        <v>1.74</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>IF(G62, F62/G62, "")</f>
@@ -2844,26 +2886,23 @@
         <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E63" s="3">
         <v>42309</v>
       </c>
       <c r="F63" s="1">
-        <v>13.99</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H63" s="2">
-        <v>800</v>
+        <v>115</v>
       </c>
       <c r="I63" s="5">
         <f>IF(H63, 100*F63/H63, "")</f>
-        <v>1.74875</v>
+        <v>2.1304347826086958</v>
       </c>
       <c r="J63" s="5" t="str">
         <f>IF(G63, F63/G63, "")</f>
@@ -2875,23 +2914,26 @@
         <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>90</v>
+      </c>
+      <c r="C64" t="s">
+        <v>112</v>
       </c>
       <c r="D64" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="E64" s="3">
         <v>42309</v>
       </c>
       <c r="F64" s="1">
-        <v>0.41</v>
+        <v>7.79</v>
       </c>
       <c r="H64" s="2">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="I64" s="5">
         <f>IF(H64, 100*F64/H64, "")</f>
-        <v>0.41</v>
+        <v>2.782142857142857</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>IF(G64, F64/G64, "")</f>
@@ -2903,26 +2945,26 @@
         <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E65" s="3">
         <v>42309</v>
       </c>
       <c r="F65" s="1">
-        <v>2.99</v>
+        <v>9.99</v>
       </c>
       <c r="H65" s="2">
-        <v>400</v>
+        <v>907</v>
       </c>
       <c r="I65" s="5">
         <f>IF(H65, 100*F65/H65, "")</f>
-        <v>0.74750000000000005</v>
+        <v>1.101433296582139</v>
       </c>
       <c r="J65" s="5" t="str">
         <f>IF(G65, F65/G65, "")</f>
@@ -2934,26 +2976,26 @@
         <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="E66" s="3">
         <v>42309</v>
       </c>
       <c r="F66" s="1">
-        <v>2.69</v>
+        <v>13.99</v>
       </c>
       <c r="H66" s="2">
-        <v>454</v>
+        <v>800</v>
       </c>
       <c r="I66" s="5">
         <f>IF(H66, 100*F66/H66, "")</f>
-        <v>0.59251101321585908</v>
+        <v>1.74875</v>
       </c>
       <c r="J66" s="5" t="str">
         <f>IF(G66, F66/G66, "")</f>
@@ -2965,23 +3007,23 @@
         <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="E67" s="3">
         <v>42309</v>
       </c>
       <c r="F67" s="1">
-        <v>7.99</v>
+        <v>0.41</v>
       </c>
       <c r="H67" s="2">
-        <v>1816</v>
+        <v>100</v>
       </c>
       <c r="I67" s="5">
         <f>IF(H67, 100*F67/H67, "")</f>
-        <v>0.43997797356828194</v>
+        <v>0.41</v>
       </c>
       <c r="J67" s="5" t="str">
         <f>IF(G67, F67/G67, "")</f>
@@ -2993,26 +3035,26 @@
         <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E68" s="3">
         <v>42309</v>
       </c>
       <c r="F68" s="1">
-        <v>3.77</v>
+        <v>2.99</v>
       </c>
       <c r="H68" s="2">
-        <v>793</v>
+        <v>400</v>
       </c>
       <c r="I68" s="5">
         <f>IF(H68, 100*F68/H68, "")</f>
-        <v>0.47540983606557374</v>
+        <v>0.74750000000000005</v>
       </c>
       <c r="J68" s="5" t="str">
         <f>IF(G68, F68/G68, "")</f>
@@ -3024,26 +3066,26 @@
         <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C69" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E69" s="3">
         <v>42309</v>
       </c>
       <c r="F69" s="1">
-        <v>7.69</v>
+        <v>2.69</v>
       </c>
       <c r="H69" s="2">
-        <v>907</v>
+        <v>454</v>
       </c>
       <c r="I69" s="5">
         <f>IF(H69, 100*F69/H69, "")</f>
-        <v>0.84785005512679157</v>
+        <v>0.59251101321585908</v>
       </c>
       <c r="J69" s="5" t="str">
         <f>IF(G69, F69/G69, "")</f>
@@ -3055,23 +3097,23 @@
         <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D70" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E70" s="3">
         <v>42309</v>
       </c>
       <c r="F70" s="1">
-        <v>4.99</v>
+        <v>7.99</v>
       </c>
       <c r="H70" s="2">
-        <v>400</v>
+        <v>1816</v>
       </c>
       <c r="I70" s="5">
         <f>IF(H70, 100*F70/H70, "")</f>
-        <v>1.2475000000000001</v>
+        <v>0.43997797356828194</v>
       </c>
       <c r="J70" s="5" t="str">
         <f>IF(G70, F70/G70, "")</f>
@@ -3083,26 +3125,26 @@
         <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C71" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="E71" s="3">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="F71" s="1">
-        <v>9.99</v>
+        <v>3.77</v>
       </c>
       <c r="H71" s="2">
-        <v>907</v>
+        <v>793</v>
       </c>
       <c r="I71" s="5">
         <f>IF(H71, 100*F71/H71, "")</f>
-        <v>1.101433296582139</v>
+        <v>0.47540983606557374</v>
       </c>
       <c r="J71" s="5" t="str">
         <f>IF(G71, F71/G71, "")</f>
@@ -3114,23 +3156,26 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>113</v>
+      </c>
+      <c r="C72" t="s">
+        <v>114</v>
       </c>
       <c r="D72" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="E72" s="3">
         <v>42309</v>
       </c>
       <c r="F72" s="1">
-        <v>2.73</v>
+        <v>7.69</v>
       </c>
       <c r="H72" s="2">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="I72" s="5">
         <f>IF(H72, 100*F72/H72, "")</f>
-        <v>1.4756756756756757</v>
+        <v>0.84785005512679157</v>
       </c>
       <c r="J72" s="5" t="str">
         <f>IF(G72, F72/G72, "")</f>
@@ -3139,26 +3184,26 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="D73" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="E73" s="3">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="F73" s="1">
-        <v>0.56999999999999995</v>
+        <v>4.99</v>
       </c>
       <c r="H73" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I73" s="5">
         <f>IF(H73, 100*F73/H73, "")</f>
-        <v>0.56999999999999995</v>
+        <v>1.2475000000000001</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>IF(G73, F73/G73, "")</f>
@@ -3167,26 +3212,29 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>113</v>
+      </c>
+      <c r="C74" t="s">
+        <v>114</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E74" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F74" s="1">
-        <v>22.02</v>
+        <v>9.99</v>
       </c>
       <c r="H74" s="2">
-        <v>1000</v>
+        <v>907</v>
       </c>
       <c r="I74" s="5">
         <f>IF(H74, 100*F74/H74, "")</f>
-        <v>2.202</v>
+        <v>1.101433296582139</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>IF(G74, F74/G74, "")</f>
@@ -3195,26 +3243,26 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E75" s="3">
         <v>42309</v>
       </c>
       <c r="F75" s="1">
-        <v>9.7899999999999991</v>
+        <v>2.73</v>
       </c>
       <c r="H75" s="2">
-        <v>1000</v>
+        <v>185</v>
       </c>
       <c r="I75" s="5">
         <f>IF(H75, 100*F75/H75, "")</f>
-        <v>0.97899999999999987</v>
+        <v>1.4756756756756757</v>
       </c>
       <c r="J75" s="5" t="str">
         <f>IF(G75, F75/G75, "")</f>
@@ -3223,29 +3271,26 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E76" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F76" s="1">
-        <v>7.99</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H76" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I76" s="5">
         <f>IF(H76, 100*F76/H76, "")</f>
-        <v>0.79900000000000004</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>IF(G76, F76/G76, "")</f>
@@ -3254,29 +3299,26 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="B77" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="D77" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E77" s="3">
-        <v>42309</v>
+        <v>42370</v>
       </c>
       <c r="F77" s="1">
-        <v>5.69</v>
+        <v>5.71</v>
       </c>
       <c r="H77" s="2">
         <v>1000</v>
       </c>
       <c r="I77" s="5">
         <f>IF(H77, 100*F77/H77, "")</f>
-        <v>0.56899999999999995</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="J77" s="5" t="str">
         <f>IF(G77, F77/G77, "")</f>
@@ -3288,26 +3330,23 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D78" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E78" s="3">
         <v>42309</v>
       </c>
       <c r="F78" s="1">
-        <v>11.69</v>
+        <v>22.02</v>
       </c>
       <c r="H78" s="2">
         <v>1000</v>
       </c>
       <c r="I78" s="5">
         <f>IF(H78, 100*F78/H78, "")</f>
-        <v>1.169</v>
+        <v>2.202</v>
       </c>
       <c r="J78" s="5" t="str">
         <f>IF(G78, F78/G78, "")</f>
@@ -3319,23 +3358,23 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D79" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="E79" s="3">
         <v>42309</v>
       </c>
       <c r="F79" s="1">
-        <v>3.24</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="H79" s="2">
         <v>1000</v>
       </c>
       <c r="I79" s="5">
         <f>IF(H79, 100*F79/H79, "")</f>
-        <v>0.32400000000000001</v>
+        <v>0.97899999999999987</v>
       </c>
       <c r="J79" s="5" t="str">
         <f>IF(G79, F79/G79, "")</f>
@@ -3347,23 +3386,26 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>134</v>
+      </c>
+      <c r="C80" t="s">
+        <v>128</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E80" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F80" s="1">
-        <v>8.8000000000000007</v>
+        <v>7.99</v>
       </c>
       <c r="H80" s="2">
         <v>1000</v>
       </c>
       <c r="I80" s="5">
         <f>IF(H80, 100*F80/H80, "")</f>
-        <v>0.88000000000000012</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="J80" s="5" t="str">
         <f>IF(G80, F80/G80, "")</f>
@@ -3375,23 +3417,26 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>135</v>
+      </c>
+      <c r="C81" t="s">
+        <v>128</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E81" s="3">
         <v>42309</v>
       </c>
       <c r="F81" s="1">
-        <v>1.1000000000000001</v>
+        <v>5.69</v>
       </c>
       <c r="H81" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I81" s="5">
         <f>IF(H81, 100*F81/H81, "")</f>
-        <v>1.1000000000000001</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="J81" s="5" t="str">
         <f>IF(G81, F81/G81, "")</f>
@@ -3403,7 +3448,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
         <v>128</v>
@@ -3415,14 +3460,14 @@
         <v>42309</v>
       </c>
       <c r="F82" s="1">
-        <v>4.99</v>
+        <v>11.69</v>
       </c>
       <c r="H82" s="2">
         <v>1000</v>
       </c>
       <c r="I82" s="5">
         <f>IF(H82, 100*F82/H82, "")</f>
-        <v>0.499</v>
+        <v>1.169</v>
       </c>
       <c r="J82" s="5" t="str">
         <f>IF(G82, F82/G82, "")</f>
@@ -3434,23 +3479,23 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D83" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="E83" s="3">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="F83" s="1">
-        <v>11.07</v>
+        <v>13.21</v>
       </c>
       <c r="H83" s="2">
-        <v>2016</v>
+        <v>1000</v>
       </c>
       <c r="I83" s="5">
         <f>IF(H83, 100*F83/H83, "")</f>
-        <v>0.5491071428571429</v>
+        <v>1.321</v>
       </c>
       <c r="J83" s="5" t="str">
         <f>IF(G83, F83/G83, "")</f>
@@ -3462,23 +3507,23 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E84" s="3">
         <v>42309</v>
       </c>
       <c r="F84" s="1">
-        <v>17.649999999999999</v>
+        <v>3.24</v>
       </c>
       <c r="H84" s="2">
         <v>1000</v>
       </c>
       <c r="I84" s="5">
         <f>IF(H84, 100*F84/H84, "")</f>
-        <v>1.7649999999999997</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="J84" s="5" t="str">
         <f>IF(G84, F84/G84, "")</f>
@@ -3490,26 +3535,23 @@
         <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
-      </c>
-      <c r="C85" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E85" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F85" s="1">
-        <v>9.89</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H85" s="2">
         <v>1000</v>
       </c>
       <c r="I85" s="5">
         <f>IF(H85, 100*F85/H85, "")</f>
-        <v>0.98899999999999999</v>
+        <v>0.88000000000000012</v>
       </c>
       <c r="J85" s="5" t="str">
         <f>IF(G85, F85/G85, "")</f>
@@ -3521,23 +3563,23 @@
         <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="3">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="F86" s="1">
-        <v>5.95</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H86" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I86" s="5">
         <f>IF(H86, 100*F86/H86, "")</f>
-        <v>0.59499999999999997</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J86" s="5" t="str">
         <f>IF(G86, F86/G86, "")</f>
@@ -3546,29 +3588,29 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E87" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F87" s="1">
         <v>4.99</v>
       </c>
       <c r="H87" s="2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="I87" s="5">
         <f>IF(H87, 100*F87/H87, "")</f>
-        <v>0.16633333333333333</v>
+        <v>0.499</v>
       </c>
       <c r="J87" s="5" t="str">
         <f>IF(G87, F87/G87, "")</f>
@@ -3577,26 +3619,26 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="E88" s="3">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="F88" s="1">
-        <v>4.97</v>
+        <v>11.07</v>
       </c>
       <c r="H88" s="2">
-        <v>4000</v>
+        <v>2016</v>
       </c>
       <c r="I88" s="5">
         <f>IF(H88, 100*F88/H88, "")</f>
-        <v>0.12425</v>
+        <v>0.5491071428571429</v>
       </c>
       <c r="J88" s="5" t="str">
         <f>IF(G88, F88/G88, "")</f>
@@ -3605,26 +3647,26 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E89" s="3">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="F89" s="1">
-        <v>1.23</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="H89" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I89" s="5">
         <f>IF(H89, 100*F89/H89, "")</f>
-        <v>1.23</v>
+        <v>1.7649999999999997</v>
       </c>
       <c r="J89" s="5" t="str">
         <f>IF(G89, F89/G89, "")</f>
@@ -3633,26 +3675,29 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>98</v>
+      </c>
+      <c r="C90" t="s">
+        <v>128</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E90" s="3">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="F90" s="1">
-        <v>1.59</v>
+        <v>9.89</v>
       </c>
       <c r="H90" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I90" s="5">
         <f>IF(H90, 100*F90/H90, "")</f>
-        <v>0.318</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="J90" s="5" t="str">
         <f>IF(G90, F90/G90, "")</f>
@@ -3661,26 +3706,26 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="B91" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
       </c>
       <c r="E91" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F91" s="1">
-        <v>2.29</v>
+        <v>5.95</v>
       </c>
       <c r="H91" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I91" s="5">
         <f>IF(H91, 100*F91/H91, "")</f>
-        <v>2.29</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="J91" s="5" t="str">
         <f>IF(G91, F91/G91, "")</f>
@@ -3689,26 +3734,29 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="B92" t="s">
-        <v>154</v>
+        <v>33</v>
+      </c>
+      <c r="C92" t="s">
+        <v>34</v>
       </c>
       <c r="D92" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E92" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F92" s="1">
-        <v>3.1</v>
+        <v>4.99</v>
       </c>
       <c r="H92" s="2">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="I92" s="5">
         <f>IF(H92, 100*F92/H92, "")</f>
-        <v>3.1</v>
+        <v>0.16633333333333333</v>
       </c>
       <c r="J92" s="5" t="str">
         <f>IF(G92, F92/G92, "")</f>
@@ -3717,29 +3765,26 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>154</v>
-      </c>
-      <c r="C93" t="s">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" s="3">
-        <v>42339</v>
+        <v>42278</v>
       </c>
       <c r="F93" s="1">
-        <v>3.14</v>
+        <v>4.97</v>
       </c>
       <c r="H93" s="2">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="I93" s="5">
         <f>IF(H93, 100*F93/H93, "")</f>
-        <v>3.14</v>
+        <v>0.12425</v>
       </c>
       <c r="J93" s="5" t="str">
         <f>IF(G93, F93/G93, "")</f>
@@ -3748,57 +3793,54 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E94" s="3">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="F94" s="1">
-        <v>1.34</v>
-      </c>
-      <c r="G94" s="4">
-        <v>2</v>
-      </c>
-      <c r="I94" s="5" t="str">
+        <v>1.23</v>
+      </c>
+      <c r="H94" s="2">
+        <v>100</v>
+      </c>
+      <c r="I94" s="5">
         <f>IF(H94, 100*F94/H94, "")</f>
-        <v/>
-      </c>
-      <c r="J94" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="J94" s="5" t="str">
         <f>IF(G94, F94/G94, "")</f>
-        <v>0.67</v>
+        <v/>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="B95" t="s">
-        <v>40</v>
-      </c>
-      <c r="C95" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E95" s="3">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="F95" s="1">
-        <v>2.5</v>
+        <v>12.32</v>
       </c>
       <c r="H95" s="2">
-        <v>1360</v>
+        <v>1000</v>
       </c>
       <c r="I95" s="5">
         <f>IF(H95, 100*F95/H95, "")</f>
-        <v>0.18382352941176472</v>
+        <v>1.232</v>
       </c>
       <c r="J95" s="5" t="str">
         <f>IF(G95, F95/G95, "")</f>
@@ -3807,26 +3849,26 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E96" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F96" s="1">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="H96" s="2">
-        <v>4536</v>
+        <v>500</v>
       </c>
       <c r="I96" s="5">
         <f>IF(H96, 100*F96/H96, "")</f>
-        <v>4.4091710758377423E-2</v>
+        <v>0.318</v>
       </c>
       <c r="J96" s="5" t="str">
         <f>IF(G96, F96/G96, "")</f>
@@ -3835,23 +3877,26 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>153</v>
+      </c>
+      <c r="B97" t="s">
+        <v>159</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
       </c>
       <c r="E97" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F97" s="1">
-        <v>4.3899999999999997</v>
+        <v>2.29</v>
       </c>
       <c r="H97" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I97" s="5">
         <f>IF(H97, 100*F97/H97, "")</f>
-        <v>0.43899999999999995</v>
+        <v>2.29</v>
       </c>
       <c r="J97" s="5" t="str">
         <f>IF(G97, F97/G97, "")</f>
@@ -3860,54 +3905,57 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="B98" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E98" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F98" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="G98" s="4">
-        <v>1</v>
-      </c>
-      <c r="I98" s="5" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="H98" s="2">
+        <v>100</v>
+      </c>
+      <c r="I98" s="5">
         <f>IF(H98, 100*F98/H98, "")</f>
-        <v/>
-      </c>
-      <c r="J98" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="J98" s="5" t="str">
         <f>IF(G98, F98/G98, "")</f>
-        <v>2.88</v>
+        <v/>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>154</v>
+      </c>
+      <c r="C99" t="s">
+        <v>170</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
       </c>
       <c r="E99" s="3">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="F99" s="1">
-        <v>4</v>
+        <v>3.14</v>
       </c>
       <c r="H99" s="2">
-        <v>9072</v>
+        <v>100</v>
       </c>
       <c r="I99" s="5">
         <f>IF(H99, 100*F99/H99, "")</f>
-        <v>4.4091710758377423E-2</v>
+        <v>3.14</v>
       </c>
       <c r="J99" s="5" t="str">
         <f>IF(G99, F99/G99, "")</f>
@@ -3916,26 +3964,29 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="B100" t="s">
-        <v>52</v>
+        <v>185</v>
+      </c>
+      <c r="C100" t="s">
+        <v>186</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E100" s="3">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="F100" s="1">
-        <v>1.88</v>
+        <v>13.99</v>
       </c>
       <c r="H100" s="2">
-        <v>4536</v>
+        <v>1000</v>
       </c>
       <c r="I100" s="5">
         <f>IF(H100, 100*F100/H100, "")</f>
-        <v>4.1446208112874777E-2</v>
+        <v>1.399</v>
       </c>
       <c r="J100" s="5" t="str">
         <f>IF(G100, F100/G100, "")</f>
@@ -3944,26 +3995,29 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>187</v>
+      </c>
+      <c r="C101" t="s">
+        <v>188</v>
       </c>
       <c r="D101" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E101" s="3">
-        <v>42309</v>
+        <v>42370</v>
       </c>
       <c r="F101" s="1">
-        <v>1.29</v>
+        <v>27.99</v>
       </c>
       <c r="H101" s="2">
-        <v>454</v>
+        <v>2300</v>
       </c>
       <c r="I101" s="5">
         <f>IF(H101, 100*F101/H101, "")</f>
-        <v>0.28414096916299558</v>
+        <v>1.2169565217391305</v>
       </c>
       <c r="J101" s="5" t="str">
         <f>IF(G101, F101/G101, "")</f>
@@ -3972,26 +4026,29 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>193</v>
+      </c>
+      <c r="C102" t="s">
+        <v>192</v>
       </c>
       <c r="D102" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E102" s="3">
-        <v>42309</v>
+        <v>42016</v>
       </c>
       <c r="F102" s="1">
-        <v>1.29</v>
+        <v>8.99</v>
       </c>
       <c r="H102" s="2">
-        <v>454</v>
+        <v>750</v>
       </c>
       <c r="I102" s="5">
         <f>IF(H102, 100*F102/H102, "")</f>
-        <v>0.28414096916299558</v>
+        <v>1.1986666666666668</v>
       </c>
       <c r="J102" s="5" t="str">
         <f>IF(G102, F102/G102, "")</f>
@@ -4000,57 +4057,57 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="D103" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E103" s="3">
-        <v>42339</v>
+        <v>42278</v>
       </c>
       <c r="F103" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="H103" s="2">
-        <v>100</v>
-      </c>
-      <c r="I103" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="G103" s="4">
+        <v>2</v>
+      </c>
+      <c r="I103" s="5" t="str">
         <f>IF(H103, 100*F103/H103, "")</f>
-        <v>0.33</v>
-      </c>
-      <c r="J103" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J103" s="5">
         <f>IF(G103, F103/G103, "")</f>
-        <v/>
+        <v>0.67</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D104" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E104" s="3">
         <v>42278</v>
       </c>
       <c r="F104" s="1">
-        <v>8.99</v>
+        <v>2.5</v>
       </c>
       <c r="H104" s="2">
-        <v>1860</v>
+        <v>1360</v>
       </c>
       <c r="I104" s="5">
         <f>IF(H104, 100*F104/H104, "")</f>
-        <v>0.48333333333333334</v>
+        <v>0.18382352941176472</v>
       </c>
       <c r="J104" s="5" t="str">
         <f>IF(G104, F104/G104, "")</f>
@@ -4059,29 +4116,26 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>172</v>
-      </c>
-      <c r="C105" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="D105" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="E105" s="3">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="F105" s="1">
-        <v>9.99</v>
+        <v>2</v>
       </c>
       <c r="H105" s="2">
-        <v>2000</v>
+        <v>4536</v>
       </c>
       <c r="I105" s="5">
         <f>IF(H105, 100*F105/H105, "")</f>
-        <v>0.4995</v>
+        <v>4.4091710758377423E-2</v>
       </c>
       <c r="J105" s="5" t="str">
         <f>IF(G105, F105/G105, "")</f>
@@ -4090,29 +4144,23 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>7</v>
-      </c>
-      <c r="B106" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D106" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E106" s="3">
         <v>42278</v>
       </c>
       <c r="F106" s="1">
-        <v>16.989999999999998</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="H106" s="2">
-        <v>6804</v>
+        <v>1000</v>
       </c>
       <c r="I106" s="5">
         <f>IF(H106, 100*F106/H106, "")</f>
-        <v>0.24970605526161077</v>
+        <v>0.43899999999999995</v>
       </c>
       <c r="J106" s="5" t="str">
         <f>IF(G106, F106/G106, "")</f>
@@ -4121,60 +4169,54 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E107" s="3">
         <v>42278</v>
       </c>
       <c r="F107" s="1">
-        <v>4.99</v>
-      </c>
-      <c r="H107" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I107" s="5">
+        <v>2.88</v>
+      </c>
+      <c r="G107" s="4">
+        <v>1</v>
+      </c>
+      <c r="I107" s="5" t="str">
         <f>IF(H107, 100*F107/H107, "")</f>
-        <v>0.2495</v>
-      </c>
-      <c r="J107" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J107" s="5">
         <f>IF(G107, F107/G107, "")</f>
-        <v/>
+        <v>2.88</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D108" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="E108" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F108" s="1">
-        <v>12.99</v>
+        <v>4</v>
       </c>
       <c r="H108" s="2">
-        <v>6804</v>
+        <v>9072</v>
       </c>
       <c r="I108" s="5">
         <f>IF(H108, 100*F108/H108, "")</f>
-        <v>0.19091710758377425</v>
+        <v>4.4091710758377423E-2</v>
       </c>
       <c r="J108" s="5" t="str">
         <f>IF(G108, F108/G108, "")</f>
@@ -4183,29 +4225,26 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D109" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="E109" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F109" s="1">
-        <v>13.98</v>
+        <v>1.88</v>
       </c>
       <c r="H109" s="2">
-        <v>8000</v>
+        <v>4536</v>
       </c>
       <c r="I109" s="5">
         <f>IF(H109, 100*F109/H109, "")</f>
-        <v>0.17474999999999999</v>
+        <v>4.1446208112874777E-2</v>
       </c>
       <c r="J109" s="5" t="str">
         <f>IF(G109, F109/G109, "")</f>
@@ -4214,29 +4253,26 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="B110" t="s">
-        <v>126</v>
-      </c>
-      <c r="C110" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E110" s="3">
         <v>42309</v>
       </c>
       <c r="F110" s="1">
-        <v>4.3899999999999997</v>
+        <v>1.29</v>
       </c>
       <c r="H110" s="2">
-        <v>2000</v>
+        <v>454</v>
       </c>
       <c r="I110" s="5">
         <f>IF(H110, 100*F110/H110, "")</f>
-        <v>0.21949999999999997</v>
+        <v>0.28414096916299558</v>
       </c>
       <c r="J110" s="5" t="str">
         <f>IF(G110, F110/G110, "")</f>
@@ -4245,29 +4281,26 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="B111" t="s">
-        <v>126</v>
-      </c>
-      <c r="C111" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="D111" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E111" s="3">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="F111" s="1">
-        <v>5.99</v>
+        <v>1.29</v>
       </c>
       <c r="H111" s="2">
-        <v>2000</v>
+        <v>454</v>
       </c>
       <c r="I111" s="5">
         <f>IF(H111, 100*F111/H111, "")</f>
-        <v>0.29949999999999999</v>
+        <v>0.28414096916299558</v>
       </c>
       <c r="J111" s="5" t="str">
         <f>IF(G111, F111/G111, "")</f>
@@ -4276,29 +4309,26 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="B112" t="s">
-        <v>126</v>
-      </c>
-      <c r="C112" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D112" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E112" s="3">
         <v>42339</v>
       </c>
       <c r="F112" s="1">
-        <v>6.99</v>
+        <v>0.33</v>
       </c>
       <c r="H112" s="2">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="I112" s="5">
         <f>IF(H112, 100*F112/H112, "")</f>
-        <v>0.34949999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="J112" s="5" t="str">
         <f>IF(G112, F112/G112, "")</f>
@@ -4307,29 +4337,29 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E113" s="3">
         <v>42278</v>
       </c>
       <c r="F113" s="1">
-        <v>2.79</v>
+        <v>8.99</v>
       </c>
       <c r="H113" s="2">
-        <v>296</v>
+        <v>1860</v>
       </c>
       <c r="I113" s="5">
         <f>IF(H113, 100*F113/H113, "")</f>
-        <v>0.94256756756756754</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="J113" s="5" t="str">
         <f>IF(G113, F113/G113, "")</f>
@@ -4338,29 +4368,29 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C114" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="D114" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E114" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F114" s="1">
-        <v>3.99</v>
+        <v>9.99</v>
       </c>
       <c r="H114" s="2">
-        <v>710</v>
+        <v>2000</v>
       </c>
       <c r="I114" s="5">
         <f>IF(H114, 100*F114/H114, "")</f>
-        <v>0.56197183098591552</v>
+        <v>0.4995</v>
       </c>
       <c r="J114" s="5" t="str">
         <f>IF(G114, F114/G114, "")</f>
@@ -4369,29 +4399,29 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="D115" t="s">
         <v>21</v>
       </c>
       <c r="E115" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F115" s="1">
-        <v>4.99</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="H115" s="2">
-        <v>710</v>
+        <v>6804</v>
       </c>
       <c r="I115" s="5">
         <f>IF(H115, 100*F115/H115, "")</f>
-        <v>0.70281690140845066</v>
+        <v>0.24970605526161077</v>
       </c>
       <c r="J115" s="5" t="str">
         <f>IF(G115, F115/G115, "")</f>
@@ -4400,29 +4430,29 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E116" s="3">
         <v>42278</v>
       </c>
       <c r="F116" s="1">
-        <v>3.29</v>
+        <v>4.99</v>
       </c>
       <c r="H116" s="2">
-        <v>227</v>
+        <v>2000</v>
       </c>
       <c r="I116" s="5">
         <f>IF(H116, 100*F116/H116, "")</f>
-        <v>1.4493392070484581</v>
+        <v>0.2495</v>
       </c>
       <c r="J116" s="5" t="str">
         <f>IF(G116, F116/G116, "")</f>
@@ -4431,26 +4461,29 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>149</v>
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>22</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="E117" s="3">
         <v>42309</v>
       </c>
       <c r="F117" s="1">
-        <v>1.45</v>
+        <v>12.99</v>
       </c>
       <c r="H117" s="2">
-        <v>671</v>
+        <v>6804</v>
       </c>
       <c r="I117" s="5">
         <f>IF(H117, 100*F117/H117, "")</f>
-        <v>0.21609538002980627</v>
+        <v>0.19091710758377425</v>
       </c>
       <c r="J117" s="5" t="str">
         <f>IF(G117, F117/G117, "")</f>
@@ -4459,29 +4492,29 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="D118" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="E118" s="3">
         <v>42309</v>
       </c>
       <c r="F118" s="1">
-        <v>4.99</v>
+        <v>13.98</v>
       </c>
       <c r="H118" s="2">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="I118" s="5">
         <f>IF(H118, 100*F118/H118, "")</f>
-        <v>0.998</v>
+        <v>0.17474999999999999</v>
       </c>
       <c r="J118" s="5" t="str">
         <f>IF(G118, F118/G118, "")</f>
@@ -4490,26 +4523,29 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>47</v>
+        <v>126</v>
+      </c>
+      <c r="C119" t="s">
+        <v>38</v>
       </c>
       <c r="D119" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E119" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F119" s="1">
-        <v>0.92</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="H119" s="2">
-        <v>45</v>
+        <v>2000</v>
       </c>
       <c r="I119" s="5">
         <f>IF(H119, 100*F119/H119, "")</f>
-        <v>2.0444444444444443</v>
+        <v>0.21949999999999997</v>
       </c>
       <c r="J119" s="5" t="str">
         <f>IF(G119, F119/G119, "")</f>
@@ -4518,26 +4554,29 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>47</v>
+        <v>126</v>
+      </c>
+      <c r="C120" t="s">
+        <v>20</v>
       </c>
       <c r="D120" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="E120" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F120" s="1">
-        <v>2.99</v>
+        <v>5.99</v>
       </c>
       <c r="H120" s="2">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I120" s="5">
         <f>IF(H120, 100*F120/H120, "")</f>
-        <v>1.4950000000000001</v>
+        <v>0.29949999999999999</v>
       </c>
       <c r="J120" s="5" t="str">
         <f>IF(G120, F120/G120, "")</f>
@@ -4546,29 +4585,29 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C121" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="D121" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E121" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="F121" s="1">
-        <v>2.4900000000000002</v>
+        <v>6.99</v>
       </c>
       <c r="H121" s="2">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I121" s="5">
         <f>IF(H121, 100*F121/H121, "")</f>
-        <v>0.49800000000000005</v>
+        <v>0.34949999999999998</v>
       </c>
       <c r="J121" s="5" t="str">
         <f>IF(G121, F121/G121, "")</f>
@@ -4577,26 +4616,29 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="B122" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="C122" t="s">
+        <v>60</v>
       </c>
       <c r="D122" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E122" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F122" s="1">
-        <v>0.39</v>
+        <v>2.79</v>
       </c>
       <c r="H122" s="2">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="I122" s="5">
         <f>IF(H122, 100*F122/H122, "")</f>
-        <v>0.39</v>
+        <v>0.94256756756756754</v>
       </c>
       <c r="J122" s="5" t="str">
         <f>IF(G122, F122/G122, "")</f>
@@ -4605,26 +4647,29 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>143</v>
+      </c>
+      <c r="C123" t="s">
+        <v>144</v>
       </c>
       <c r="D123" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E123" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F123" s="1">
-        <v>2.69</v>
+        <v>3.99</v>
       </c>
       <c r="H123" s="2">
-        <v>200</v>
+        <v>710</v>
       </c>
       <c r="I123" s="5">
         <f>IF(H123, 100*F123/H123, "")</f>
-        <v>1.345</v>
+        <v>0.56197183098591552</v>
       </c>
       <c r="J123" s="5" t="str">
         <f>IF(G123, F123/G123, "")</f>
@@ -4633,29 +4678,29 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="C124" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="D124" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E124" s="3">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="F124" s="1">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="H124" s="2">
-        <v>750</v>
+        <v>710</v>
       </c>
       <c r="I124" s="5">
         <f>IF(H124, 100*F124/H124, "")</f>
-        <v>0.33200000000000002</v>
+        <v>0.70281690140845066</v>
       </c>
       <c r="J124" s="5" t="str">
         <f>IF(G124, F124/G124, "")</f>
@@ -4664,32 +4709,324 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B125" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D125" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="E125" s="3">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="F125" s="1">
-        <v>1.99</v>
+        <v>3.29</v>
       </c>
       <c r="H125" s="2">
-        <v>750</v>
+        <v>227</v>
       </c>
       <c r="I125" s="5">
         <f>IF(H125, 100*F125/H125, "")</f>
-        <v>0.26533333333333331</v>
+        <v>1.4493392070484581</v>
       </c>
       <c r="J125" s="5" t="str">
         <f>IF(G125, F125/G125, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>46</v>
+      </c>
+      <c r="B126" t="s">
+        <v>149</v>
+      </c>
+      <c r="D126" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="H126" s="2">
+        <v>671</v>
+      </c>
+      <c r="I126" s="5">
+        <f>IF(H126, 100*F126/H126, "")</f>
+        <v>0.21609538002980627</v>
+      </c>
+      <c r="J126" s="5" t="str">
+        <f>IF(G126, F126/G126, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>46</v>
+      </c>
+      <c r="B127" t="s">
+        <v>117</v>
+      </c>
+      <c r="C127" t="s">
+        <v>116</v>
+      </c>
+      <c r="D127" t="s">
+        <v>104</v>
+      </c>
+      <c r="E127" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F127" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="H127" s="2">
+        <v>500</v>
+      </c>
+      <c r="I127" s="5">
+        <f>IF(H127, 100*F127/H127, "")</f>
+        <v>0.998</v>
+      </c>
+      <c r="J127" s="5" t="str">
+        <f>IF(G127, F127/G127, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>46</v>
+      </c>
+      <c r="B128" t="s">
+        <v>47</v>
+      </c>
+      <c r="D128" t="s">
+        <v>48</v>
+      </c>
+      <c r="E128" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="H128" s="2">
+        <v>45</v>
+      </c>
+      <c r="I128" s="5">
+        <f>IF(H128, 100*F128/H128, "")</f>
+        <v>2.0444444444444443</v>
+      </c>
+      <c r="J128" s="5" t="str">
+        <f>IF(G128, F128/G128, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>46</v>
+      </c>
+      <c r="B129" t="s">
+        <v>47</v>
+      </c>
+      <c r="D129" t="s">
+        <v>104</v>
+      </c>
+      <c r="E129" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F129" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="H129" s="2">
+        <v>200</v>
+      </c>
+      <c r="I129" s="5">
+        <f>IF(H129, 100*F129/H129, "")</f>
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="J129" s="5" t="str">
+        <f>IF(G129, F129/G129, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>46</v>
+      </c>
+      <c r="B130" t="s">
+        <v>115</v>
+      </c>
+      <c r="C130" t="s">
+        <v>116</v>
+      </c>
+      <c r="D130" t="s">
+        <v>104</v>
+      </c>
+      <c r="E130" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F130" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H130" s="2">
+        <v>500</v>
+      </c>
+      <c r="I130" s="5">
+        <f>IF(H130, 100*F130/H130, "")</f>
+        <v>0.49800000000000005</v>
+      </c>
+      <c r="J130" s="5" t="str">
+        <f>IF(G130, F130/G130, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>155</v>
+      </c>
+      <c r="B131" t="s">
+        <v>51</v>
+      </c>
+      <c r="D131" t="s">
+        <v>48</v>
+      </c>
+      <c r="E131" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="H131" s="2">
+        <v>100</v>
+      </c>
+      <c r="I131" s="5">
+        <f>IF(H131, 100*F131/H131, "")</f>
+        <v>0.39</v>
+      </c>
+      <c r="J131" s="5" t="str">
+        <f>IF(G131, F131/G131, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>48</v>
+      </c>
+      <c r="E132" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F132" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="H132" s="2">
+        <v>200</v>
+      </c>
+      <c r="I132" s="5">
+        <f>IF(H132, 100*F132/H132, "")</f>
+        <v>1.345</v>
+      </c>
+      <c r="J132" s="5" t="str">
+        <f>IF(G132, F132/G132, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>182</v>
+      </c>
+      <c r="B133" t="s">
+        <v>183</v>
+      </c>
+      <c r="D133" t="s">
+        <v>48</v>
+      </c>
+      <c r="E133" s="3">
+        <v>42370</v>
+      </c>
+      <c r="F133" s="1">
+        <v>4.87</v>
+      </c>
+      <c r="H133" s="2">
+        <v>100</v>
+      </c>
+      <c r="I133" s="5">
+        <f>IF(H133, 100*F133/H133, "")</f>
+        <v>4.87</v>
+      </c>
+      <c r="J133" s="5" t="str">
+        <f>IF(G133, F133/G133, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>63</v>
+      </c>
+      <c r="B134" t="s">
+        <v>64</v>
+      </c>
+      <c r="C134" t="s">
+        <v>65</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="3">
+        <v>42278</v>
+      </c>
+      <c r="F134" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H134" s="2">
+        <v>750</v>
+      </c>
+      <c r="I134" s="5">
+        <f>IF(H134, 100*F134/H134, "")</f>
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="J134" s="5" t="str">
+        <f>IF(G134, F134/G134, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>63</v>
+      </c>
+      <c r="B135" t="s">
+        <v>64</v>
+      </c>
+      <c r="C135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D135" t="s">
+        <v>104</v>
+      </c>
+      <c r="E135" s="3">
+        <v>42309</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="H135" s="2">
+        <v>750</v>
+      </c>
+      <c r="I135" s="5">
+        <f>IF(H135, 100*F135/H135, "")</f>
+        <v>0.26533333333333331</v>
+      </c>
+      <c r="J135" s="5" t="str">
+        <f>IF(G135, F135/G135, "")</f>
         <v/>
       </c>
     </row>
@@ -4731,11 +5068,11 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.29</v>
+        <v>2.59</v>
       </c>
       <c r="B2">
         <f>A2*2.20462/10</f>
-        <v>0.28439597999999999</v>
+        <v>0.57099657999999986</v>
       </c>
     </row>
   </sheetData>
